--- a/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
+++ b/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\test_docs\landmark_tests\newSIMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952A64A7-0A5D-4306-AA78-0B984265A1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFF39B8-FC3F-4CAF-9611-263D4377DD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,12 +72,6 @@
     <t>ObservedLandark in NewLM = (770.852,770.852)</t>
   </si>
   <si>
-    <t>Landmark Observer = (770.852,770.852)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-98.6543,0)</t>
-  </si>
-  <si>
     <t>smallestDistance = 1162</t>
   </si>
   <si>
@@ -99,27 +93,12 @@
     <t>ObservedLandark in NewLM = (590.014,590.014)</t>
   </si>
   <si>
-    <t>Landmark Observer = (590.014,590.014)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (591.872,883.076)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-98.6544,-1.40134e-05)</t>
-  </si>
-  <si>
     <t>smallestDistance = 293.067</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-1173.5,-1173.5)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-1173.5,-1173.5)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (740.148,-603.713)</t>
-  </si>
-  <si>
     <t>smallestDistance = 1591.35</t>
   </si>
   <si>
@@ -159,33 +138,12 @@
     <t>ObservedLandark in NewLM = (756.089,756.089)</t>
   </si>
   <si>
-    <t>Landmark Observer = (756.089,756.089)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (493.612,861.028)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (641.888,-625.761)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-1119.04,-832.726)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-196.914,-22.0479)</t>
-  </si>
-  <si>
     <t>smallestDistance = 282.678</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (379.153,379.153)</t>
   </si>
   <si>
-    <t>Landmark Observer = (379.153,379.153)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (506.741,853.217)</t>
-  </si>
-  <si>
     <t>smallestDistance = 490.932</t>
   </si>
   <si>
@@ -195,9 +153,6 @@
     <t>ObservedLandark in NewLM = (-1312.72,-1312.72)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-1312.72,-1312.72)</t>
-  </si>
-  <si>
     <t>smallestDistance = 517.597</t>
   </si>
   <si>
@@ -234,39 +189,18 @@
     <t>ObservedLandark in NewLM = (728.72,728.72)</t>
   </si>
   <si>
-    <t>Landmark Observer = (728.72,728.72)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (399.024,828.594)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (547.3,-658.194)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-1213.63,-865.16)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (412.153,820.783)</t>
-  </si>
-  <si>
     <t>smallestDistance = 329.682</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (216.08,216.08)</t>
   </si>
   <si>
-    <t>Landmark Observer = (216.08,216.08)</t>
-  </si>
-  <si>
     <t>smallestDistance = 635.697</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-1456.31,-1456.31)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-1456.31,-1456.31)</t>
-  </si>
-  <si>
     <t>smallestDistance = 639.029</t>
   </si>
   <si>
@@ -300,39 +234,18 @@
     <t>ObservedLandark in NewLM = (669.654,669.654)</t>
   </si>
   <si>
-    <t>Landmark Observer = (669.654,669.654)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (320.232,763.894)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (468.509,-722.895)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-1292.42,-929.86)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (333.362,756.083)</t>
-  </si>
-  <si>
     <t>smallestDistance = 347.221</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (25.6092,25.6092)</t>
   </si>
   <si>
-    <t>Landmark Observer = (25.6092,25.6092)</t>
-  </si>
-  <si>
     <t>smallestDistance = 792.656</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-1581.26,-1581.26)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-1581.26,-1581.26)</t>
-  </si>
-  <si>
     <t>smallestDistance = 712.564</t>
   </si>
   <si>
@@ -366,39 +279,18 @@
     <t>ObservedLandark in NewLM = (614.889,614.889)</t>
   </si>
   <si>
-    <t>Landmark Observer = (614.889,614.889)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (248.852,695.643)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (397.129,-791.145)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-1363.8,-998.111)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (261.982,687.832)</t>
-  </si>
-  <si>
     <t>smallestDistance = 360.367</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-154.713,-154.713)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-154.713,-154.713)</t>
-  </si>
-  <si>
     <t>smallestDistance = 842.363</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-1685.53,-1685.53)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-1685.53,-1685.53)</t>
-  </si>
-  <si>
     <t>smallestDistance = 758.983</t>
   </si>
   <si>
@@ -438,39 +330,18 @@
     <t>ObservedLandark in NewLM = (553.424,553.424)</t>
   </si>
   <si>
-    <t>Landmark Observer = (553.424,553.424)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (192.396,780.135)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (340.672,-706.657)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-1420.25,-913.619)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (205.536,772.319)</t>
-  </si>
-  <si>
     <t>smallestDistance = 411.025</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-337.47,-337.47)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-337.47,-337.47)</t>
-  </si>
-  <si>
     <t>smallestDistance = 772.125</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-1777.72,-1777.72)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-1777.72,-1777.72)</t>
-  </si>
-  <si>
     <t>smallestDistance = 935.118</t>
   </si>
   <si>
@@ -504,39 +375,18 @@
     <t>ObservedLandark in NewLM = (497.575,497.575)</t>
   </si>
   <si>
-    <t>Landmark Observer = (497.575,497.575)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (113.4,843.562)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (261.677,-643.23)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-1499.25,-850.192)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (126.54,835.746)</t>
-  </si>
-  <si>
     <t>smallestDistance = 502.023</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-497.238,-497.238)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-497.238,-497.238)</t>
-  </si>
-  <si>
     <t>smallestDistance = 772.83</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-1847.08,-1847.08)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-1847.08,-1847.08)</t>
-  </si>
-  <si>
     <t>smallestDistance = 1055.83</t>
   </si>
   <si>
@@ -570,42 +420,18 @@
     <t>ObservedLandark in NewLM = (432.69,432.69)</t>
   </si>
   <si>
-    <t>Landmark Observer = (432.69,432.69)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (30.7283,901.188)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (179.005,-585.605)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-1581.92,-792.567)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (43.8686,893.372)</t>
-  </si>
-  <si>
     <t>smallestDistance = 602.835</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-684.314,-684.314)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-684.314,-684.314)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (43.8685,893.372)</t>
-  </si>
-  <si>
     <t>smallestDistance = 868.944</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-1903.14,-1903.14)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-1903.14,-1903.14)</t>
-  </si>
-  <si>
     <t>smallestDistance = 1156.09</t>
   </si>
   <si>
@@ -639,45 +465,18 @@
     <t>ObservedLandark in NewLM = (360.122,360.122)</t>
   </si>
   <si>
-    <t>Landmark Observer = (360.122,360.122)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-52.9042,956.57)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (95.3726,-530.222)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-1665.55,-737.184)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-39.764,948.754)</t>
-  </si>
-  <si>
     <t>smallestDistance = 711.616</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-862.766,-862.766)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-862.766,-862.766)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (95.3727,-530.222)</t>
-  </si>
-  <si>
-    <t>Shifted_Stored = (-39.7639,948.754)</t>
-  </si>
-  <si>
     <t>smallestDistance = 812.55</t>
   </si>
   <si>
     <t>ObservedLandark in NewLM = (-1940.67,-1940.67)</t>
   </si>
   <si>
-    <t>Landmark Observer = (-1940.67,-1940.67)</t>
-  </si>
-  <si>
     <t>smallestDistance = 1234.53</t>
   </si>
   <si>
@@ -697,6 +496,207 @@
   </si>
   <si>
     <t>complete u states</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1063.08, 0.759597)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-98.6543,0)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (955.138, -0.904947)</t>
+  </si>
+  <si>
+    <t>Stored = (690.526,883.076) -&gt; Shifted_Stored = (591.872,883.076)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-98.6544,-1.40134e-05)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1303.53, -2.69114)</t>
+  </si>
+  <si>
+    <t>Stored = (838.802,-603.713) -&gt; Shifted_Stored = (740.148,-603.713)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (992.353, 0.704531)</t>
+  </si>
+  <si>
+    <t>Stored = (690.526,883.076) -&gt; Shifted_Stored = (493.612,861.028)</t>
+  </si>
+  <si>
+    <t>Stored = (838.802,-603.713) -&gt; Shifted_Stored = (641.888,-625.761)</t>
+  </si>
+  <si>
+    <t>Stored = (-922.124,-810.678) -&gt; Shifted_Stored = (-1119.04,-832.726)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-196.914,-22.0479)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (898.505, -1.13517)</t>
+  </si>
+  <si>
+    <t>Stored = (703.655,875.265) -&gt; Shifted_Stored = (506.741,853.217)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1394.04, -2.79834)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (919.3, 0.655588)</t>
+  </si>
+  <si>
+    <t>Stored = (690.526,883.076) -&gt; Shifted_Stored = (399.024,828.594)</t>
+  </si>
+  <si>
+    <t>Stored = (838.802,-603.713) -&gt; Shifted_Stored = (547.3,-658.194)</t>
+  </si>
+  <si>
+    <t>Stored = (-922.124,-810.678) -&gt; Shifted_Stored = (-1213.63,-865.16)</t>
+  </si>
+  <si>
+    <t>Stored = (703.655,875.265) -&gt; Shifted_Stored = (412.153,820.783)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (858.706, -1.31643)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1488.61, -2.93291)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (844.731, 0.655502)</t>
+  </si>
+  <si>
+    <t>Stored = (690.526,883.076) -&gt; Shifted_Stored = (320.232,763.894)</t>
+  </si>
+  <si>
+    <t>Stored = (838.802,-603.713) -&gt; Shifted_Stored = (468.509,-722.895)</t>
+  </si>
+  <si>
+    <t>Stored = (-922.124,-810.678) -&gt; Shifted_Stored = (-1292.42,-929.86)</t>
+  </si>
+  <si>
+    <t>Stored = (703.655,875.265) -&gt; Shifted_Stored = (333.362,756.083)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (839.185, -1.54027)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1586.65, -3.05915)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (769.625, 0.645256)</t>
+  </si>
+  <si>
+    <t>Stored = (690.526,883.076) -&gt; Shifted_Stored = (248.852,695.643)</t>
+  </si>
+  <si>
+    <t>Stored = (838.802,-603.713) -&gt; Shifted_Stored = (397.129,-791.145)</t>
+  </si>
+  <si>
+    <t>Stored = (-922.124,-810.678) -&gt; Shifted_Stored = (-1363.8,-998.111)</t>
+  </si>
+  <si>
+    <t>Stored = (703.655,875.265) -&gt; Shifted_Stored = (261.982,687.832)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (841.154, -1.75578)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1686.1, 3.11565)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (691.88, 0.643694)</t>
+  </si>
+  <si>
+    <t>Stored = (690.527,883.078) -&gt; Shifted_Stored = (192.396,780.135)</t>
+  </si>
+  <si>
+    <t>Stored = (838.804,-603.714) -&gt; Shifted_Stored = (340.672,-706.657)</t>
+  </si>
+  <si>
+    <t>Stored = (-922.121,-810.676) -&gt; Shifted_Stored = (-1420.25,-913.619)</t>
+  </si>
+  <si>
+    <t>Stored = (703.668,875.262) -&gt; Shifted_Stored = (205.536,772.319)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (864.619, -1.97177)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1786.11, 3.04462)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (614.527, 0.627177)</t>
+  </si>
+  <si>
+    <t>Stored = (690.527,883.078) -&gt; Shifted_Stored = (113.4,843.562)</t>
+  </si>
+  <si>
+    <t>Stored = (838.804,-603.714) -&gt; Shifted_Stored = (261.677,-643.23)</t>
+  </si>
+  <si>
+    <t>Stored = (-922.121,-810.676) -&gt; Shifted_Stored = (-1499.25,-850.192)</t>
+  </si>
+  <si>
+    <t>Stored = (703.668,875.262) -&gt; Shifted_Stored = (126.54,835.746)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (907.597, -2.1506)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1886.04, 2.93799)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (537.178, 0.634299)</t>
+  </si>
+  <si>
+    <t>Stored = (690.527,883.078) -&gt; Shifted_Stored = (30.7283,901.188)</t>
+  </si>
+  <si>
+    <t>Stored = (838.804,-603.714) -&gt; Shifted_Stored = (179.005,-585.605)</t>
+  </si>
+  <si>
+    <t>Stored = (-922.121,-810.676) -&gt; Shifted_Stored = (-1581.92,-792.567)</t>
+  </si>
+  <si>
+    <t>Stored = (703.668,875.262) -&gt; Shifted_Stored = (43.8686,893.372)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (967.312, -2.35666)</t>
+  </si>
+  <si>
+    <t>Stored = (703.668,875.262) -&gt; Shifted_Stored = (43.8685,893.372)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1983.7, 2.85563)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (461.004, 0.67426)</t>
+  </si>
+  <si>
+    <t>Stored = (690.527,883.078) -&gt; Shifted_Stored = (-52.9042,956.57)</t>
+  </si>
+  <si>
+    <t>Stored = (838.804,-603.714) -&gt; Shifted_Stored = (95.3726,-530.222)</t>
+  </si>
+  <si>
+    <t>Stored = (-922.121,-810.676) -&gt; Shifted_Stored = (-1665.55,-737.184)</t>
+  </si>
+  <si>
+    <t>Stored = (703.668,875.262) -&gt; Shifted_Stored = (-39.764,948.754)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1040.1, -2.54901)</t>
+  </si>
+  <si>
+    <t>Stored = (838.804,-603.714) -&gt; Shifted_Stored = (95.3727,-530.222)</t>
+  </si>
+  <si>
+    <t>Stored = (703.668,875.262) -&gt; Shifted_Stored = (-39.7639,948.754)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (2079.57, 2.77404)</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="I129" sqref="I129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,47 +1095,47 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -1240,47 +1240,47 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -1310,7 +1310,7 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
@@ -1385,47 +1385,47 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
@@ -1530,37 +1530,37 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
@@ -1570,67 +1570,67 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
@@ -1735,52 +1735,52 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
@@ -1825,7 +1825,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -1885,52 +1885,52 @@
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
@@ -1945,7 +1945,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
@@ -2035,37 +2035,37 @@
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
@@ -2075,72 +2075,72 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
@@ -2155,7 +2155,7 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -2185,7 +2185,7 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
@@ -2245,52 +2245,52 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
@@ -2320,7 +2320,7 @@
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
@@ -2395,52 +2395,52 @@
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
@@ -2470,7 +2470,7 @@
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
@@ -2485,7 +2485,7 @@
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
@@ -2545,37 +2545,37 @@
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
@@ -2585,72 +2585,72 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
@@ -2665,7 +2665,7 @@
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
@@ -2695,7 +2695,7 @@
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -2755,52 +2755,52 @@
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -2815,7 +2815,7 @@
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
@@ -2845,7 +2845,7 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
@@ -2905,52 +2905,52 @@
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
@@ -2965,7 +2965,7 @@
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
@@ -3055,37 +3055,37 @@
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -3095,72 +3095,72 @@
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
@@ -3175,7 +3175,7 @@
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
@@ -3190,7 +3190,7 @@
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -3265,52 +3265,52 @@
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
@@ -3340,7 +3340,7 @@
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
@@ -3355,7 +3355,7 @@
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
@@ -3415,52 +3415,52 @@
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
@@ -3475,7 +3475,7 @@
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
@@ -3490,7 +3490,7 @@
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
@@ -3505,7 +3505,7 @@
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
@@ -3565,37 +3565,37 @@
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
@@ -3605,72 +3605,72 @@
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
@@ -3685,7 +3685,7 @@
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
@@ -3700,7 +3700,7 @@
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
@@ -3715,7 +3715,7 @@
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
@@ -3775,52 +3775,52 @@
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
@@ -3835,7 +3835,7 @@
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
@@ -3850,7 +3850,7 @@
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
@@ -3865,7 +3865,7 @@
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
@@ -3925,52 +3925,52 @@
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
@@ -3985,7 +3985,7 @@
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
@@ -4000,7 +4000,7 @@
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
@@ -4015,7 +4015,7 @@
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
@@ -4075,37 +4075,37 @@
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
@@ -4115,72 +4115,72 @@
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
@@ -4195,7 +4195,7 @@
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
@@ -4210,7 +4210,7 @@
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
@@ -4225,7 +4225,7 @@
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
@@ -4285,52 +4285,52 @@
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
@@ -4345,7 +4345,7 @@
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
@@ -4360,7 +4360,7 @@
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
@@ -4375,7 +4375,7 @@
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
@@ -4435,52 +4435,52 @@
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
@@ -4510,7 +4510,7 @@
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
@@ -4525,7 +4525,7 @@
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
@@ -4585,37 +4585,37 @@
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
@@ -4625,72 +4625,72 @@
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
@@ -4705,7 +4705,7 @@
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
@@ -4720,7 +4720,7 @@
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
@@ -4735,7 +4735,7 @@
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
@@ -4795,52 +4795,52 @@
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
@@ -4855,7 +4855,7 @@
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
@@ -4870,7 +4870,7 @@
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
@@ -4885,7 +4885,7 @@
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
@@ -4945,52 +4945,52 @@
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
@@ -5005,7 +5005,7 @@
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
@@ -5020,7 +5020,7 @@
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
@@ -5035,7 +5035,7 @@
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
@@ -5095,37 +5095,37 @@
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
@@ -5135,72 +5135,72 @@
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
@@ -5215,7 +5215,7 @@
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
@@ -5230,7 +5230,7 @@
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
@@ -5245,7 +5245,7 @@
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
@@ -5305,52 +5305,52 @@
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
@@ -5365,7 +5365,7 @@
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
@@ -5380,7 +5380,7 @@
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
@@ -5395,7 +5395,7 @@
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
@@ -5455,52 +5455,52 @@
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
@@ -5515,7 +5515,7 @@
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
@@ -5530,7 +5530,7 @@
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
@@ -5545,7 +5545,7 @@
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
@@ -5605,42 +5605,42 @@
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
+++ b/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\test_docs\landmark_tests\newSIMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C832506F-D5D8-4BEC-8F82-F0B1E0DFA51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DF2AF2-F5D6-4149-A5D0-A33E9F7F0244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="978">
   <si>
     <t>INIT_sigma_r = 0.5</t>
   </si>
@@ -2286,42 +2286,24 @@
     <t>ObservedLandmark in NewLM = (1063.03, 0.738955)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (785.762,785.762)</t>
-  </si>
-  <si>
     <t>Stored = (0,0) -&gt; Shifted_Stored = (-99.3869,0)</t>
   </si>
   <si>
-    <t>smallestDistance = 1183.6</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (955.518, -0.92498)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (575.079,575.079)</t>
-  </si>
-  <si>
     <t>Stored = (862.193,740.376) -&gt; Shifted_Stored = (762.806,740.376)</t>
   </si>
   <si>
     <t>Stored = (0,0) -&gt; Shifted_Stored = (-99.3869,5.63518e-10)</t>
   </si>
   <si>
-    <t>smallestDistance = 250.129</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (1303.58, -2.70969)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-1183.87,-1183.87)</t>
-  </si>
-  <si>
     <t>Stored = (698.231,-744.581) -&gt; Shifted_Stored = (598.844,-744.581)</t>
   </si>
   <si>
-    <t>smallestDistance = 1605.5</t>
-  </si>
-  <si>
     <t>MAIN: after_ekf State: x=99.3869, y=-5.63518e-10, w=1.8061 deg</t>
   </si>
   <si>
@@ -2355,9 +2337,6 @@
     <t>ObservedLandmark in NewLM = (992.43, 0.7211)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (745.394,745.394)</t>
-  </si>
-  <si>
     <t>Stored = (862.193,740.376) -&gt; Shifted_Stored = (663.9,737.257)</t>
   </si>
   <si>
@@ -2370,18 +2349,12 @@
     <t>Stored = (0,0) -&gt; Shifted_Stored = (-198.294,-3.11881)</t>
   </si>
   <si>
-    <t>smallestDistance = 81.8993</t>
-  </si>
-  <si>
     <t>This is a found landmark</t>
   </si>
   <si>
     <t>ObservedLandmark in NewLM = (898.478, -1.13138)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (382.222,382.222)</t>
-  </si>
-  <si>
     <t>Stored = (862.226,740.448) -&gt; Shifted_Stored = (664.024,737.411)</t>
   </si>
   <si>
@@ -2394,36 +2367,9 @@
     <t>Stored = (0,0) -&gt; Shifted_Stored = (-198.202,-3.03668)</t>
   </si>
   <si>
-    <t>smallestDistance = 453.401</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (1393.91, -2.78988)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-1308.58,-1308.58)</t>
-  </si>
-  <si>
-    <t>Stored = (672.314,-760.167) -&gt; Shifted_Stored = (474.112,-763.204)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 724.136</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=198.202, y=3.03668, w=6.67243 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(862.226,740.448) | (698.225,-744.574) | (-1066.71,-582.725) | (672.314,-760.167) | </t>
-  </si>
-  <si>
-    <t>states[1][0]= 198.202 states[1][1]= 3.03668</t>
-  </si>
-  <si>
-    <t>landmarks[1][0]= 862.226 landmarks[1][1]= 740.448</t>
-  </si>
-  <si>
-    <t>curr_lm = (862.226,740.448),(698.225,-744.574),(-1066.71,-582.725)</t>
-  </si>
-  <si>
     <t>u[0][0]= 98.5767 u[0][1]= -0.103393</t>
   </si>
   <si>
@@ -2436,75 +2382,15 @@
     <t>Main: L0= 1488.97, -2.94017</t>
   </si>
   <si>
-    <t>MAIN: after_motion State: x=296.111, y=14.4906, w=0.748446 deg</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (919.845, 0.662012)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (725.534,725.534)</t>
-  </si>
-  <si>
-    <t>Stored = (862.226,740.448) -&gt; Shifted_Stored = (566.115,725.957)</t>
-  </si>
-  <si>
-    <t>Stored = (698.225,-744.574) -&gt; Shifted_Stored = (402.114,-759.065)</t>
-  </si>
-  <si>
-    <t>Stored = (-1066.71,-582.725) -&gt; Shifted_Stored = (-1362.82,-597.216)</t>
-  </si>
-  <si>
-    <t>Stored = (672.314,-760.167) -&gt; Shifted_Stored = (376.203,-774.658)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 159.419</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (858.963, -1.31096)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (220.683,220.683)</t>
-  </si>
-  <si>
-    <t>Stored = (862.231,740.289) -&gt; Shifted_Stored = (565.878,725.558)</t>
-  </si>
-  <si>
-    <t>Stored = (698.222,-744.571) -&gt; Shifted_Stored = (401.87,-759.302)</t>
-  </si>
-  <si>
-    <t>Stored = (-1066.71,-582.728) -&gt; Shifted_Stored = (-1363.07,-597.459)</t>
-  </si>
-  <si>
-    <t>Stored = (672.363,-760.16) -&gt; Shifted_Stored = (376.011,-774.891)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 611.604</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (1488.97, -2.94017)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-1458.87,-1458.87)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 866.724</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=296.352, y=14.731, w=14.1755 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(862.231,740.289) | (698.222,-744.571) | (-1066.71,-582.728) | (672.363,-760.16) | </t>
-  </si>
-  <si>
-    <t>states[2][0]= 296.352 states[2][1]= 14.731</t>
-  </si>
-  <si>
-    <t>landmarks[2][0]= 862.231 landmarks[2][1]= 740.289</t>
-  </si>
-  <si>
-    <t>curr_lm = (862.231,740.289),(698.222,-744.571),(-1066.71,-582.728)</t>
-  </si>
-  <si>
     <t>u[0][0]= 99.8057 u[0][1]= 0.177303</t>
   </si>
   <si>
@@ -2517,75 +2403,15 @@
     <t>Main: L0= 1586.57, -3.03223</t>
   </si>
   <si>
-    <t>MAIN: after_motion State: x=393.119, y=39.1727, w=24.3343 deg</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (845.022, 0.68516)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (654.315,654.315)</t>
-  </si>
-  <si>
-    <t>Stored = (862.231,740.289) -&gt; Shifted_Stored = (469.112,701.116)</t>
-  </si>
-  <si>
-    <t>Stored = (698.222,-744.571) -&gt; Shifted_Stored = (305.104,-783.744)</t>
-  </si>
-  <si>
-    <t>Stored = (-1066.71,-582.728) -&gt; Shifted_Stored = (-1459.83,-621.901)</t>
-  </si>
-  <si>
-    <t>Stored = (672.363,-760.16) -&gt; Shifted_Stored = (279.244,-799.333)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 191.025</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (838.907, -1.54325)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (23.1036,23.1036)</t>
-  </si>
-  <si>
-    <t>Stored = (862.171,740.437) -&gt; Shifted_Stored = (469.56,701.815)</t>
-  </si>
-  <si>
-    <t>Stored = (698.223,-744.571) -&gt; Shifted_Stored = (305.612,-783.193)</t>
-  </si>
-  <si>
-    <t>Stored = (-1066.71,-582.728) -&gt; Shifted_Stored = (-1459.32,-621.35)</t>
-  </si>
-  <si>
-    <t>Stored = (672.329,-760.164) -&gt; Shifted_Stored = (279.718,-798.786)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 812.387</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (1586.57, -3.03223)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-1577.09,-1577.09)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 962.968</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=392.611, y=38.622, w=16.8893 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(862.171,740.437) | (698.223,-744.571) | (-1066.71,-582.728) | (672.329,-760.164) | </t>
-  </si>
-  <si>
-    <t>states[3][0]= 392.611 states[3][1]= 38.622</t>
-  </si>
-  <si>
-    <t>landmarks[3][0]= 862.171 landmarks[3][1]= 740.437</t>
-  </si>
-  <si>
-    <t>curr_lm = (862.171,740.437),(698.223,-744.571),(-1066.71,-582.728)</t>
-  </si>
-  <si>
     <t>u[0][0]= 100.385 u[0][1]= 0.0448612</t>
   </si>
   <si>
@@ -2598,57 +2424,15 @@
     <t>Main: L0= 1686.23, 3.15022</t>
   </si>
   <si>
-    <t>MAIN: after_motion State: x=488.666, y=67.7862, w=19.4597 deg</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (768.989, 0.635589)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (618.822,618.822)</t>
-  </si>
-  <si>
-    <t>Stored = (862.171,740.437) -&gt; Shifted_Stored = (373.505,672.651)</t>
-  </si>
-  <si>
-    <t>Stored = (698.223,-744.571) -&gt; Shifted_Stored = (209.557,-812.358)</t>
-  </si>
-  <si>
-    <t>Stored = (-1066.71,-582.728) -&gt; Shifted_Stored = (-1555.38,-650.514)</t>
-  </si>
-  <si>
-    <t>Stored = (672.329,-760.164) -&gt; Shifted_Stored = (183.663,-827.95)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 251.154</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (841.015, -1.75777)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-156.331,-156.331)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 751.162</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (1686.23, 3.15022)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-1686.17,-1686.17)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 1043.88</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=488.666, y=67.7862, w=19.4597 deg</t>
-  </si>
-  <si>
-    <t>states[4][0]= 488.666 states[4][1]= 67.7862</t>
-  </si>
-  <si>
-    <t>landmarks[4][0]= 862.171 landmarks[4][1]= 740.437</t>
-  </si>
-  <si>
     <t>u[0][0]= 98.42 u[0][1]= -0.00259442</t>
   </si>
   <si>
@@ -2661,63 +2445,15 @@
     <t>Main: L0= 1785.96, 3.04142</t>
   </si>
   <si>
-    <t>MAIN: after_motion State: x=581.464, y=100.574, w=19.311 deg</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (691.935, 0.607948)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (567.956,567.956)</t>
-  </si>
-  <si>
-    <t>Stored = (862.171,740.437) -&gt; Shifted_Stored = (280.707,639.863)</t>
-  </si>
-  <si>
-    <t>Stored = (698.223,-744.571) -&gt; Shifted_Stored = (116.759,-845.146)</t>
-  </si>
-  <si>
-    <t>Stored = (-1066.71,-582.728) -&gt; Shifted_Stored = (-1648.18,-683.302)</t>
-  </si>
-  <si>
-    <t>Stored = (672.329,-760.164) -&gt; Shifted_Stored = (90.8647,-860.738)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 296.112</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (864.825, -1.94271)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-314.275,-314.275)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 680.264</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (1785.96, 3.04142)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-1777.01,-1777.01)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 1101.27</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=581.476, y=100.564, w=-100.687 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(862.179,740.431) | (698.223,-744.572) | (-1066.71,-582.727) | (672.33,-760.163) | </t>
-  </si>
-  <si>
-    <t>states[5][0]= 581.476 states[5][1]= 100.564</t>
-  </si>
-  <si>
-    <t>landmarks[5][0]= 862.179 landmarks[5][1]= 740.431</t>
-  </si>
-  <si>
-    <t>curr_lm = (862.179,740.431),(698.223,-744.572),(-1066.71,-582.727)</t>
-  </si>
-  <si>
     <t>u[0][0]= 100.797 u[0][1]= 0.113392</t>
   </si>
   <si>
@@ -2730,57 +2466,15 @@
     <t>Main: L0= 1885.38, 2.95077</t>
   </si>
   <si>
-    <t>MAIN: after_motion State: x=562.783, y=1.51583, w=-94.1902 deg</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (614.504, 0.663187)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (484.25,484.25)</t>
-  </si>
-  <si>
-    <t>Stored = (862.179,740.431) -&gt; Shifted_Stored = (299.395,738.915)</t>
-  </si>
-  <si>
-    <t>Stored = (698.223,-744.572) -&gt; Shifted_Stored = (135.44,-746.088)</t>
-  </si>
-  <si>
-    <t>Stored = (-1066.71,-582.727) -&gt; Shifted_Stored = (-1629.5,-584.243)</t>
-  </si>
-  <si>
-    <t>Stored = (672.33,-760.163) -&gt; Shifted_Stored = (109.547,-761.679)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 314.683</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (908.06, -2.20056)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-534.806,-534.806)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 683.127</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (1885.38, 2.95077)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-1851.15,-1851.15)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 1286.15</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=562.783, y=1.51583, w=-94.1902 deg</t>
-  </si>
-  <si>
-    <t>states[6][0]= 562.783 states[6][1]= 1.51583</t>
-  </si>
-  <si>
-    <t>landmarks[6][0]= 862.179 landmarks[6][1]= 740.431</t>
-  </si>
-  <si>
     <t>u[0][0]= 100.295 u[0][1]= 0.0406646</t>
   </si>
   <si>
@@ -2793,57 +2487,15 @@
     <t>Main: L0= 1983.59, 2.82663</t>
   </si>
   <si>
-    <t>MAIN: after_motion State: x=555.455, y=-98.5112, w=-91.8603 deg</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (537.089, 0.660872)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (424.009,424.009)</t>
-  </si>
-  <si>
-    <t>Stored = (862.179,740.431) -&gt; Shifted_Stored = (306.724,838.942)</t>
-  </si>
-  <si>
-    <t>Stored = (698.223,-744.572) -&gt; Shifted_Stored = (142.768,-646.061)</t>
-  </si>
-  <si>
-    <t>Stored = (-1066.71,-582.727) -&gt; Shifted_Stored = (-1622.17,-484.216)</t>
-  </si>
-  <si>
-    <t>Stored = (672.33,-760.163) -&gt; Shifted_Stored = (116.875,-661.652)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 431.191</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (967.104, -2.35601)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-683.718,-683.718)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 800.898</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (1983.59, 2.82663)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-1886.01,-1886.01)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 1426.41</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=555.455, y=-98.5112, w=-91.8603 deg</t>
-  </si>
-  <si>
-    <t>states[7][0]= 555.455 states[7][1]= -98.5112</t>
-  </si>
-  <si>
-    <t>landmarks[7][0]= 862.179 landmarks[7][1]= 740.431</t>
-  </si>
-  <si>
     <t>u[0][0]= 102.542 u[0][1]= 0.0027692</t>
   </si>
   <si>
@@ -2856,62 +2508,464 @@
     <t>Main: L0= 2079.51, 2.77091</t>
   </si>
   <si>
-    <t>MAIN: after_motion State: x=552.126, y=-200.999, w=-91.7016 deg</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (461.156, 0.685043)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (357.116,357.116)</t>
-  </si>
-  <si>
-    <t>Stored = (862.179,740.431) -&gt; Shifted_Stored = (310.052,941.43)</t>
-  </si>
-  <si>
-    <t>Stored = (698.223,-744.572) -&gt; Shifted_Stored = (146.097,-543.573)</t>
-  </si>
-  <si>
-    <t>Stored = (-1066.71,-582.727) -&gt; Shifted_Stored = (-1618.84,-381.729)</t>
-  </si>
-  <si>
-    <t>Stored = (672.33,-760.163) -&gt; Shifted_Stored = (120.204,-559.165)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 586.206</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (1040.13, -2.49828)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-832.225,-832.225)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 906.481</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (2079.51, 2.77091)</t>
   </si>
   <si>
-    <t>ObservedLandark in NewLM = (-1938.27,-1938.27)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 1588.98</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=552.126, y=-200.999, w=-91.7016 deg</t>
-  </si>
-  <si>
-    <t>states[8][0]= 552.126 states[8][1]= -200.999</t>
-  </si>
-  <si>
-    <t>landmarks[8][0]= 862.179 landmarks[8][1]= 740.431</t>
+    <t>ObservedLandark in NewLM = (785.762,715.967)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1138.46</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (575.079,-763.085)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1018.43</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1183.87,-545.678)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1214.03</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (745.394,655.213)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 115.639</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (382.222,-813.123)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 134.792</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1308.58,-480.217)</t>
+  </si>
+  <si>
+    <t>Stored = (862.23,740.442) -&gt; Shifted_Stored = (663.789,737.66)</t>
+  </si>
+  <si>
+    <t>Stored = (698.161,-744.307) -&gt; Shifted_Stored = (499.719,-747.089)</t>
+  </si>
+  <si>
+    <t>Stored = (-1066.68,-582.714) -&gt; Shifted_Stored = (-1265.13,-585.495)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-198.441,-2.78154)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 113.893</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=198.395, y=2.76882, w=6.64616 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(862.217,740.423) | (698.155,-744.298) | (-1066.66,-582.706) | </t>
+  </si>
+  <si>
+    <t>states[1][0]= 198.395 states[1][1]= 2.76882</t>
+  </si>
+  <si>
+    <t>landmarks[1][0]= 862.217 landmarks[1][1]= 740.423</t>
+  </si>
+  <si>
+    <t>curr_lm = (862.217,740.423),(698.155,-744.298),(-1066.66,-582.706)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=296.31, y=14.1778, w=0.72217 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (725.534,565.434)</t>
+  </si>
+  <si>
+    <t>Stored = (862.217,740.423) -&gt; Shifted_Stored = (565.908,726.245)</t>
+  </si>
+  <si>
+    <t>Stored = (698.155,-744.298) -&gt; Shifted_Stored = (401.846,-758.476)</t>
+  </si>
+  <si>
+    <t>Stored = (-1066.66,-582.706) -&gt; Shifted_Stored = (-1362.96,-596.884)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-296.31,-14.1778)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 226.585</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (220.683,-830.131)</t>
+  </si>
+  <si>
+    <t>Stored = (1014.66,588.711) -&gt; Shifted_Stored = (718.349,574.533)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 194.819</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1458.87,-297.884)</t>
+  </si>
+  <si>
+    <t>Stored = (862.229,740.432) -&gt; Shifted_Stored = (566.031,726.045)</t>
+  </si>
+  <si>
+    <t>Stored = (698.115,-744.473) -&gt; Shifted_Stored = (401.916,-758.86)</t>
+  </si>
+  <si>
+    <t>Stored = (-1066.64,-582.697) -&gt; Shifted_Stored = (-1362.84,-597.084)</t>
+  </si>
+  <si>
+    <t>Stored = (1014.69,588.734) -&gt; Shifted_Stored = (718.487,574.346)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 314.234</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=296.199, y=14.3871, w=6.89923 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(862.229,740.432) | (698.115,-744.473) | (-1066.64,-582.697) | (1014.69,588.734) | </t>
+  </si>
+  <si>
+    <t>states[2][0]= 296.199 states[2][1]= 14.3871</t>
+  </si>
+  <si>
+    <t>landmarks[2][0]= 862.229 landmarks[2][1]= 740.432</t>
+  </si>
+  <si>
+    <t>curr_lm = (862.229,740.432),(698.115,-744.473),(-1066.64,-582.697)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=395.282, y=26.3761, w=17.058 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (654.315,534.727)</t>
+  </si>
+  <si>
+    <t>Stored = (862.229,740.432) -&gt; Shifted_Stored = (466.948,714.056)</t>
+  </si>
+  <si>
+    <t>Stored = (698.115,-744.473) -&gt; Shifted_Stored = (302.833,-770.849)</t>
+  </si>
+  <si>
+    <t>Stored = (-1066.64,-582.697) -&gt; Shifted_Stored = (-1461.92,-609.073)</t>
+  </si>
+  <si>
+    <t>Stored = (1014.69,588.734) -&gt; Shifted_Stored = (619.405,562.357)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 44.5221</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (23.1036,-838.589)</t>
+  </si>
+  <si>
+    <t>Stored = (862.055,740.24) -&gt; Shifted_Stored = (469.566,715.931)</t>
+  </si>
+  <si>
+    <t>Stored = (697.642,-744.544) -&gt; Shifted_Stored = (305.153,-768.853)</t>
+  </si>
+  <si>
+    <t>Stored = (-1066.93,-582.833) -&gt; Shifted_Stored = (-1459.42,-607.142)</t>
+  </si>
+  <si>
+    <t>Stored = (1015.75,590.533) -&gt; Shifted_Stored = (623.261,566.223)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 290.542</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1577.09,-173.159)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 449.652</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=392.489, y=24.3093, w=2.74773 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(862.055,740.24) | (697.642,-744.544) | (-1066.93,-582.833) | (1015.75,590.533) | </t>
+  </si>
+  <si>
+    <t>states[3][0]= 392.489 states[3][1]= 24.3093</t>
+  </si>
+  <si>
+    <t>landmarks[3][0]= 862.055 landmarks[3][1]= 740.24</t>
+  </si>
+  <si>
+    <t>curr_lm = (862.055,740.24),(697.642,-744.544),(-1066.93,-582.833)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=492.759, y=29.1216, w=5.31809 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (618.822,456.512)</t>
+  </si>
+  <si>
+    <t>Stored = (862.055,740.24) -&gt; Shifted_Stored = (369.296,711.118)</t>
+  </si>
+  <si>
+    <t>Stored = (697.642,-744.544) -&gt; Shifted_Stored = (204.883,-773.665)</t>
+  </si>
+  <si>
+    <t>Stored = (-1066.93,-582.833) -&gt; Shifted_Stored = (-1559.69,-611.954)</t>
+  </si>
+  <si>
+    <t>Stored = (1015.75,590.533) -&gt; Shifted_Stored = (522.991,561.411)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 142.083</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-156.331,-826.358)</t>
+  </si>
+  <si>
+    <t>Stored = (862.053,740.238) -&gt; Shifted_Stored = (369.929,711.656)</t>
+  </si>
+  <si>
+    <t>Stored = (697.637,-744.545) -&gt; Shifted_Stored = (205.513,-773.127)</t>
+  </si>
+  <si>
+    <t>Stored = (-1066.94,-582.834) -&gt; Shifted_Stored = (-1559.06,-611.416)</t>
+  </si>
+  <si>
+    <t>Stored = (1015.78,590.727) -&gt; Shifted_Stored = (523.656,562.145)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 365.739</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1686.17,-14.5534)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 610.248</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=492.124, y=28.5821, w=10.535 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(862.053,740.238) | (697.637,-744.545) | (-1066.94,-582.834) | (1015.78,590.727) | </t>
+  </si>
+  <si>
+    <t>states[4][0]= 492.124 states[4][1]= 28.5821</t>
+  </si>
+  <si>
+    <t>landmarks[4][0]= 862.053 landmarks[4][1]= 740.238</t>
+  </si>
+  <si>
+    <t>curr_lm = (862.053,740.238),(697.637,-744.545),(-1066.94,-582.834)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=588.885, y=46.577, w=10.3864 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (567.956,395.223)</t>
+  </si>
+  <si>
+    <t>Stored = (862.053,740.238) -&gt; Shifted_Stored = (273.168,693.661)</t>
+  </si>
+  <si>
+    <t>Stored = (697.637,-744.545) -&gt; Shifted_Stored = (108.752,-791.122)</t>
+  </si>
+  <si>
+    <t>Stored = (-1066.94,-582.834) -&gt; Shifted_Stored = (-1655.82,-629.411)</t>
+  </si>
+  <si>
+    <t>Stored = (1015.78,590.727) -&gt; Shifted_Stored = (426.895,544.15)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 205.128</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-314.275,-805.701)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 423.279</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1777.01,178.607)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 817.056</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=588.898, y=46.5642, w=-109.593 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(862.054,740.239) | (697.64,-744.544) | (-1066.93,-582.833) | (1015.79,590.717) | </t>
+  </si>
+  <si>
+    <t>states[5][0]= 588.898 states[5][1]= 46.5642</t>
+  </si>
+  <si>
+    <t>landmarks[5][0]= 862.054 landmarks[5][1]= 740.239</t>
+  </si>
+  <si>
+    <t>curr_lm = (862.054,740.239),(697.64,-744.544),(-1066.93,-582.833)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=555.098, y=-48.3966, w=-103.096 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (484.25,378.308)</t>
+  </si>
+  <si>
+    <t>Stored = (862.054,740.239) -&gt; Shifted_Stored = (306.956,788.636)</t>
+  </si>
+  <si>
+    <t>Stored = (697.64,-744.544) -&gt; Shifted_Stored = (142.543,-696.147)</t>
+  </si>
+  <si>
+    <t>Stored = (-1066.93,-582.833) -&gt; Shifted_Stored = (-1622.03,-534.437)</t>
+  </si>
+  <si>
+    <t>Stored = (1015.79,590.717) -&gt; Shifted_Stored = (460.693,639.113)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 261.867</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-534.806,-733.863)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 678.398</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1851.15,357.593)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 920.986</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=555.098, y=-48.3966, w=-103.096 deg</t>
+  </si>
+  <si>
+    <t>states[6][0]= 555.098 states[6][1]= -48.3966</t>
+  </si>
+  <si>
+    <t>landmarks[6][0]= 862.054 landmarks[6][1]= 740.239</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=532.373, y=-146.083, w=-100.766 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (424.009,329.669)</t>
+  </si>
+  <si>
+    <t>Stored = (862.054,740.239) -&gt; Shifted_Stored = (329.681,886.323)</t>
+  </si>
+  <si>
+    <t>Stored = (697.64,-744.544) -&gt; Shifted_Stored = (165.267,-598.461)</t>
+  </si>
+  <si>
+    <t>Stored = (-1066.93,-582.833) -&gt; Shifted_Stored = (-1599.31,-436.75)</t>
+  </si>
+  <si>
+    <t>Stored = (1015.79,590.717) -&gt; Shifted_Stored = (483.418,736.8)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 411.443</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-683.718,-683.974)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 853.281</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1886.01,614.48)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1089.63</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=532.373, y=-146.083, w=-100.766 deg</t>
+  </si>
+  <si>
+    <t>states[7][0]= 532.373 states[7][1]= -146.083</t>
+  </si>
+  <si>
+    <t>landmarks[7][0]= 862.054 landmarks[7][1]= 740.239</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=513.219, y=-246.82, w=-100.607 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (357.116,291.777)</t>
+  </si>
+  <si>
+    <t>Stored = (862.054,740.239) -&gt; Shifted_Stored = (348.835,987.06)</t>
+  </si>
+  <si>
+    <t>Stored = (697.64,-744.544) -&gt; Shifted_Stored = (184.421,-497.724)</t>
+  </si>
+  <si>
+    <t>Stored = (-1066.93,-582.833) -&gt; Shifted_Stored = (-1580.15,-336.013)</t>
+  </si>
+  <si>
+    <t>Stored = (1015.79,590.717) -&gt; Shifted_Stored = (502.572,837.537)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 564.811</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-832.225,-623.918)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 801.427</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1938.27,753.316)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1146.68</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=513.219, y=-246.82, w=-100.607 deg</t>
+  </si>
+  <si>
+    <t>states[8][0]= 513.219 states[8][1]= -246.82</t>
+  </si>
+  <si>
+    <t>landmarks[8][0]= 862.054 landmarks[8][1]= 740.239</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [[862.20960254],  [740.44044089]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Shifted LM =  [[565.95074878], [726.24909166]]</t>
+  </si>
+  <si>
+    <t>lm =  [[862.20960254], [740.44044089]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stored Landmark lm =  [[ 698.16953343],  [-744.24107765]] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shifted LM =  [[ 401.91067968],  [-758.43242688]]</t>
+  </si>
+  <si>
+    <t>lm =  [[ 698.16953343],  [-744.24107765]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stored Landmark lm =  [[-1066.66376193],  [ -582.71267496]] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shifted LM =  [[-1362.92261569], [ -596.90402419]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2919,13 +2973,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2940,9 +3019,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3223,10 +3305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I979"/>
+  <dimension ref="A1:R970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="N225" sqref="N225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,7 +3443,7 @@
         <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>753</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3369,7 +3451,7 @@
         <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3377,7 +3459,7 @@
         <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3385,7 +3467,7 @@
         <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3393,7 +3475,7 @@
         <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3401,7 +3483,7 @@
         <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>755</v>
+        <v>831</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3585,7 +3667,7 @@
         <v>57</v>
       </c>
       <c r="I45" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3593,7 +3675,7 @@
         <v>58</v>
       </c>
       <c r="I46" t="s">
-        <v>757</v>
+        <v>832</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3601,7 +3683,7 @@
         <v>35</v>
       </c>
       <c r="I47" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3609,7 +3691,7 @@
         <v>59</v>
       </c>
       <c r="I48" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3617,7 +3699,7 @@
         <v>60</v>
       </c>
       <c r="I49" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3625,7 +3707,7 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3633,7 +3715,7 @@
         <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>760</v>
+        <v>833</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3817,7 +3899,7 @@
         <v>68</v>
       </c>
       <c r="I74" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3825,7 +3907,7 @@
         <v>69</v>
       </c>
       <c r="I75" t="s">
-        <v>762</v>
+        <v>834</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3833,7 +3915,7 @@
         <v>69</v>
       </c>
       <c r="I76" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3841,7 +3923,7 @@
         <v>69</v>
       </c>
       <c r="I77" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3849,7 +3931,7 @@
         <v>31</v>
       </c>
       <c r="I78" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3857,7 +3939,7 @@
         <v>70</v>
       </c>
       <c r="I79" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3865,7 +3947,7 @@
         <v>71</v>
       </c>
       <c r="I80" t="s">
-        <v>764</v>
+        <v>835</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3925,9 +4007,11 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
       <c r="I88" t="s">
         <v>12</v>
       </c>
@@ -4049,7 +4133,7 @@
         <v>81</v>
       </c>
       <c r="I103" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4057,7 +4141,7 @@
         <v>65</v>
       </c>
       <c r="I104" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4065,7 +4149,7 @@
         <v>64</v>
       </c>
       <c r="I105" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4073,7 +4157,7 @@
         <v>40</v>
       </c>
       <c r="I106" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4081,7 +4165,7 @@
         <v>39</v>
       </c>
       <c r="I107" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4107,7 +4191,7 @@
         <v>84</v>
       </c>
       <c r="I111" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4118,103 +4202,106 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>86</v>
       </c>
       <c r="I113" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>87</v>
       </c>
       <c r="I114" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>88</v>
       </c>
       <c r="I115" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>89</v>
       </c>
       <c r="I116" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>90</v>
       </c>
       <c r="I117" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>35</v>
       </c>
       <c r="I118" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+      <c r="P118" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>91</v>
       </c>
       <c r="I119" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>92</v>
       </c>
       <c r="I120" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>93</v>
       </c>
       <c r="I121" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>94</v>
       </c>
       <c r="I122" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>95</v>
       </c>
       <c r="I123" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>96</v>
       </c>
       <c r="I124" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>97</v>
       </c>
@@ -4222,7 +4309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>98</v>
       </c>
@@ -4230,7 +4317,7 @@
         <v>992.43</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -4238,7 +4325,7 @@
         <v>0.72109999999999996</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>100</v>
       </c>
@@ -4387,7 +4474,7 @@
         <v>115</v>
       </c>
       <c r="I146" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -4395,7 +4482,7 @@
         <v>116</v>
       </c>
       <c r="I147" t="s">
-        <v>784</v>
+        <v>838</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -4403,7 +4490,7 @@
         <v>35</v>
       </c>
       <c r="I148" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -4411,7 +4498,7 @@
         <v>117</v>
       </c>
       <c r="I149" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -4419,7 +4506,7 @@
         <v>118</v>
       </c>
       <c r="I150" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -4427,7 +4514,7 @@
         <v>119</v>
       </c>
       <c r="I151" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -4435,7 +4522,7 @@
         <v>120</v>
       </c>
       <c r="I152" t="s">
-        <v>789</v>
+        <v>839</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -4443,7 +4530,7 @@
         <v>121</v>
       </c>
       <c r="I153" t="s">
-        <v>9</v>
+        <v>774</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -4483,7 +4570,7 @@
         <v>126</v>
       </c>
       <c r="I158">
-        <v>898.47799999999995</v>
+        <v>899.41399999999999</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -4491,7 +4578,7 @@
         <v>127</v>
       </c>
       <c r="I159">
-        <v>-1.1313800000000001</v>
+        <v>-1.09775</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -4507,7 +4594,7 @@
         <v>129</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>-0.93646200000000002</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -4515,7 +4602,7 @@
         <v>130</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>-3.3626400000000001E-2</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -4531,7 +4618,7 @@
         <v>132</v>
       </c>
       <c r="I164">
-        <v>198.202</v>
+        <v>198.441</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -4539,7 +4626,7 @@
         <v>133</v>
       </c>
       <c r="I165">
-        <v>3.03668</v>
+        <v>2.7815400000000001</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -4547,7 +4634,7 @@
         <v>132</v>
       </c>
       <c r="I166">
-        <v>0.116456</v>
+        <v>0.13311000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -4555,7 +4642,7 @@
         <v>133</v>
       </c>
       <c r="I167">
-        <v>862.226</v>
+        <v>862.23</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -4563,7 +4650,7 @@
         <v>41</v>
       </c>
       <c r="I168">
-        <v>740.44799999999998</v>
+        <v>740.44200000000001</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -4571,7 +4658,7 @@
         <v>134</v>
       </c>
       <c r="I169">
-        <v>698.22500000000002</v>
+        <v>698.16099999999994</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4579,7 +4666,7 @@
         <v>135</v>
       </c>
       <c r="I170">
-        <v>-744.57399999999996</v>
+        <v>-744.30700000000002</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -4587,7 +4674,7 @@
         <v>136</v>
       </c>
       <c r="I171">
-        <v>-1066.71</v>
+        <v>-1066.68</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -4595,7 +4682,7 @@
         <v>137</v>
       </c>
       <c r="I172">
-        <v>-582.72500000000002</v>
+        <v>-582.71400000000006</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -4603,7 +4690,7 @@
         <v>138</v>
       </c>
       <c r="I173">
-        <v>672.31399999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -4611,7 +4698,7 @@
         <v>139</v>
       </c>
       <c r="I174">
-        <v>-760.16700000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -4619,7 +4706,7 @@
         <v>140</v>
       </c>
       <c r="I175" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -4627,7 +4714,7 @@
         <v>141</v>
       </c>
       <c r="I176" t="s">
-        <v>791</v>
+        <v>840</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -4635,7 +4722,7 @@
         <v>142</v>
       </c>
       <c r="I177" t="s">
-        <v>785</v>
+        <v>841</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -4643,7 +4730,7 @@
         <v>143</v>
       </c>
       <c r="I178" t="s">
-        <v>786</v>
+        <v>842</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -4651,7 +4738,7 @@
         <v>143</v>
       </c>
       <c r="I179" t="s">
-        <v>787</v>
+        <v>843</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -4659,7 +4746,7 @@
         <v>143</v>
       </c>
       <c r="I180" t="s">
-        <v>792</v>
+        <v>844</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -4667,7 +4754,7 @@
         <v>31</v>
       </c>
       <c r="I181" t="s">
-        <v>793</v>
+        <v>845</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -4675,33 +4762,39 @@
         <v>144</v>
       </c>
       <c r="I182" t="s">
-        <v>9</v>
+        <v>774</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>145</v>
       </c>
+      <c r="I183" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>146</v>
       </c>
-      <c r="I184" t="s">
-        <v>15</v>
+      <c r="I184">
+        <v>1393.91</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>137</v>
       </c>
+      <c r="I185">
+        <v>-2.7898800000000001</v>
+      </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>138</v>
       </c>
       <c r="I186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -4709,7 +4802,7 @@
         <v>139</v>
       </c>
       <c r="I187">
-        <v>1393.91</v>
+        <v>1394.04</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -4717,7 +4810,7 @@
         <v>140</v>
       </c>
       <c r="I188">
-        <v>-2.7898800000000001</v>
+        <v>-2.8412600000000001</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -4725,7 +4818,7 @@
         <v>141</v>
       </c>
       <c r="I189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -4733,7 +4826,7 @@
         <v>142</v>
       </c>
       <c r="I190">
-        <v>1393.91</v>
+        <v>-0.12853999999999999</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -4741,7 +4834,7 @@
         <v>35</v>
       </c>
       <c r="I191">
-        <v>-2.7898800000000001</v>
+        <v>5.1383699999999997E-2</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -4749,385 +4842,421 @@
         <v>147</v>
       </c>
       <c r="I192" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>148</v>
       </c>
       <c r="I193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+        <v>198.39500000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>149</v>
       </c>
       <c r="I194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.7688199999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>150</v>
       </c>
-      <c r="I195" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <v>0.115997</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>151</v>
       </c>
       <c r="I196">
-        <v>198.202</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>862.21699999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>152</v>
       </c>
       <c r="I197">
-        <v>3.03668</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+        <v>740.423</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>153</v>
       </c>
       <c r="I198">
-        <v>0.116456</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+        <v>698.15499999999997</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>154</v>
       </c>
       <c r="I199">
-        <v>862.226</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-744.298</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>155</v>
       </c>
       <c r="I200">
-        <v>740.44799999999998</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-1066.6600000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>156</v>
       </c>
       <c r="I201">
-        <v>698.22500000000002</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-582.70600000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>157</v>
       </c>
       <c r="I202">
-        <v>-744.57399999999996</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>158</v>
       </c>
       <c r="I203">
-        <v>-1066.71</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>159</v>
       </c>
-      <c r="I204">
-        <v>-582.72500000000002</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I204" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>160</v>
       </c>
-      <c r="I205">
-        <v>672.31399999999996</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I205" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>161</v>
       </c>
-      <c r="I206">
-        <v>-760.16700000000003</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I206" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>162</v>
       </c>
       <c r="I207" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>163</v>
       </c>
       <c r="I208" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>152</v>
       </c>
-      <c r="I209" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>153</v>
       </c>
-      <c r="I210" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>41</v>
       </c>
       <c r="I211" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I212" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>166</v>
       </c>
       <c r="I214" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>167</v>
       </c>
       <c r="I215" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>168</v>
       </c>
       <c r="I216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>169</v>
       </c>
       <c r="I217" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>170</v>
       </c>
       <c r="I218" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>171</v>
       </c>
-      <c r="I219" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I219" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="J219" s="4"/>
+      <c r="K219" s="4"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="R219" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>172</v>
       </c>
       <c r="I220" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+      <c r="R220" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>35</v>
       </c>
       <c r="I221" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="R221" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>173</v>
       </c>
       <c r="I222" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>174</v>
       </c>
       <c r="I223" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+      <c r="R223" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>175</v>
       </c>
       <c r="I224" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>176</v>
       </c>
       <c r="I225" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="R225" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>177</v>
       </c>
       <c r="I226" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="R226" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>178</v>
       </c>
-      <c r="I227" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <v>919.84500000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>179</v>
       </c>
-      <c r="I228" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <v>0.66201200000000004</v>
+      </c>
+      <c r="R228" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>180</v>
       </c>
       <c r="I229" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>181</v>
       </c>
       <c r="I230">
         <v>919.84500000000003</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R230" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>182</v>
       </c>
       <c r="I231">
         <v>0.66201200000000004</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R231" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>183</v>
       </c>
       <c r="I232" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>184</v>
       </c>
       <c r="I233">
-        <v>920.59799999999996</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>185</v>
       </c>
       <c r="I234">
-        <v>0.89541999999999999</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>186</v>
       </c>
       <c r="I235" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>187</v>
       </c>
       <c r="I236">
-        <v>-0.75286900000000001</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+        <v>296.31</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>188</v>
       </c>
       <c r="I237">
-        <v>-0.233408</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14.1778</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>189</v>
       </c>
-      <c r="I238" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I238">
+        <v>1.2604199999999999E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>183</v>
       </c>
       <c r="I239">
-        <v>296.35199999999998</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+        <v>862.21699999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>184</v>
       </c>
       <c r="I240">
-        <v>14.731</v>
+        <v>740.423</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -5135,7 +5264,7 @@
         <v>41</v>
       </c>
       <c r="I241">
-        <v>0.24740999999999999</v>
+        <v>698.15499999999997</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -5143,7 +5272,7 @@
         <v>190</v>
       </c>
       <c r="I242">
-        <v>862.23099999999999</v>
+        <v>-744.298</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -5151,7 +5280,7 @@
         <v>191</v>
       </c>
       <c r="I243">
-        <v>740.28899999999999</v>
+        <v>-1066.6600000000001</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -5159,7 +5288,7 @@
         <v>192</v>
       </c>
       <c r="I244">
-        <v>698.22199999999998</v>
+        <v>-582.70600000000002</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -5167,7 +5296,7 @@
         <v>193</v>
       </c>
       <c r="I245">
-        <v>-744.57100000000003</v>
+        <v>1014.66</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -5175,31 +5304,31 @@
         <v>194</v>
       </c>
       <c r="I246">
-        <v>-1066.71</v>
+        <v>588.71100000000001</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>195</v>
       </c>
-      <c r="I247">
-        <v>-582.72799999999995</v>
+      <c r="I247" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>196</v>
       </c>
-      <c r="I248">
-        <v>672.36300000000006</v>
+      <c r="I248" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>197</v>
       </c>
-      <c r="I249">
-        <v>-760.16</v>
+      <c r="I249" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -5207,7 +5336,7 @@
         <v>198</v>
       </c>
       <c r="I250" t="s">
-        <v>811</v>
+        <v>854</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -5215,7 +5344,7 @@
         <v>35</v>
       </c>
       <c r="I251" t="s">
-        <v>812</v>
+        <v>855</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -5223,7 +5352,7 @@
         <v>199</v>
       </c>
       <c r="I252" t="s">
-        <v>813</v>
+        <v>859</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -5231,7 +5360,7 @@
         <v>200</v>
       </c>
       <c r="I253" t="s">
-        <v>814</v>
+        <v>860</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -5239,7 +5368,7 @@
         <v>201</v>
       </c>
       <c r="I254" t="s">
-        <v>815</v>
+        <v>774</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -5247,49 +5376,55 @@
         <v>202</v>
       </c>
       <c r="I255" t="s">
-        <v>816</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>203</v>
       </c>
-      <c r="I256" t="s">
-        <v>817</v>
+      <c r="I256">
+        <v>858.96299999999997</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>204</v>
       </c>
-      <c r="I257" t="s">
-        <v>9</v>
+      <c r="I257">
+        <v>-1.3109599999999999</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>205</v>
       </c>
+      <c r="I258" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>206</v>
       </c>
-      <c r="I259" t="s">
-        <v>15</v>
+      <c r="I259">
+        <v>858.351</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>207</v>
       </c>
+      <c r="I260">
+        <v>-1.09619</v>
+      </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>208</v>
       </c>
       <c r="I261" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -5297,7 +5432,7 @@
         <v>209</v>
       </c>
       <c r="I262">
-        <v>858.96299999999997</v>
+        <v>0.61273200000000005</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -5305,7 +5440,7 @@
         <v>210</v>
       </c>
       <c r="I263">
-        <v>-1.3109599999999999</v>
+        <v>-0.21477199999999999</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -5313,7 +5448,7 @@
         <v>211</v>
       </c>
       <c r="I264" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -5321,7 +5456,7 @@
         <v>212</v>
       </c>
       <c r="I265">
-        <v>858.96299999999997</v>
+        <v>296.19900000000001</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -5329,15 +5464,15 @@
         <v>213</v>
       </c>
       <c r="I266">
-        <v>-1.3109599999999999</v>
+        <v>14.3871</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>214</v>
       </c>
-      <c r="I267" t="s">
-        <v>12</v>
+      <c r="I267">
+        <v>0.12041399999999999</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -5345,7 +5480,7 @@
         <v>215</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>862.22900000000004</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -5353,15 +5488,15 @@
         <v>214</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>740.43200000000002</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>215</v>
       </c>
-      <c r="I270" t="s">
-        <v>13</v>
+      <c r="I270">
+        <v>698.11500000000001</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -5369,7 +5504,7 @@
         <v>41</v>
       </c>
       <c r="I271">
-        <v>296.35199999999998</v>
+        <v>-744.47299999999996</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -5377,7 +5512,7 @@
         <v>216</v>
       </c>
       <c r="I272">
-        <v>14.731</v>
+        <v>-1066.6400000000001</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -5385,7 +5520,7 @@
         <v>217</v>
       </c>
       <c r="I273">
-        <v>0.24740999999999999</v>
+        <v>-582.697</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -5393,7 +5528,7 @@
         <v>218</v>
       </c>
       <c r="I274">
-        <v>862.23099999999999</v>
+        <v>1014.69</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -5401,55 +5536,55 @@
         <v>219</v>
       </c>
       <c r="I275">
-        <v>740.28899999999999</v>
+        <v>588.73400000000004</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>220</v>
       </c>
-      <c r="I276">
-        <v>698.22199999999998</v>
+      <c r="I276" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>221</v>
       </c>
-      <c r="I277">
-        <v>-744.57100000000003</v>
+      <c r="I277" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>222</v>
       </c>
-      <c r="I278">
-        <v>-1066.71</v>
+      <c r="I278" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>223</v>
       </c>
-      <c r="I279">
-        <v>-582.72799999999995</v>
+      <c r="I279" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>224</v>
       </c>
-      <c r="I280">
-        <v>672.36300000000006</v>
+      <c r="I280" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>225</v>
       </c>
-      <c r="I281">
-        <v>-760.16</v>
+      <c r="I281" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -5457,7 +5592,7 @@
         <v>225</v>
       </c>
       <c r="I282" t="s">
-        <v>818</v>
+        <v>866</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -5465,81 +5600,81 @@
         <v>225</v>
       </c>
       <c r="I283" t="s">
-        <v>819</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>31</v>
       </c>
-      <c r="I284" t="s">
-        <v>813</v>
-      </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>226</v>
       </c>
       <c r="I285" t="s">
-        <v>814</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>227</v>
       </c>
-      <c r="I286" t="s">
-        <v>815</v>
-      </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>228</v>
       </c>
       <c r="I287" t="s">
-        <v>816</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>219</v>
       </c>
-      <c r="I288" t="s">
-        <v>820</v>
+      <c r="I288">
+        <v>1488.97</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>220</v>
       </c>
-      <c r="I289" t="s">
-        <v>9</v>
+      <c r="I289">
+        <v>-2.9401700000000002</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>221</v>
       </c>
+      <c r="I290" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>222</v>
       </c>
-      <c r="I291" t="s">
-        <v>15</v>
+      <c r="I291">
+        <v>1488.97</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>223</v>
       </c>
+      <c r="I292">
+        <v>-2.9401700000000002</v>
+      </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>224</v>
       </c>
       <c r="I293" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -5547,7 +5682,7 @@
         <v>35</v>
       </c>
       <c r="I294">
-        <v>1488.97</v>
+        <v>-1.2207E-4</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -5555,7 +5690,7 @@
         <v>229</v>
       </c>
       <c r="I295">
-        <v>-2.9401700000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -5563,7 +5698,7 @@
         <v>230</v>
       </c>
       <c r="I296" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -5571,7 +5706,7 @@
         <v>231</v>
       </c>
       <c r="I297">
-        <v>1488.97</v>
+        <v>296.19900000000001</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -5579,15 +5714,15 @@
         <v>232</v>
       </c>
       <c r="I298">
-        <v>-2.9401700000000002</v>
+        <v>14.3871</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>233</v>
       </c>
-      <c r="I299" t="s">
-        <v>12</v>
+      <c r="I299">
+        <v>0.12041399999999999</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -5595,7 +5730,7 @@
         <v>234</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>862.22900000000004</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -5603,15 +5738,15 @@
         <v>235</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>740.43200000000002</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>236</v>
       </c>
-      <c r="I302" t="s">
-        <v>13</v>
+      <c r="I302">
+        <v>698.11500000000001</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -5619,7 +5754,7 @@
         <v>237</v>
       </c>
       <c r="I303">
-        <v>296.35199999999998</v>
+        <v>-744.47299999999996</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -5627,7 +5762,7 @@
         <v>238</v>
       </c>
       <c r="I304">
-        <v>14.731</v>
+        <v>-1066.6400000000001</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -5635,7 +5770,7 @@
         <v>239</v>
       </c>
       <c r="I305">
-        <v>0.24740999999999999</v>
+        <v>-582.697</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -5643,7 +5778,7 @@
         <v>240</v>
       </c>
       <c r="I306">
-        <v>862.23099999999999</v>
+        <v>1014.69</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -5651,71 +5786,65 @@
         <v>241</v>
       </c>
       <c r="I307">
-        <v>740.28899999999999</v>
+        <v>588.73400000000004</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>242</v>
       </c>
-      <c r="I308">
-        <v>698.22199999999998</v>
+      <c r="I308" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>243</v>
       </c>
-      <c r="I309">
-        <v>-744.57100000000003</v>
+      <c r="I309" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>244</v>
       </c>
-      <c r="I310">
-        <v>-1066.71</v>
+      <c r="I310" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>245</v>
       </c>
-      <c r="I311">
-        <v>-582.72799999999995</v>
+      <c r="I311" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>234</v>
       </c>
-      <c r="I312">
-        <v>672.36300000000006</v>
+      <c r="I312" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>235</v>
       </c>
-      <c r="I313">
-        <v>-760.16</v>
-      </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>41</v>
       </c>
-      <c r="I314" t="s">
-        <v>821</v>
-      </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>246</v>
       </c>
       <c r="I315" t="s">
-        <v>822</v>
+        <v>17</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -5723,7 +5852,7 @@
         <v>247</v>
       </c>
       <c r="I316" t="s">
-        <v>823</v>
+        <v>788</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -5731,7 +5860,7 @@
         <v>248</v>
       </c>
       <c r="I317" t="s">
-        <v>824</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -5739,25 +5868,31 @@
         <v>249</v>
       </c>
       <c r="I318" t="s">
-        <v>825</v>
+        <v>789</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>250</v>
       </c>
+      <c r="I319" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>251</v>
       </c>
+      <c r="I320" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>252</v>
       </c>
       <c r="I321" t="s">
-        <v>17</v>
+        <v>872</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -5765,7 +5900,7 @@
         <v>253</v>
       </c>
       <c r="I322" t="s">
-        <v>826</v>
+        <v>792</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -5773,7 +5908,7 @@
         <v>254</v>
       </c>
       <c r="I323" t="s">
-        <v>8</v>
+        <v>873</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -5781,7 +5916,7 @@
         <v>35</v>
       </c>
       <c r="I324" t="s">
-        <v>827</v>
+        <v>874</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -5789,7 +5924,7 @@
         <v>255</v>
       </c>
       <c r="I325" t="s">
-        <v>828</v>
+        <v>875</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -5797,7 +5932,7 @@
         <v>256</v>
       </c>
       <c r="I326" t="s">
-        <v>829</v>
+        <v>876</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -5805,7 +5940,7 @@
         <v>257</v>
       </c>
       <c r="I327" t="s">
-        <v>830</v>
+        <v>877</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -5813,7 +5948,7 @@
         <v>258</v>
       </c>
       <c r="I328" t="s">
-        <v>831</v>
+        <v>878</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -5821,7 +5956,7 @@
         <v>259</v>
       </c>
       <c r="I329" t="s">
-        <v>832</v>
+        <v>774</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -5829,23 +5964,23 @@
         <v>260</v>
       </c>
       <c r="I330" t="s">
-        <v>833</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>261</v>
       </c>
-      <c r="I331" t="s">
-        <v>834</v>
+      <c r="I331">
+        <v>845.02200000000005</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>262</v>
       </c>
-      <c r="I332" t="s">
-        <v>835</v>
+      <c r="I332">
+        <v>0.68515999999999999</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -5853,23 +5988,23 @@
         <v>263</v>
       </c>
       <c r="I333" t="s">
-        <v>836</v>
+        <v>11</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>264</v>
       </c>
-      <c r="I334" t="s">
-        <v>837</v>
+      <c r="I334">
+        <v>836.60500000000002</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>265</v>
       </c>
-      <c r="I335" t="s">
-        <v>782</v>
+      <c r="I335">
+        <v>0.43944499999999997</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -5877,7 +6012,7 @@
         <v>266</v>
       </c>
       <c r="I336" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -5885,7 +6020,7 @@
         <v>267</v>
       </c>
       <c r="I337">
-        <v>845.02200000000005</v>
+        <v>8.4165600000000005</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -5893,7 +6028,7 @@
         <v>268</v>
       </c>
       <c r="I338">
-        <v>0.68515999999999999</v>
+        <v>0.24571499999999999</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -5901,7 +6036,7 @@
         <v>269</v>
       </c>
       <c r="I339" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -5909,7 +6044,7 @@
         <v>270</v>
       </c>
       <c r="I340">
-        <v>843.58199999999999</v>
+        <v>392.48899999999998</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -5917,15 +6052,15 @@
         <v>271</v>
       </c>
       <c r="I341">
-        <v>0.55640299999999998</v>
+        <v>24.3093</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>265</v>
       </c>
-      <c r="I342" t="s">
-        <v>12</v>
+      <c r="I342">
+        <v>4.7957E-2</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -5933,7 +6068,7 @@
         <v>266</v>
       </c>
       <c r="I343">
-        <v>1.43994</v>
+        <v>862.05499999999995</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -5941,15 +6076,15 @@
         <v>41</v>
       </c>
       <c r="I344">
-        <v>0.12875700000000001</v>
+        <v>740.24</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>272</v>
       </c>
-      <c r="I345" t="s">
-        <v>13</v>
+      <c r="I345">
+        <v>697.64200000000005</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -5957,7 +6092,7 @@
         <v>273</v>
       </c>
       <c r="I346">
-        <v>392.61099999999999</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -5965,7 +6100,7 @@
         <v>274</v>
       </c>
       <c r="I347">
-        <v>38.622</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -5973,7 +6108,7 @@
         <v>275</v>
       </c>
       <c r="I348">
-        <v>0.29477399999999998</v>
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -5981,7 +6116,7 @@
         <v>276</v>
       </c>
       <c r="I349">
-        <v>862.17100000000005</v>
+        <v>1015.75</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -5989,55 +6124,55 @@
         <v>277</v>
       </c>
       <c r="I350">
-        <v>740.43700000000001</v>
+        <v>590.53300000000002</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>278</v>
       </c>
-      <c r="I351">
-        <v>698.22299999999996</v>
+      <c r="I351" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>279</v>
       </c>
-      <c r="I352">
-        <v>-744.57100000000003</v>
+      <c r="I352" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>280</v>
       </c>
-      <c r="I353">
-        <v>-1066.71</v>
+      <c r="I353" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>35</v>
       </c>
-      <c r="I354">
-        <v>-582.72799999999995</v>
+      <c r="I354" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>281</v>
       </c>
-      <c r="I355">
-        <v>672.32899999999995</v>
+      <c r="I355" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>282</v>
       </c>
-      <c r="I356">
-        <v>-760.16399999999999</v>
+      <c r="I356" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -6045,7 +6180,7 @@
         <v>283</v>
       </c>
       <c r="I357" t="s">
-        <v>838</v>
+        <v>884</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -6053,81 +6188,81 @@
         <v>284</v>
       </c>
       <c r="I358" t="s">
-        <v>839</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>285</v>
       </c>
-      <c r="I359" t="s">
-        <v>840</v>
-      </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>286</v>
       </c>
       <c r="I360" t="s">
-        <v>841</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>287</v>
       </c>
-      <c r="I361" t="s">
-        <v>842</v>
-      </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>288</v>
       </c>
       <c r="I362" t="s">
-        <v>843</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>289</v>
       </c>
-      <c r="I363" t="s">
-        <v>844</v>
+      <c r="I363">
+        <v>838.90700000000004</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>290</v>
       </c>
-      <c r="I364" t="s">
-        <v>9</v>
+      <c r="I364">
+        <v>-1.54325</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>291</v>
       </c>
+      <c r="I365" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>292</v>
       </c>
-      <c r="I366" t="s">
-        <v>15</v>
+      <c r="I366">
+        <v>838.90700000000004</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>293</v>
       </c>
+      <c r="I367">
+        <v>-1.54325</v>
+      </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>294</v>
       </c>
       <c r="I368" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.25">
@@ -6135,7 +6270,7 @@
         <v>295</v>
       </c>
       <c r="I369">
-        <v>838.90700000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
@@ -6143,7 +6278,7 @@
         <v>296</v>
       </c>
       <c r="I370">
-        <v>-1.54325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -6151,7 +6286,7 @@
         <v>297</v>
       </c>
       <c r="I371" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
@@ -6159,7 +6294,7 @@
         <v>296</v>
       </c>
       <c r="I372">
-        <v>838.90700000000004</v>
+        <v>392.48899999999998</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.25">
@@ -6167,15 +6302,15 @@
         <v>297</v>
       </c>
       <c r="I373">
-        <v>-1.54325</v>
+        <v>24.3093</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>41</v>
       </c>
-      <c r="I374" t="s">
-        <v>12</v>
+      <c r="I374">
+        <v>4.7957E-2</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -6183,7 +6318,7 @@
         <v>298</v>
       </c>
       <c r="I375">
-        <v>0</v>
+        <v>862.05499999999995</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -6191,15 +6326,15 @@
         <v>299</v>
       </c>
       <c r="I376">
-        <v>0</v>
+        <v>740.24</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>300</v>
       </c>
-      <c r="I377" t="s">
-        <v>13</v>
+      <c r="I377">
+        <v>697.64200000000005</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -6207,7 +6342,7 @@
         <v>301</v>
       </c>
       <c r="I378">
-        <v>392.61099999999999</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -6215,7 +6350,7 @@
         <v>302</v>
       </c>
       <c r="I379">
-        <v>38.622</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
@@ -6223,7 +6358,7 @@
         <v>303</v>
       </c>
       <c r="I380">
-        <v>0.29477399999999998</v>
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -6231,7 +6366,7 @@
         <v>304</v>
       </c>
       <c r="I381">
-        <v>862.17100000000005</v>
+        <v>1015.75</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
@@ -6239,55 +6374,55 @@
         <v>305</v>
       </c>
       <c r="I382">
-        <v>740.43700000000001</v>
+        <v>590.53300000000002</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>306</v>
       </c>
-      <c r="I383">
-        <v>698.22299999999996</v>
+      <c r="I383" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>307</v>
       </c>
-      <c r="I384">
-        <v>-744.57100000000003</v>
+      <c r="I384" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>307</v>
       </c>
-      <c r="I385">
-        <v>-1066.71</v>
+      <c r="I385" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>307</v>
       </c>
-      <c r="I386">
-        <v>-582.72799999999995</v>
+      <c r="I386" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>31</v>
       </c>
-      <c r="I387">
-        <v>672.32899999999995</v>
+      <c r="I387" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>308</v>
       </c>
-      <c r="I388">
-        <v>-760.16399999999999</v>
+      <c r="I388" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
@@ -6295,7 +6430,7 @@
         <v>309</v>
       </c>
       <c r="I389" t="s">
-        <v>845</v>
+        <v>886</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
@@ -6303,81 +6438,81 @@
         <v>310</v>
       </c>
       <c r="I390" t="s">
-        <v>846</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>301</v>
       </c>
-      <c r="I391" t="s">
-        <v>840</v>
-      </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>302</v>
       </c>
       <c r="I392" t="s">
-        <v>841</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>303</v>
       </c>
-      <c r="I393" t="s">
-        <v>842</v>
-      </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>304</v>
       </c>
       <c r="I394" t="s">
-        <v>843</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>305</v>
       </c>
-      <c r="I395" t="s">
-        <v>847</v>
+      <c r="I395">
+        <v>1586.57</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>306</v>
       </c>
-      <c r="I396" t="s">
-        <v>9</v>
+      <c r="I396">
+        <v>-3.0322300000000002</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>35</v>
       </c>
+      <c r="I397" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>311</v>
       </c>
-      <c r="I398" t="s">
-        <v>15</v>
+      <c r="I398">
+        <v>1586.57</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>312</v>
       </c>
+      <c r="I399">
+        <v>-3.0322300000000002</v>
+      </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>313</v>
       </c>
       <c r="I400" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
@@ -6385,7 +6520,7 @@
         <v>314</v>
       </c>
       <c r="I401">
-        <v>1586.57</v>
+        <v>1.2207E-4</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -6393,7 +6528,7 @@
         <v>315</v>
       </c>
       <c r="I402">
-        <v>-3.0322300000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -6401,7 +6536,7 @@
         <v>316</v>
       </c>
       <c r="I403" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -6409,7 +6544,7 @@
         <v>317</v>
       </c>
       <c r="I404">
-        <v>1586.57</v>
+        <v>392.48899999999998</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -6417,15 +6552,15 @@
         <v>318</v>
       </c>
       <c r="I405">
-        <v>-3.0322300000000002</v>
+        <v>24.3093</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>319</v>
       </c>
-      <c r="I406" t="s">
-        <v>12</v>
+      <c r="I406">
+        <v>4.7956899999999997E-2</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -6433,7 +6568,7 @@
         <v>320</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>862.05499999999995</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
@@ -6441,15 +6576,15 @@
         <v>321</v>
       </c>
       <c r="I408">
-        <v>0</v>
+        <v>740.24</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>322</v>
       </c>
-      <c r="I409" t="s">
-        <v>13</v>
+      <c r="I409">
+        <v>697.64200000000005</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
@@ -6457,7 +6592,7 @@
         <v>323</v>
       </c>
       <c r="I410">
-        <v>392.61099999999999</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
@@ -6465,7 +6600,7 @@
         <v>324</v>
       </c>
       <c r="I411">
-        <v>38.622</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
@@ -6473,7 +6608,7 @@
         <v>325</v>
       </c>
       <c r="I412">
-        <v>0.29477399999999998</v>
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
@@ -6481,7 +6616,7 @@
         <v>326</v>
       </c>
       <c r="I413">
-        <v>862.17100000000005</v>
+        <v>1015.75</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -6489,71 +6624,65 @@
         <v>327</v>
       </c>
       <c r="I414">
-        <v>740.43700000000001</v>
+        <v>590.53300000000002</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>316</v>
       </c>
-      <c r="I415">
-        <v>698.22299999999996</v>
+      <c r="I415" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>317</v>
       </c>
-      <c r="I416">
-        <v>-744.57100000000003</v>
+      <c r="I416" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>41</v>
       </c>
-      <c r="I417">
-        <v>-1066.71</v>
+      <c r="I417" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>328</v>
       </c>
-      <c r="I418">
-        <v>-582.72799999999995</v>
+      <c r="I418" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>329</v>
       </c>
-      <c r="I419">
-        <v>672.32899999999995</v>
+      <c r="I419" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>330</v>
       </c>
-      <c r="I420">
-        <v>-760.16399999999999</v>
-      </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>331</v>
       </c>
-      <c r="I421" t="s">
-        <v>848</v>
-      </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>332</v>
       </c>
       <c r="I422" t="s">
-        <v>849</v>
+        <v>18</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.25">
@@ -6561,7 +6690,7 @@
         <v>333</v>
       </c>
       <c r="I423" t="s">
-        <v>850</v>
+        <v>795</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
@@ -6569,7 +6698,7 @@
         <v>334</v>
       </c>
       <c r="I424" t="s">
-        <v>851</v>
+        <v>8</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.25">
@@ -6577,25 +6706,31 @@
         <v>335</v>
       </c>
       <c r="I425" t="s">
-        <v>852</v>
+        <v>796</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>336</v>
       </c>
+      <c r="I426" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>35</v>
       </c>
+      <c r="I427" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>337</v>
       </c>
       <c r="I428" t="s">
-        <v>18</v>
+        <v>892</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.25">
@@ -6603,7 +6738,7 @@
         <v>338</v>
       </c>
       <c r="I429" t="s">
-        <v>853</v>
+        <v>799</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.25">
@@ -6611,7 +6746,7 @@
         <v>339</v>
       </c>
       <c r="I430" t="s">
-        <v>8</v>
+        <v>893</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.25">
@@ -6619,7 +6754,7 @@
         <v>340</v>
       </c>
       <c r="I431" t="s">
-        <v>854</v>
+        <v>894</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
@@ -6627,7 +6762,7 @@
         <v>341</v>
       </c>
       <c r="I432" t="s">
-        <v>855</v>
+        <v>895</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.25">
@@ -6635,7 +6770,7 @@
         <v>342</v>
       </c>
       <c r="I433" t="s">
-        <v>856</v>
+        <v>896</v>
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.25">
@@ -6643,7 +6778,7 @@
         <v>343</v>
       </c>
       <c r="I434" t="s">
-        <v>857</v>
+        <v>897</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.25">
@@ -6651,7 +6786,7 @@
         <v>344</v>
       </c>
       <c r="I435" t="s">
-        <v>858</v>
+        <v>898</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
@@ -6659,7 +6794,7 @@
         <v>345</v>
       </c>
       <c r="I436" t="s">
-        <v>859</v>
+        <v>774</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.25">
@@ -6667,23 +6802,23 @@
         <v>346</v>
       </c>
       <c r="I437" t="s">
-        <v>860</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>347</v>
       </c>
-      <c r="I438" t="s">
-        <v>861</v>
+      <c r="I438">
+        <v>768.98900000000003</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>348</v>
       </c>
-      <c r="I439" t="s">
-        <v>862</v>
+      <c r="I439">
+        <v>0.63558899999999996</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.25">
@@ -6691,49 +6826,55 @@
         <v>349</v>
       </c>
       <c r="I440" t="s">
-        <v>863</v>
+        <v>11</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>350</v>
       </c>
-      <c r="I441" t="s">
-        <v>864</v>
+      <c r="I441">
+        <v>767.26900000000001</v>
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>351</v>
       </c>
-      <c r="I442" t="s">
-        <v>9</v>
+      <c r="I442">
+        <v>0.72799499999999995</v>
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>352</v>
       </c>
+      <c r="I443" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>353</v>
       </c>
-      <c r="I444" t="s">
-        <v>15</v>
+      <c r="I444">
+        <v>1.71991</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>347</v>
       </c>
+      <c r="I445">
+        <v>-9.2405699999999993E-2</v>
+      </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>348</v>
       </c>
       <c r="I446" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
@@ -6741,7 +6882,7 @@
         <v>41</v>
       </c>
       <c r="I447">
-        <v>768.98900000000003</v>
+        <v>492.12400000000002</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
@@ -6749,15 +6890,15 @@
         <v>354</v>
       </c>
       <c r="I448">
-        <v>0.63558899999999996</v>
+        <v>28.582100000000001</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>355</v>
       </c>
-      <c r="I449" t="s">
-        <v>11</v>
+      <c r="I449">
+        <v>0.18387100000000001</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
@@ -6765,7 +6906,7 @@
         <v>356</v>
       </c>
       <c r="I450">
-        <v>768.98900000000003</v>
+        <v>862.053</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
@@ -6773,15 +6914,15 @@
         <v>357</v>
       </c>
       <c r="I451">
-        <v>0.63558899999999996</v>
+        <v>740.23800000000006</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>358</v>
       </c>
-      <c r="I452" t="s">
-        <v>12</v>
+      <c r="I452">
+        <v>697.63699999999994</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
@@ -6789,7 +6930,7 @@
         <v>359</v>
       </c>
       <c r="I453">
-        <v>0</v>
+        <v>-744.54499999999996</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
@@ -6797,15 +6938,15 @@
         <v>360</v>
       </c>
       <c r="I454" s="1">
-        <v>5.9604600000000002E-8</v>
+        <v>-1066.94</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>361</v>
       </c>
-      <c r="I455" t="s">
-        <v>13</v>
+      <c r="I455">
+        <v>-582.83399999999995</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
@@ -6813,7 +6954,7 @@
         <v>362</v>
       </c>
       <c r="I456">
-        <v>488.666</v>
+        <v>1015.78</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
@@ -6821,119 +6962,113 @@
         <v>35</v>
       </c>
       <c r="I457">
-        <v>67.786199999999994</v>
+        <v>590.72699999999998</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>363</v>
       </c>
-      <c r="I458">
-        <v>0.33963599999999999</v>
+      <c r="I458" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>364</v>
       </c>
-      <c r="I459">
-        <v>862.17100000000005</v>
+      <c r="I459" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>365</v>
       </c>
-      <c r="I460">
-        <v>740.43700000000001</v>
+      <c r="I460" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>366</v>
       </c>
-      <c r="I461">
-        <v>698.22299999999996</v>
+      <c r="I461" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="I462">
-        <v>-744.57100000000003</v>
+      <c r="I462" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I463">
-        <v>-1066.71</v>
+      <c r="I463" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>369</v>
       </c>
-      <c r="I464">
-        <v>-582.72799999999995</v>
+      <c r="I464" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>370</v>
       </c>
-      <c r="I465">
-        <v>672.32899999999995</v>
+      <c r="I465" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>371</v>
       </c>
-      <c r="I466">
-        <v>-760.16399999999999</v>
-      </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>372</v>
       </c>
       <c r="I467" t="s">
-        <v>865</v>
+        <v>15</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>373</v>
       </c>
-      <c r="I468" t="s">
-        <v>866</v>
-      </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>374</v>
       </c>
       <c r="I469" t="s">
-        <v>860</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>375</v>
       </c>
-      <c r="I470" t="s">
-        <v>861</v>
+      <c r="I470">
+        <v>841.01499999999999</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>376</v>
       </c>
-      <c r="I471" t="s">
-        <v>862</v>
+      <c r="I471">
+        <v>-1.7577700000000001</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
@@ -6941,49 +7076,55 @@
         <v>377</v>
       </c>
       <c r="I472" t="s">
-        <v>863</v>
+        <v>11</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>378</v>
       </c>
-      <c r="I473" t="s">
-        <v>867</v>
+      <c r="I473">
+        <v>841.01499999999999</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>379</v>
       </c>
-      <c r="I474" t="s">
-        <v>9</v>
+      <c r="I474">
+        <v>-1.7577700000000001</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>378</v>
       </c>
+      <c r="I475" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>379</v>
       </c>
-      <c r="I476" t="s">
-        <v>15</v>
+      <c r="I476">
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>41</v>
       </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>380</v>
       </c>
       <c r="I478" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
@@ -6991,7 +7132,7 @@
         <v>381</v>
       </c>
       <c r="I479">
-        <v>841.01499999999999</v>
+        <v>492.12400000000002</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.25">
@@ -6999,15 +7140,15 @@
         <v>382</v>
       </c>
       <c r="I480">
-        <v>-1.7577700000000001</v>
+        <v>28.582100000000001</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>383</v>
       </c>
-      <c r="I481" t="s">
-        <v>11</v>
+      <c r="I481">
+        <v>0.18387100000000001</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
@@ -7015,7 +7156,7 @@
         <v>384</v>
       </c>
       <c r="I482">
-        <v>841.01499999999999</v>
+        <v>862.053</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.25">
@@ -7023,15 +7164,15 @@
         <v>385</v>
       </c>
       <c r="I483">
-        <v>-1.7577700000000001</v>
+        <v>740.23800000000006</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>386</v>
       </c>
-      <c r="I484" t="s">
-        <v>12</v>
+      <c r="I484">
+        <v>697.63699999999994</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.25">
@@ -7039,7 +7180,7 @@
         <v>387</v>
       </c>
       <c r="I485">
-        <v>0</v>
+        <v>-744.54499999999996</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
@@ -7047,15 +7188,15 @@
         <v>388</v>
       </c>
       <c r="I486">
-        <v>0</v>
+        <v>-1066.94</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>389</v>
       </c>
-      <c r="I487" t="s">
-        <v>13</v>
+      <c r="I487">
+        <v>-582.83399999999995</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -7063,7 +7204,7 @@
         <v>389</v>
       </c>
       <c r="I488">
-        <v>488.666</v>
+        <v>1015.78</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
@@ -7071,119 +7212,113 @@
         <v>389</v>
       </c>
       <c r="I489">
-        <v>67.786199999999994</v>
+        <v>590.72699999999998</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>31</v>
       </c>
-      <c r="I490">
-        <v>0.33963599999999999</v>
+      <c r="I490" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>390</v>
       </c>
-      <c r="I491">
-        <v>862.17100000000005</v>
+      <c r="I491" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>391</v>
       </c>
-      <c r="I492">
-        <v>740.43700000000001</v>
+      <c r="I492" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>392</v>
       </c>
-      <c r="I493">
-        <v>698.22299999999996</v>
+      <c r="I493" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>383</v>
       </c>
-      <c r="I494">
-        <v>-744.57100000000003</v>
+      <c r="I494" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>384</v>
       </c>
-      <c r="I495">
-        <v>-1066.71</v>
+      <c r="I495" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>385</v>
       </c>
-      <c r="I496">
-        <v>-582.72799999999995</v>
+      <c r="I496" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>386</v>
       </c>
-      <c r="I497">
-        <v>672.32899999999995</v>
+      <c r="I497" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>387</v>
       </c>
-      <c r="I498">
-        <v>-760.16399999999999</v>
-      </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>388</v>
       </c>
       <c r="I499" t="s">
-        <v>868</v>
+        <v>15</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>35</v>
       </c>
-      <c r="I500" t="s">
-        <v>869</v>
-      </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>393</v>
       </c>
       <c r="I501" t="s">
-        <v>860</v>
+        <v>10</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>394</v>
       </c>
-      <c r="I502" t="s">
-        <v>861</v>
+      <c r="I502">
+        <v>1686.23</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>395</v>
       </c>
-      <c r="I503" t="s">
-        <v>862</v>
+      <c r="I503">
+        <v>-3.1329600000000002</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
@@ -7191,49 +7326,55 @@
         <v>396</v>
       </c>
       <c r="I504" t="s">
-        <v>863</v>
+        <v>11</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>397</v>
       </c>
-      <c r="I505" t="s">
-        <v>870</v>
+      <c r="I505">
+        <v>1686.23</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>398</v>
       </c>
-      <c r="I506" t="s">
-        <v>9</v>
+      <c r="I506">
+        <v>-3.1329600000000002</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>399</v>
       </c>
+      <c r="I507" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>400</v>
       </c>
-      <c r="I508" t="s">
-        <v>15</v>
+      <c r="I508">
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>401</v>
       </c>
+      <c r="I509">
+        <v>0</v>
+      </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>402</v>
       </c>
       <c r="I510" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
@@ -7241,7 +7382,7 @@
         <v>403</v>
       </c>
       <c r="I511">
-        <v>1686.23</v>
+        <v>492.12400000000002</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
@@ -7249,15 +7390,15 @@
         <v>404</v>
       </c>
       <c r="I512">
-        <v>-3.1329600000000002</v>
+        <v>28.582100000000001</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>405</v>
       </c>
-      <c r="I513" t="s">
-        <v>11</v>
+      <c r="I513">
+        <v>0.18387100000000001</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.25">
@@ -7265,7 +7406,7 @@
         <v>406</v>
       </c>
       <c r="I514">
-        <v>1686.23</v>
+        <v>862.053</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.25">
@@ -7273,15 +7414,15 @@
         <v>407</v>
       </c>
       <c r="I515">
-        <v>-3.1329600000000002</v>
+        <v>740.23800000000006</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>408</v>
       </c>
-      <c r="I516" t="s">
-        <v>12</v>
+      <c r="I516">
+        <v>697.63699999999994</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.25">
@@ -7289,7 +7430,7 @@
         <v>409</v>
       </c>
       <c r="I517">
-        <v>0</v>
+        <v>-744.54499999999996</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
@@ -7297,15 +7438,15 @@
         <v>398</v>
       </c>
       <c r="I518">
-        <v>0</v>
+        <v>-1066.94</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>399</v>
       </c>
-      <c r="I519" t="s">
-        <v>13</v>
+      <c r="I519">
+        <v>-582.83399999999995</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
@@ -7313,7 +7454,7 @@
         <v>41</v>
       </c>
       <c r="I520">
-        <v>488.666</v>
+        <v>1015.78</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.25">
@@ -7321,79 +7462,73 @@
         <v>410</v>
       </c>
       <c r="I521">
-        <v>67.786199999999994</v>
+        <v>590.72699999999998</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>411</v>
       </c>
-      <c r="I522">
-        <v>0.33963599999999999</v>
+      <c r="I522" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>412</v>
       </c>
-      <c r="I523">
-        <v>862.17100000000005</v>
+      <c r="I523" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>413</v>
       </c>
-      <c r="I524">
-        <v>740.43700000000001</v>
+      <c r="I524" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>414</v>
       </c>
-      <c r="I525">
-        <v>698.22299999999996</v>
+      <c r="I525" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>415</v>
       </c>
-      <c r="I526">
-        <v>-744.57100000000003</v>
+      <c r="I526" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I527">
-        <v>-1066.71</v>
-      </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>417</v>
       </c>
-      <c r="I528">
-        <v>-582.72799999999995</v>
-      </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>418</v>
       </c>
-      <c r="I529">
-        <v>672.32899999999995</v>
+      <c r="I529" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>35</v>
       </c>
-      <c r="I530">
-        <v>-760.16399999999999</v>
+      <c r="I530" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.25">
@@ -7401,7 +7536,7 @@
         <v>419</v>
       </c>
       <c r="I531" t="s">
-        <v>871</v>
+        <v>8</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
@@ -7409,7 +7544,7 @@
         <v>420</v>
       </c>
       <c r="I532" t="s">
-        <v>849</v>
+        <v>803</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.25">
@@ -7417,7 +7552,7 @@
         <v>421</v>
       </c>
       <c r="I533" t="s">
-        <v>872</v>
+        <v>804</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.25">
@@ -7425,7 +7560,7 @@
         <v>422</v>
       </c>
       <c r="I534" t="s">
-        <v>873</v>
+        <v>805</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.25">
@@ -7433,25 +7568,31 @@
         <v>423</v>
       </c>
       <c r="I535" t="s">
-        <v>852</v>
+        <v>912</v>
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>424</v>
       </c>
+      <c r="I536" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>425</v>
       </c>
+      <c r="I537" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>426</v>
       </c>
       <c r="I538" t="s">
-        <v>19</v>
+        <v>914</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.25">
@@ -7459,7 +7600,7 @@
         <v>427</v>
       </c>
       <c r="I539" t="s">
-        <v>874</v>
+        <v>915</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.25">
@@ -7467,7 +7608,7 @@
         <v>428</v>
       </c>
       <c r="I540" t="s">
-        <v>8</v>
+        <v>916</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.25">
@@ -7475,7 +7616,7 @@
         <v>429</v>
       </c>
       <c r="I541" t="s">
-        <v>875</v>
+        <v>917</v>
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.25">
@@ -7483,7 +7624,7 @@
         <v>430</v>
       </c>
       <c r="I542" t="s">
-        <v>876</v>
+        <v>918</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.25">
@@ -7491,55 +7632,49 @@
         <v>431</v>
       </c>
       <c r="I543" t="s">
-        <v>877</v>
+        <v>9</v>
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>432</v>
       </c>
-      <c r="I544" t="s">
-        <v>878</v>
-      </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>433</v>
       </c>
       <c r="I545" t="s">
-        <v>879</v>
+        <v>15</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>434</v>
       </c>
-      <c r="I546" t="s">
-        <v>880</v>
-      </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>435</v>
       </c>
       <c r="I547" t="s">
-        <v>881</v>
+        <v>10</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>429</v>
       </c>
-      <c r="I548" t="s">
-        <v>882</v>
+      <c r="I548">
+        <v>691.93499999999995</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>430</v>
       </c>
-      <c r="I549" t="s">
-        <v>883</v>
+      <c r="I549">
+        <v>0.60794800000000004</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.25">
@@ -7547,49 +7682,55 @@
         <v>41</v>
       </c>
       <c r="I550" t="s">
-        <v>884</v>
+        <v>11</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>436</v>
       </c>
-      <c r="I551" t="s">
-        <v>885</v>
+      <c r="I551">
+        <v>691.93499999999995</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>437</v>
       </c>
-      <c r="I552" t="s">
-        <v>9</v>
+      <c r="I552">
+        <v>0.60794800000000004</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>438</v>
       </c>
+      <c r="I553" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>439</v>
       </c>
-      <c r="I554" t="s">
-        <v>15</v>
+      <c r="I554" s="1">
+        <v>-6.1035200000000001E-5</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>440</v>
       </c>
+      <c r="I555">
+        <v>0</v>
+      </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>441</v>
       </c>
       <c r="I556" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.25">
@@ -7597,7 +7738,7 @@
         <v>442</v>
       </c>
       <c r="I557">
-        <v>691.93499999999995</v>
+        <v>588.88499999999999</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.25">
@@ -7605,15 +7746,15 @@
         <v>443</v>
       </c>
       <c r="I558">
-        <v>0.60794800000000004</v>
+        <v>46.576999999999998</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>444</v>
       </c>
-      <c r="I559" t="s">
-        <v>11</v>
+      <c r="I559">
+        <v>0.18127699999999999</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.25">
@@ -7621,7 +7762,7 @@
         <v>35</v>
       </c>
       <c r="I560">
-        <v>691.93499999999995</v>
+        <v>862.053</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.25">
@@ -7629,15 +7770,15 @@
         <v>445</v>
       </c>
       <c r="I561">
-        <v>0.60794800000000004</v>
+        <v>740.23800000000006</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>446</v>
       </c>
-      <c r="I562" t="s">
-        <v>12</v>
+      <c r="I562">
+        <v>697.63699999999994</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.25">
@@ -7645,7 +7786,7 @@
         <v>447</v>
       </c>
       <c r="I563">
-        <v>0</v>
+        <v>-744.54499999999996</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.25">
@@ -7653,15 +7794,15 @@
         <v>448</v>
       </c>
       <c r="I564">
-        <v>0</v>
+        <v>-1066.94</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>449</v>
       </c>
-      <c r="I565" t="s">
-        <v>13</v>
+      <c r="I565">
+        <v>-582.83399999999995</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.25">
@@ -7669,7 +7810,7 @@
         <v>450</v>
       </c>
       <c r="I566">
-        <v>581.46400000000006</v>
+        <v>1015.78</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.25">
@@ -7677,119 +7818,113 @@
         <v>451</v>
       </c>
       <c r="I567">
-        <v>100.574</v>
+        <v>590.72699999999998</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>452</v>
       </c>
-      <c r="I568">
-        <v>0.33704099999999998</v>
+      <c r="I568" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>453</v>
       </c>
-      <c r="I569">
-        <v>862.17100000000005</v>
+      <c r="I569" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>454</v>
       </c>
-      <c r="I570">
-        <v>740.43700000000001</v>
+      <c r="I570" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>455</v>
       </c>
-      <c r="I571">
-        <v>698.22299999999996</v>
+      <c r="I571" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>456</v>
       </c>
-      <c r="I572">
-        <v>-744.57100000000003</v>
+      <c r="I572" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>457</v>
       </c>
-      <c r="I573">
-        <v>-1066.71</v>
+      <c r="I573" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>458</v>
       </c>
-      <c r="I574">
-        <v>-582.72799999999995</v>
+      <c r="I574" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>459</v>
       </c>
-      <c r="I575">
-        <v>672.32899999999995</v>
+      <c r="I575" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>460</v>
       </c>
-      <c r="I576">
-        <v>-760.16399999999999</v>
-      </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>461</v>
       </c>
       <c r="I577" t="s">
-        <v>886</v>
+        <v>15</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>460</v>
       </c>
-      <c r="I578" t="s">
-        <v>887</v>
-      </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>461</v>
       </c>
       <c r="I579" t="s">
-        <v>881</v>
+        <v>10</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>41</v>
       </c>
-      <c r="I580" t="s">
-        <v>882</v>
+      <c r="I580">
+        <v>864.82500000000005</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>462</v>
       </c>
-      <c r="I581" t="s">
-        <v>883</v>
+      <c r="I581">
+        <v>-1.9427099999999999</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.25">
@@ -7797,49 +7932,55 @@
         <v>463</v>
       </c>
       <c r="I582" t="s">
-        <v>884</v>
+        <v>11</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>464</v>
       </c>
-      <c r="I583" t="s">
-        <v>888</v>
+      <c r="I583">
+        <v>864.82500000000005</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>465</v>
       </c>
-      <c r="I584" t="s">
-        <v>9</v>
+      <c r="I584">
+        <v>-1.9427099999999999</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>466</v>
       </c>
+      <c r="I585" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>467</v>
       </c>
-      <c r="I586" t="s">
-        <v>15</v>
+      <c r="I586">
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>468</v>
       </c>
+      <c r="I587">
+        <v>0</v>
+      </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>469</v>
       </c>
       <c r="I588" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
@@ -7847,7 +7988,7 @@
         <v>470</v>
       </c>
       <c r="I589">
-        <v>864.82500000000005</v>
+        <v>588.88499999999999</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.25">
@@ -7855,15 +7996,15 @@
         <v>471</v>
       </c>
       <c r="I590">
-        <v>-1.9427099999999999</v>
+        <v>46.576999999999998</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>471</v>
       </c>
-      <c r="I591" t="s">
-        <v>11</v>
+      <c r="I591">
+        <v>0.18127699999999999</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
@@ -7871,7 +8012,7 @@
         <v>471</v>
       </c>
       <c r="I592">
-        <v>864.82500000000005</v>
+        <v>862.053</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.25">
@@ -7879,15 +8020,15 @@
         <v>31</v>
       </c>
       <c r="I593">
-        <v>-1.9427099999999999</v>
+        <v>740.23800000000006</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>472</v>
       </c>
-      <c r="I594" t="s">
-        <v>12</v>
+      <c r="I594">
+        <v>697.63699999999994</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.25">
@@ -7895,7 +8036,7 @@
         <v>473</v>
       </c>
       <c r="I595">
-        <v>0</v>
+        <v>-744.54499999999996</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.25">
@@ -7903,15 +8044,15 @@
         <v>474</v>
       </c>
       <c r="I596">
-        <v>0</v>
+        <v>-1066.94</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>465</v>
       </c>
-      <c r="I597" t="s">
-        <v>13</v>
+      <c r="I597">
+        <v>-582.83399999999995</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.25">
@@ -7919,7 +8060,7 @@
         <v>466</v>
       </c>
       <c r="I598">
-        <v>581.46400000000006</v>
+        <v>1015.78</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.25">
@@ -7927,119 +8068,113 @@
         <v>467</v>
       </c>
       <c r="I599">
-        <v>100.574</v>
+        <v>590.72699999999998</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>468</v>
       </c>
-      <c r="I600">
-        <v>0.33704099999999998</v>
+      <c r="I600" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>469</v>
       </c>
-      <c r="I601">
-        <v>862.17100000000005</v>
+      <c r="I601" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>470</v>
       </c>
-      <c r="I602">
-        <v>740.43700000000001</v>
+      <c r="I602" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>35</v>
       </c>
-      <c r="I603">
-        <v>698.22299999999996</v>
+      <c r="I603" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I604">
-        <v>-744.57100000000003</v>
+      <c r="I604" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>476</v>
       </c>
-      <c r="I605">
-        <v>-1066.71</v>
+      <c r="I605" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>477</v>
       </c>
-      <c r="I606">
-        <v>-582.72799999999995</v>
+      <c r="I606" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>478</v>
       </c>
-      <c r="I607">
-        <v>672.32899999999995</v>
+      <c r="I607" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>479</v>
       </c>
-      <c r="I608">
-        <v>-760.16399999999999</v>
-      </c>
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>480</v>
       </c>
       <c r="I609" t="s">
-        <v>889</v>
+        <v>15</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>481</v>
       </c>
-      <c r="I610" t="s">
-        <v>890</v>
-      </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>482</v>
       </c>
       <c r="I611" t="s">
-        <v>881</v>
+        <v>10</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>483</v>
       </c>
-      <c r="I612" t="s">
-        <v>882</v>
+      <c r="I612">
+        <v>1785.96</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>484</v>
       </c>
-      <c r="I613" t="s">
-        <v>883</v>
+      <c r="I613">
+        <v>3.04142</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
@@ -8047,49 +8182,55 @@
         <v>485</v>
       </c>
       <c r="I614" t="s">
-        <v>884</v>
+        <v>11</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>486</v>
       </c>
-      <c r="I615" t="s">
-        <v>891</v>
+      <c r="I615">
+        <v>1785.96</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>487</v>
       </c>
-      <c r="I616" t="s">
-        <v>9</v>
+      <c r="I616">
+        <v>-3.2417699999999998</v>
       </c>
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>488</v>
       </c>
+      <c r="I617" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>489</v>
       </c>
-      <c r="I618" t="s">
-        <v>15</v>
+      <c r="I618">
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>490</v>
       </c>
+      <c r="I619" s="1">
+        <v>-3.0199200000000002E-7</v>
+      </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>491</v>
       </c>
       <c r="I620" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
@@ -8097,7 +8238,7 @@
         <v>480</v>
       </c>
       <c r="I621">
-        <v>1785.96</v>
+        <v>588.89800000000002</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
@@ -8105,15 +8246,15 @@
         <v>481</v>
       </c>
       <c r="I622">
-        <v>3.04142</v>
+        <v>46.5642</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>41</v>
       </c>
-      <c r="I623" t="s">
-        <v>11</v>
+      <c r="I623">
+        <v>-1.91275</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
@@ -8121,7 +8262,7 @@
         <v>492</v>
       </c>
       <c r="I624">
-        <v>1785.96</v>
+        <v>862.05399999999997</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.25">
@@ -8129,15 +8270,15 @@
         <v>493</v>
       </c>
       <c r="I625">
-        <v>-3.2417699999999998</v>
+        <v>740.23900000000003</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>494</v>
       </c>
-      <c r="I626" t="s">
-        <v>12</v>
+      <c r="I626">
+        <v>697.64</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
@@ -8145,7 +8286,7 @@
         <v>495</v>
       </c>
       <c r="I627">
-        <v>0</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
@@ -8153,15 +8294,15 @@
         <v>496</v>
       </c>
       <c r="I628" s="1">
-        <v>-3.0199200000000002E-7</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>497</v>
       </c>
-      <c r="I629" t="s">
-        <v>13</v>
+      <c r="I629">
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.25">
@@ -8169,7 +8310,7 @@
         <v>498</v>
       </c>
       <c r="I630">
-        <v>581.476</v>
+        <v>1015.79</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
@@ -8177,79 +8318,73 @@
         <v>499</v>
       </c>
       <c r="I631">
-        <v>100.56399999999999</v>
+        <v>590.71699999999998</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>500</v>
       </c>
-      <c r="I632">
-        <v>-1.75732</v>
+      <c r="I632" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>35</v>
       </c>
-      <c r="I633">
-        <v>862.17899999999997</v>
+      <c r="I633" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>501</v>
       </c>
-      <c r="I634">
-        <v>740.43100000000004</v>
+      <c r="I634" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>502</v>
       </c>
-      <c r="I635">
-        <v>698.22299999999996</v>
+      <c r="I635" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>503</v>
       </c>
-      <c r="I636">
-        <v>-744.572</v>
+      <c r="I636" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="I637">
-        <v>-1066.71</v>
-      </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>505</v>
       </c>
-      <c r="I638">
-        <v>-582.72699999999998</v>
-      </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>506</v>
       </c>
-      <c r="I639">
-        <v>672.33</v>
+      <c r="I639" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>507</v>
       </c>
-      <c r="I640">
-        <v>-760.16300000000001</v>
+      <c r="I640" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
@@ -8257,7 +8392,7 @@
         <v>508</v>
       </c>
       <c r="I641" t="s">
-        <v>892</v>
+        <v>8</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.25">
@@ -8265,7 +8400,7 @@
         <v>509</v>
       </c>
       <c r="I642" t="s">
-        <v>893</v>
+        <v>810</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.25">
@@ -8273,7 +8408,7 @@
         <v>510</v>
       </c>
       <c r="I643" t="s">
-        <v>894</v>
+        <v>811</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
@@ -8281,7 +8416,7 @@
         <v>511</v>
       </c>
       <c r="I644" t="s">
-        <v>895</v>
+        <v>812</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.25">
@@ -8289,25 +8424,31 @@
         <v>512</v>
       </c>
       <c r="I645" t="s">
-        <v>896</v>
+        <v>928</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>513</v>
       </c>
+      <c r="I646" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>514</v>
       </c>
+      <c r="I647" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>515</v>
       </c>
       <c r="I648" t="s">
-        <v>20</v>
+        <v>930</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.25">
@@ -8315,7 +8456,7 @@
         <v>516</v>
       </c>
       <c r="I649" t="s">
-        <v>897</v>
+        <v>931</v>
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.25">
@@ -8323,7 +8464,7 @@
         <v>517</v>
       </c>
       <c r="I650" t="s">
-        <v>8</v>
+        <v>932</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.25">
@@ -8331,7 +8472,7 @@
         <v>511</v>
       </c>
       <c r="I651" t="s">
-        <v>898</v>
+        <v>933</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.25">
@@ -8339,7 +8480,7 @@
         <v>512</v>
       </c>
       <c r="I652" t="s">
-        <v>899</v>
+        <v>934</v>
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.25">
@@ -8347,55 +8488,49 @@
         <v>41</v>
       </c>
       <c r="I653" t="s">
-        <v>900</v>
+        <v>9</v>
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>518</v>
       </c>
-      <c r="I654" t="s">
-        <v>901</v>
-      </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>519</v>
       </c>
       <c r="I655" t="s">
-        <v>902</v>
+        <v>15</v>
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>520</v>
       </c>
-      <c r="I656" t="s">
-        <v>903</v>
-      </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>521</v>
       </c>
       <c r="I657" t="s">
-        <v>904</v>
+        <v>10</v>
       </c>
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>522</v>
       </c>
-      <c r="I658" t="s">
-        <v>905</v>
+      <c r="I658">
+        <v>614.50400000000002</v>
       </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>523</v>
       </c>
-      <c r="I659" t="s">
-        <v>906</v>
+      <c r="I659">
+        <v>0.66318699999999997</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.25">
@@ -8403,49 +8538,55 @@
         <v>524</v>
       </c>
       <c r="I660" t="s">
-        <v>907</v>
+        <v>11</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>525</v>
       </c>
-      <c r="I661" t="s">
-        <v>908</v>
+      <c r="I661">
+        <v>614.50400000000002</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>526</v>
       </c>
-      <c r="I662" t="s">
-        <v>9</v>
+      <c r="I662">
+        <v>0.66318699999999997</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>35</v>
       </c>
+      <c r="I663" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>527</v>
       </c>
-      <c r="I664" t="s">
-        <v>15</v>
+      <c r="I664">
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>528</v>
       </c>
+      <c r="I665">
+        <v>0</v>
+      </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>529</v>
       </c>
       <c r="I666" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.25">
@@ -8453,7 +8594,7 @@
         <v>530</v>
       </c>
       <c r="I667">
-        <v>614.50400000000002</v>
+        <v>555.09799999999996</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.25">
@@ -8461,15 +8602,15 @@
         <v>531</v>
       </c>
       <c r="I668">
-        <v>0.66318699999999997</v>
+        <v>-48.396599999999999</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>532</v>
       </c>
-      <c r="I669" t="s">
-        <v>11</v>
+      <c r="I669">
+        <v>-1.7993600000000001</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.25">
@@ -8477,7 +8618,7 @@
         <v>533</v>
       </c>
       <c r="I670">
-        <v>614.50400000000002</v>
+        <v>862.05399999999997</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.25">
@@ -8485,15 +8626,15 @@
         <v>534</v>
       </c>
       <c r="I671">
-        <v>0.66318699999999997</v>
+        <v>740.23900000000003</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>535</v>
       </c>
-      <c r="I672" t="s">
-        <v>12</v>
+      <c r="I672">
+        <v>697.64</v>
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.25">
@@ -8501,7 +8642,7 @@
         <v>536</v>
       </c>
       <c r="I673">
-        <v>0</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.25">
@@ -8509,15 +8650,15 @@
         <v>537</v>
       </c>
       <c r="I674">
-        <v>0</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>538</v>
       </c>
-      <c r="I675" t="s">
-        <v>13</v>
+      <c r="I675">
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.25">
@@ -8525,7 +8666,7 @@
         <v>539</v>
       </c>
       <c r="I676">
-        <v>562.78300000000002</v>
+        <v>1015.79</v>
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.25">
@@ -8533,119 +8674,113 @@
         <v>540</v>
       </c>
       <c r="I677">
-        <v>1.51583</v>
+        <v>590.71699999999998</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>541</v>
       </c>
-      <c r="I678">
-        <v>-1.6439299999999999</v>
+      <c r="I678" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>542</v>
       </c>
-      <c r="I679">
-        <v>862.17899999999997</v>
+      <c r="I679" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>543</v>
       </c>
-      <c r="I680">
-        <v>740.43100000000004</v>
+      <c r="I680" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>542</v>
       </c>
-      <c r="I681">
-        <v>698.22299999999996</v>
+      <c r="I681" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="I682">
-        <v>-744.572</v>
+      <c r="I682" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>41</v>
       </c>
-      <c r="I683">
-        <v>-1066.71</v>
+      <c r="I683" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>544</v>
       </c>
-      <c r="I684">
-        <v>-582.72699999999998</v>
+      <c r="I684" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>545</v>
       </c>
-      <c r="I685">
-        <v>672.33</v>
+      <c r="I685" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>546</v>
       </c>
-      <c r="I686">
-        <v>-760.16300000000001</v>
-      </c>
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>547</v>
       </c>
       <c r="I687" t="s">
-        <v>909</v>
+        <v>15</v>
       </c>
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>548</v>
       </c>
-      <c r="I688" t="s">
-        <v>910</v>
-      </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>549</v>
       </c>
       <c r="I689" t="s">
-        <v>904</v>
+        <v>10</v>
       </c>
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>550</v>
       </c>
-      <c r="I690" t="s">
-        <v>905</v>
+      <c r="I690">
+        <v>908.06</v>
       </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>551</v>
       </c>
-      <c r="I691" t="s">
-        <v>906</v>
+      <c r="I691">
+        <v>-2.2005599999999998</v>
       </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.25">
@@ -8653,49 +8788,55 @@
         <v>552</v>
       </c>
       <c r="I692" t="s">
-        <v>907</v>
+        <v>11</v>
       </c>
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>553</v>
       </c>
-      <c r="I693" t="s">
-        <v>911</v>
+      <c r="I693">
+        <v>908.06</v>
       </c>
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>553</v>
       </c>
-      <c r="I694" t="s">
-        <v>9</v>
+      <c r="I694">
+        <v>-2.2005599999999998</v>
       </c>
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>553</v>
       </c>
+      <c r="I695" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>31</v>
       </c>
-      <c r="I696" t="s">
-        <v>15</v>
+      <c r="I696">
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>554</v>
       </c>
+      <c r="I697" s="1">
+        <v>2.3841900000000001E-7</v>
+      </c>
     </row>
     <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>555</v>
       </c>
       <c r="I698" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.25">
@@ -8703,7 +8844,7 @@
         <v>556</v>
       </c>
       <c r="I699">
-        <v>908.06</v>
+        <v>555.09799999999996</v>
       </c>
     </row>
     <row r="700" spans="1:9" x14ac:dyDescent="0.25">
@@ -8711,15 +8852,15 @@
         <v>547</v>
       </c>
       <c r="I700">
-        <v>-2.2005599999999998</v>
+        <v>-48.396599999999999</v>
       </c>
     </row>
     <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>548</v>
       </c>
-      <c r="I701" t="s">
-        <v>11</v>
+      <c r="I701">
+        <v>-1.7993600000000001</v>
       </c>
     </row>
     <row r="702" spans="1:9" x14ac:dyDescent="0.25">
@@ -8727,7 +8868,7 @@
         <v>549</v>
       </c>
       <c r="I702">
-        <v>908.06</v>
+        <v>862.05399999999997</v>
       </c>
     </row>
     <row r="703" spans="1:9" x14ac:dyDescent="0.25">
@@ -8735,15 +8876,15 @@
         <v>550</v>
       </c>
       <c r="I703">
-        <v>-2.2005599999999998</v>
+        <v>740.23900000000003</v>
       </c>
     </row>
     <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>551</v>
       </c>
-      <c r="I704" t="s">
-        <v>12</v>
+      <c r="I704">
+        <v>697.64</v>
       </c>
     </row>
     <row r="705" spans="1:9" x14ac:dyDescent="0.25">
@@ -8751,7 +8892,7 @@
         <v>552</v>
       </c>
       <c r="I705">
-        <v>0</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.25">
@@ -8759,15 +8900,15 @@
         <v>35</v>
       </c>
       <c r="I706" s="1">
-        <v>-2.3841900000000001E-7</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>557</v>
       </c>
-      <c r="I707" t="s">
-        <v>13</v>
+      <c r="I707">
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="708" spans="1:9" x14ac:dyDescent="0.25">
@@ -8775,7 +8916,7 @@
         <v>558</v>
       </c>
       <c r="I708">
-        <v>562.78300000000002</v>
+        <v>1015.79</v>
       </c>
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.25">
@@ -8783,119 +8924,113 @@
         <v>559</v>
       </c>
       <c r="I709">
-        <v>1.51583</v>
+        <v>590.71699999999998</v>
       </c>
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>560</v>
       </c>
-      <c r="I710">
-        <v>-1.6439299999999999</v>
+      <c r="I710" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>561</v>
       </c>
-      <c r="I711">
-        <v>862.17899999999997</v>
+      <c r="I711" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>562</v>
       </c>
-      <c r="I712">
-        <v>740.43100000000004</v>
+      <c r="I712" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>563</v>
       </c>
-      <c r="I713">
-        <v>698.22299999999996</v>
+      <c r="I713" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I714">
-        <v>-744.572</v>
+      <c r="I714" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>565</v>
       </c>
-      <c r="I715">
-        <v>-1066.71</v>
+      <c r="I715" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>566</v>
       </c>
-      <c r="I716">
-        <v>-582.72699999999998</v>
+      <c r="I716" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="717" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>567</v>
       </c>
-      <c r="I717">
-        <v>672.33</v>
+      <c r="I717" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="718" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>568</v>
       </c>
-      <c r="I718">
-        <v>-760.16300000000001</v>
-      </c>
     </row>
     <row r="719" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>569</v>
       </c>
       <c r="I719" t="s">
-        <v>912</v>
+        <v>15</v>
       </c>
     </row>
     <row r="720" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>570</v>
       </c>
-      <c r="I720" t="s">
-        <v>913</v>
-      </c>
     </row>
     <row r="721" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>571</v>
       </c>
       <c r="I721" t="s">
-        <v>904</v>
+        <v>10</v>
       </c>
     </row>
     <row r="722" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>572</v>
       </c>
-      <c r="I722" t="s">
-        <v>905</v>
+      <c r="I722">
+        <v>1885.38</v>
       </c>
     </row>
     <row r="723" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>573</v>
       </c>
-      <c r="I723" t="s">
-        <v>906</v>
+      <c r="I723">
+        <v>2.9507699999999999</v>
       </c>
     </row>
     <row r="724" spans="1:9" x14ac:dyDescent="0.25">
@@ -8903,49 +9038,55 @@
         <v>562</v>
       </c>
       <c r="I724" t="s">
-        <v>907</v>
+        <v>11</v>
       </c>
     </row>
     <row r="725" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>563</v>
       </c>
-      <c r="I725" t="s">
-        <v>914</v>
+      <c r="I725">
+        <v>1885.38</v>
       </c>
     </row>
     <row r="726" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>41</v>
       </c>
-      <c r="I726" t="s">
-        <v>9</v>
+      <c r="I726">
+        <v>2.9507699999999999</v>
       </c>
     </row>
     <row r="727" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>574</v>
       </c>
+      <c r="I727" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="728" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>575</v>
       </c>
-      <c r="I728" t="s">
-        <v>15</v>
+      <c r="I728">
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>576</v>
       </c>
+      <c r="I729">
+        <v>0</v>
+      </c>
     </row>
     <row r="730" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>577</v>
       </c>
       <c r="I730" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.25">
@@ -8953,7 +9094,7 @@
         <v>578</v>
       </c>
       <c r="I731">
-        <v>1885.38</v>
+        <v>555.09799999999996</v>
       </c>
     </row>
     <row r="732" spans="1:9" x14ac:dyDescent="0.25">
@@ -8961,15 +9102,15 @@
         <v>579</v>
       </c>
       <c r="I732">
-        <v>2.9507699999999999</v>
+        <v>-48.396599999999999</v>
       </c>
     </row>
     <row r="733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>580</v>
       </c>
-      <c r="I733" t="s">
-        <v>11</v>
+      <c r="I733">
+        <v>-1.7993600000000001</v>
       </c>
     </row>
     <row r="734" spans="1:9" x14ac:dyDescent="0.25">
@@ -8977,7 +9118,7 @@
         <v>581</v>
       </c>
       <c r="I734">
-        <v>1885.38</v>
+        <v>862.05399999999997</v>
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.25">
@@ -8985,15 +9126,15 @@
         <v>582</v>
       </c>
       <c r="I735">
-        <v>2.9507699999999999</v>
+        <v>740.23900000000003</v>
       </c>
     </row>
     <row r="736" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>35</v>
       </c>
-      <c r="I736" t="s">
-        <v>12</v>
+      <c r="I736">
+        <v>697.64</v>
       </c>
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.25">
@@ -9001,7 +9142,7 @@
         <v>583</v>
       </c>
       <c r="I737">
-        <v>0</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="738" spans="1:9" x14ac:dyDescent="0.25">
@@ -9009,15 +9150,15 @@
         <v>584</v>
       </c>
       <c r="I738">
-        <v>0</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>585</v>
       </c>
-      <c r="I739" t="s">
-        <v>13</v>
+      <c r="I739">
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.25">
@@ -9025,7 +9166,7 @@
         <v>586</v>
       </c>
       <c r="I740">
-        <v>562.78300000000002</v>
+        <v>1015.79</v>
       </c>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.25">
@@ -9033,79 +9174,73 @@
         <v>587</v>
       </c>
       <c r="I741">
-        <v>1.51583</v>
+        <v>590.71699999999998</v>
       </c>
     </row>
     <row r="742" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>588</v>
       </c>
-      <c r="I742">
-        <v>-1.6439299999999999</v>
+      <c r="I742" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="743" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>589</v>
       </c>
-      <c r="I743">
-        <v>862.17899999999997</v>
+      <c r="I743" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="744" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>590</v>
       </c>
-      <c r="I744">
-        <v>740.43100000000004</v>
+      <c r="I744" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="745" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>591</v>
       </c>
-      <c r="I745">
-        <v>698.22299999999996</v>
+      <c r="I745" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="746" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>592</v>
       </c>
-      <c r="I746">
-        <v>-744.572</v>
+      <c r="I746" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="747" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>593</v>
       </c>
-      <c r="I747">
-        <v>-1066.71</v>
-      </c>
     </row>
     <row r="748" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>594</v>
       </c>
-      <c r="I748">
-        <v>-582.72699999999998</v>
-      </c>
     </row>
     <row r="749" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>595</v>
       </c>
-      <c r="I749">
-        <v>672.33</v>
+      <c r="I749" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="750" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>596</v>
       </c>
-      <c r="I750">
-        <v>-760.16300000000001</v>
+      <c r="I750" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="751" spans="1:9" x14ac:dyDescent="0.25">
@@ -9113,7 +9248,7 @@
         <v>597</v>
       </c>
       <c r="I751" t="s">
-        <v>915</v>
+        <v>8</v>
       </c>
     </row>
     <row r="752" spans="1:9" x14ac:dyDescent="0.25">
@@ -9121,7 +9256,7 @@
         <v>598</v>
       </c>
       <c r="I752" t="s">
-        <v>893</v>
+        <v>817</v>
       </c>
     </row>
     <row r="753" spans="1:9" x14ac:dyDescent="0.25">
@@ -9129,7 +9264,7 @@
         <v>599</v>
       </c>
       <c r="I753" t="s">
-        <v>916</v>
+        <v>818</v>
       </c>
     </row>
     <row r="754" spans="1:9" x14ac:dyDescent="0.25">
@@ -9137,7 +9272,7 @@
         <v>593</v>
       </c>
       <c r="I754" t="s">
-        <v>917</v>
+        <v>819</v>
       </c>
     </row>
     <row r="755" spans="1:9" x14ac:dyDescent="0.25">
@@ -9145,25 +9280,31 @@
         <v>594</v>
       </c>
       <c r="I755" t="s">
-        <v>896</v>
+        <v>942</v>
       </c>
     </row>
     <row r="756" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>41</v>
       </c>
+      <c r="I756" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="757" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>600</v>
       </c>
+      <c r="I757" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="758" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>601</v>
       </c>
       <c r="I758" t="s">
-        <v>21</v>
+        <v>944</v>
       </c>
     </row>
     <row r="759" spans="1:9" x14ac:dyDescent="0.25">
@@ -9171,7 +9312,7 @@
         <v>602</v>
       </c>
       <c r="I759" t="s">
-        <v>918</v>
+        <v>945</v>
       </c>
     </row>
     <row r="760" spans="1:9" x14ac:dyDescent="0.25">
@@ -9179,7 +9320,7 @@
         <v>603</v>
       </c>
       <c r="I760" t="s">
-        <v>8</v>
+        <v>946</v>
       </c>
     </row>
     <row r="761" spans="1:9" x14ac:dyDescent="0.25">
@@ -9187,7 +9328,7 @@
         <v>604</v>
       </c>
       <c r="I761" t="s">
-        <v>919</v>
+        <v>947</v>
       </c>
     </row>
     <row r="762" spans="1:9" x14ac:dyDescent="0.25">
@@ -9195,7 +9336,7 @@
         <v>605</v>
       </c>
       <c r="I762" t="s">
-        <v>920</v>
+        <v>948</v>
       </c>
     </row>
     <row r="763" spans="1:9" x14ac:dyDescent="0.25">
@@ -9203,55 +9344,49 @@
         <v>606</v>
       </c>
       <c r="I763" t="s">
-        <v>921</v>
+        <v>9</v>
       </c>
     </row>
     <row r="764" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>607</v>
       </c>
-      <c r="I764" t="s">
-        <v>922</v>
-      </c>
     </row>
     <row r="765" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>608</v>
       </c>
       <c r="I765" t="s">
-        <v>923</v>
+        <v>15</v>
       </c>
     </row>
     <row r="766" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>35</v>
       </c>
-      <c r="I766" t="s">
-        <v>924</v>
-      </c>
     </row>
     <row r="767" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>609</v>
       </c>
       <c r="I767" t="s">
-        <v>925</v>
+        <v>10</v>
       </c>
     </row>
     <row r="768" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>610</v>
       </c>
-      <c r="I768" t="s">
-        <v>926</v>
+      <c r="I768">
+        <v>537.08900000000006</v>
       </c>
     </row>
     <row r="769" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>611</v>
       </c>
-      <c r="I769" t="s">
-        <v>927</v>
+      <c r="I769">
+        <v>0.66087200000000001</v>
       </c>
     </row>
     <row r="770" spans="1:9" x14ac:dyDescent="0.25">
@@ -9259,49 +9394,55 @@
         <v>612</v>
       </c>
       <c r="I770" t="s">
-        <v>928</v>
+        <v>11</v>
       </c>
     </row>
     <row r="771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>613</v>
       </c>
-      <c r="I771" t="s">
-        <v>929</v>
+      <c r="I771">
+        <v>537.08900000000006</v>
       </c>
     </row>
     <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>614</v>
       </c>
-      <c r="I772" t="s">
-        <v>9</v>
+      <c r="I772">
+        <v>0.66087200000000001</v>
       </c>
     </row>
     <row r="773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>615</v>
       </c>
+      <c r="I773" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>616</v>
       </c>
-      <c r="I774" t="s">
-        <v>15</v>
+      <c r="I774">
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>617</v>
       </c>
+      <c r="I775" s="1">
+        <v>-5.9604600000000002E-8</v>
+      </c>
     </row>
     <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>618</v>
       </c>
       <c r="I776" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="777" spans="1:9" x14ac:dyDescent="0.25">
@@ -9309,7 +9450,7 @@
         <v>619</v>
       </c>
       <c r="I777">
-        <v>537.08900000000006</v>
+        <v>532.37300000000005</v>
       </c>
     </row>
     <row r="778" spans="1:9" x14ac:dyDescent="0.25">
@@ -9317,15 +9458,15 @@
         <v>620</v>
       </c>
       <c r="I778">
-        <v>0.66087200000000001</v>
+        <v>-146.083</v>
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>621</v>
       </c>
-      <c r="I779" t="s">
-        <v>11</v>
+      <c r="I779">
+        <v>-1.7586900000000001</v>
       </c>
     </row>
     <row r="780" spans="1:9" x14ac:dyDescent="0.25">
@@ -9333,7 +9474,7 @@
         <v>622</v>
       </c>
       <c r="I780">
-        <v>537.08900000000006</v>
+        <v>862.05399999999997</v>
       </c>
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.25">
@@ -9341,15 +9482,15 @@
         <v>623</v>
       </c>
       <c r="I781">
-        <v>0.66087200000000001</v>
+        <v>740.23900000000003</v>
       </c>
     </row>
     <row r="782" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>624</v>
       </c>
-      <c r="I782" t="s">
-        <v>12</v>
+      <c r="I782">
+        <v>697.64</v>
       </c>
     </row>
     <row r="783" spans="1:9" x14ac:dyDescent="0.25">
@@ -9357,7 +9498,7 @@
         <v>625</v>
       </c>
       <c r="I783">
-        <v>0</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.25">
@@ -9365,15 +9506,15 @@
         <v>624</v>
       </c>
       <c r="I784" s="1">
-        <v>-5.9604600000000002E-8</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>625</v>
       </c>
-      <c r="I785" t="s">
-        <v>13</v>
+      <c r="I785">
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="786" spans="1:9" x14ac:dyDescent="0.25">
@@ -9381,7 +9522,7 @@
         <v>41</v>
       </c>
       <c r="I786">
-        <v>555.45500000000004</v>
+        <v>1015.79</v>
       </c>
     </row>
     <row r="787" spans="1:9" x14ac:dyDescent="0.25">
@@ -9389,119 +9530,113 @@
         <v>626</v>
       </c>
       <c r="I787">
-        <v>-98.511200000000002</v>
+        <v>590.71699999999998</v>
       </c>
     </row>
     <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>627</v>
       </c>
-      <c r="I788">
-        <v>-1.6032599999999999</v>
+      <c r="I788" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>628</v>
       </c>
-      <c r="I789">
-        <v>862.17899999999997</v>
+      <c r="I789" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>629</v>
       </c>
-      <c r="I790">
-        <v>740.43100000000004</v>
+      <c r="I790" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>630</v>
       </c>
-      <c r="I791">
-        <v>698.22299999999996</v>
+      <c r="I791" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="I792">
-        <v>-744.572</v>
+      <c r="I792" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>632</v>
       </c>
-      <c r="I793">
-        <v>-1066.71</v>
+      <c r="I793" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>633</v>
       </c>
-      <c r="I794">
-        <v>-582.72699999999998</v>
+      <c r="I794" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>634</v>
       </c>
-      <c r="I795">
-        <v>672.33</v>
+      <c r="I795" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>635</v>
       </c>
-      <c r="I796">
-        <v>-760.16300000000001</v>
-      </c>
     </row>
     <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>635</v>
       </c>
       <c r="I797" t="s">
-        <v>930</v>
+        <v>15</v>
       </c>
     </row>
     <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>635</v>
       </c>
-      <c r="I798" t="s">
-        <v>931</v>
-      </c>
     </row>
     <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>31</v>
       </c>
       <c r="I799" t="s">
-        <v>925</v>
+        <v>10</v>
       </c>
     </row>
     <row r="800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>636</v>
       </c>
-      <c r="I800" t="s">
-        <v>926</v>
+      <c r="I800">
+        <v>967.10400000000004</v>
       </c>
     </row>
     <row r="801" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>637</v>
       </c>
-      <c r="I801" t="s">
-        <v>927</v>
+      <c r="I801">
+        <v>-2.3560099999999999</v>
       </c>
     </row>
     <row r="802" spans="1:9" x14ac:dyDescent="0.25">
@@ -9509,49 +9644,55 @@
         <v>638</v>
       </c>
       <c r="I802" t="s">
-        <v>928</v>
+        <v>11</v>
       </c>
     </row>
     <row r="803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>629</v>
       </c>
-      <c r="I803" t="s">
-        <v>932</v>
+      <c r="I803">
+        <v>967.10400000000004</v>
       </c>
     </row>
     <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>630</v>
       </c>
-      <c r="I804" t="s">
-        <v>9</v>
+      <c r="I804">
+        <v>-2.3560099999999999</v>
       </c>
     </row>
     <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>631</v>
       </c>
+      <c r="I805" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>632</v>
       </c>
-      <c r="I806" t="s">
-        <v>15</v>
+      <c r="I806">
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>633</v>
       </c>
+      <c r="I807" s="1">
+        <v>-2.3841900000000001E-7</v>
+      </c>
     </row>
     <row r="808" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>634</v>
       </c>
       <c r="I808" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="809" spans="1:9" x14ac:dyDescent="0.25">
@@ -9559,7 +9700,7 @@
         <v>35</v>
       </c>
       <c r="I809">
-        <v>967.10400000000004</v>
+        <v>532.37300000000005</v>
       </c>
     </row>
     <row r="810" spans="1:9" x14ac:dyDescent="0.25">
@@ -9567,15 +9708,15 @@
         <v>639</v>
       </c>
       <c r="I810">
-        <v>-2.3560099999999999</v>
+        <v>-146.083</v>
       </c>
     </row>
     <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>640</v>
       </c>
-      <c r="I811" t="s">
-        <v>11</v>
+      <c r="I811">
+        <v>-1.7586900000000001</v>
       </c>
     </row>
     <row r="812" spans="1:9" x14ac:dyDescent="0.25">
@@ -9583,7 +9724,7 @@
         <v>641</v>
       </c>
       <c r="I812">
-        <v>967.10400000000004</v>
+        <v>862.05399999999997</v>
       </c>
     </row>
     <row r="813" spans="1:9" x14ac:dyDescent="0.25">
@@ -9591,15 +9732,15 @@
         <v>642</v>
       </c>
       <c r="I813">
-        <v>-2.3560099999999999</v>
+        <v>740.23900000000003</v>
       </c>
     </row>
     <row r="814" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>643</v>
       </c>
-      <c r="I814" t="s">
-        <v>12</v>
+      <c r="I814">
+        <v>697.64</v>
       </c>
     </row>
     <row r="815" spans="1:9" x14ac:dyDescent="0.25">
@@ -9607,7 +9748,7 @@
         <v>644</v>
       </c>
       <c r="I815">
-        <v>0</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="816" spans="1:9" x14ac:dyDescent="0.25">
@@ -9615,15 +9756,15 @@
         <v>645</v>
       </c>
       <c r="I816" s="1">
-        <v>-4.76837E-7</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="817" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>646</v>
       </c>
-      <c r="I817" t="s">
-        <v>13</v>
+      <c r="I817">
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="818" spans="1:9" x14ac:dyDescent="0.25">
@@ -9631,7 +9772,7 @@
         <v>647</v>
       </c>
       <c r="I818">
-        <v>555.45500000000004</v>
+        <v>1015.79</v>
       </c>
     </row>
     <row r="819" spans="1:9" x14ac:dyDescent="0.25">
@@ -9639,119 +9780,113 @@
         <v>648</v>
       </c>
       <c r="I819">
-        <v>-98.511200000000002</v>
+        <v>590.71699999999998</v>
       </c>
     </row>
     <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>649</v>
       </c>
-      <c r="I820">
-        <v>-1.6032599999999999</v>
+      <c r="I820" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>650</v>
       </c>
-      <c r="I821">
-        <v>862.17899999999997</v>
+      <c r="I821" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="822" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>651</v>
       </c>
-      <c r="I822">
-        <v>740.43100000000004</v>
+      <c r="I822" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>652</v>
       </c>
-      <c r="I823">
-        <v>698.22299999999996</v>
+      <c r="I823" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>653</v>
       </c>
-      <c r="I824">
-        <v>-744.572</v>
+      <c r="I824" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>654</v>
       </c>
-      <c r="I825">
-        <v>-1066.71</v>
+      <c r="I825" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>655</v>
       </c>
-      <c r="I826">
-        <v>-582.72699999999998</v>
+      <c r="I826" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>644</v>
       </c>
-      <c r="I827">
-        <v>672.33</v>
+      <c r="I827" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>645</v>
       </c>
-      <c r="I828">
-        <v>-760.16300000000001</v>
-      </c>
     </row>
     <row r="829" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>41</v>
       </c>
       <c r="I829" t="s">
-        <v>933</v>
+        <v>15</v>
       </c>
     </row>
     <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>656</v>
       </c>
-      <c r="I830" t="s">
-        <v>934</v>
-      </c>
     </row>
     <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>657</v>
       </c>
       <c r="I831" t="s">
-        <v>925</v>
+        <v>10</v>
       </c>
     </row>
     <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>658</v>
       </c>
-      <c r="I832" t="s">
-        <v>926</v>
+      <c r="I832">
+        <v>1983.59</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>659</v>
       </c>
-      <c r="I833" t="s">
-        <v>927</v>
+      <c r="I833">
+        <v>2.8266300000000002</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.25">
@@ -9759,49 +9894,55 @@
         <v>660</v>
       </c>
       <c r="I834" t="s">
-        <v>928</v>
+        <v>11</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>661</v>
       </c>
-      <c r="I835" t="s">
-        <v>935</v>
+      <c r="I835">
+        <v>1983.59</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>662</v>
       </c>
-      <c r="I836" t="s">
-        <v>9</v>
+      <c r="I836">
+        <v>2.8266300000000002</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>663</v>
       </c>
+      <c r="I837" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>664</v>
       </c>
-      <c r="I838" t="s">
-        <v>15</v>
+      <c r="I838">
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>35</v>
       </c>
+      <c r="I839">
+        <v>0</v>
+      </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>665</v>
       </c>
       <c r="I840" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.25">
@@ -9809,7 +9950,7 @@
         <v>666</v>
       </c>
       <c r="I841">
-        <v>1983.59</v>
+        <v>532.37300000000005</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.25">
@@ -9817,15 +9958,15 @@
         <v>667</v>
       </c>
       <c r="I842">
-        <v>2.8266300000000002</v>
+        <v>-146.083</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>668</v>
       </c>
-      <c r="I843" t="s">
-        <v>11</v>
+      <c r="I843">
+        <v>-1.7586900000000001</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.25">
@@ -9833,7 +9974,7 @@
         <v>669</v>
       </c>
       <c r="I844">
-        <v>1983.59</v>
+        <v>862.05399999999997</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.25">
@@ -9841,15 +9982,15 @@
         <v>670</v>
       </c>
       <c r="I845">
-        <v>2.8266300000000002</v>
+        <v>740.23900000000003</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>671</v>
       </c>
-      <c r="I846" t="s">
-        <v>12</v>
+      <c r="I846">
+        <v>697.64</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.25">
@@ -9857,7 +9998,7 @@
         <v>672</v>
       </c>
       <c r="I847">
-        <v>0</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.25">
@@ -9865,15 +10006,15 @@
         <v>673</v>
       </c>
       <c r="I848">
-        <v>0</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>674</v>
       </c>
-      <c r="I849" t="s">
-        <v>13</v>
+      <c r="I849">
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="850" spans="1:9" x14ac:dyDescent="0.25">
@@ -9881,7 +10022,7 @@
         <v>675</v>
       </c>
       <c r="I850">
-        <v>555.45500000000004</v>
+        <v>1015.79</v>
       </c>
     </row>
     <row r="851" spans="1:9" x14ac:dyDescent="0.25">
@@ -9889,79 +10030,73 @@
         <v>676</v>
       </c>
       <c r="I851">
-        <v>-98.511200000000002</v>
+        <v>590.71699999999998</v>
       </c>
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>677</v>
       </c>
-      <c r="I852">
-        <v>-1.6032599999999999</v>
+      <c r="I852" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>678</v>
       </c>
-      <c r="I853">
-        <v>862.17899999999997</v>
+      <c r="I853" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>679</v>
       </c>
-      <c r="I854">
-        <v>740.43100000000004</v>
+      <c r="I854" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>680</v>
       </c>
-      <c r="I855">
-        <v>698.22299999999996</v>
+      <c r="I855" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>681</v>
       </c>
-      <c r="I856">
-        <v>-744.572</v>
+      <c r="I856" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="I857">
-        <v>-1066.71</v>
-      </c>
     </row>
     <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>676</v>
       </c>
-      <c r="I858">
-        <v>-582.72699999999998</v>
-      </c>
     </row>
     <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>41</v>
       </c>
-      <c r="I859">
-        <v>672.33</v>
+      <c r="I859" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>682</v>
       </c>
-      <c r="I860">
-        <v>-760.16300000000001</v>
+      <c r="I860" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.25">
@@ -9969,7 +10104,7 @@
         <v>683</v>
       </c>
       <c r="I861" t="s">
-        <v>936</v>
+        <v>8</v>
       </c>
     </row>
     <row r="862" spans="1:9" x14ac:dyDescent="0.25">
@@ -9977,7 +10112,7 @@
         <v>684</v>
       </c>
       <c r="I862" t="s">
-        <v>893</v>
+        <v>824</v>
       </c>
     </row>
     <row r="863" spans="1:9" x14ac:dyDescent="0.25">
@@ -9985,7 +10120,7 @@
         <v>685</v>
       </c>
       <c r="I863" t="s">
-        <v>937</v>
+        <v>825</v>
       </c>
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.25">
@@ -9993,7 +10128,7 @@
         <v>686</v>
       </c>
       <c r="I864" t="s">
-        <v>938</v>
+        <v>826</v>
       </c>
     </row>
     <row r="865" spans="1:9" x14ac:dyDescent="0.25">
@@ -10001,25 +10136,31 @@
         <v>687</v>
       </c>
       <c r="I865" t="s">
-        <v>896</v>
+        <v>956</v>
       </c>
     </row>
     <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>688</v>
       </c>
+      <c r="I866" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>689</v>
       </c>
+      <c r="I867" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>690</v>
       </c>
       <c r="I868" t="s">
-        <v>22</v>
+        <v>958</v>
       </c>
     </row>
     <row r="869" spans="1:9" x14ac:dyDescent="0.25">
@@ -10027,7 +10168,7 @@
         <v>35</v>
       </c>
       <c r="I869" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
     </row>
     <row r="870" spans="1:9" x14ac:dyDescent="0.25">
@@ -10035,7 +10176,7 @@
         <v>691</v>
       </c>
       <c r="I870" t="s">
-        <v>8</v>
+        <v>960</v>
       </c>
     </row>
     <row r="871" spans="1:9" x14ac:dyDescent="0.25">
@@ -10043,7 +10184,7 @@
         <v>692</v>
       </c>
       <c r="I871" t="s">
-        <v>940</v>
+        <v>961</v>
       </c>
     </row>
     <row r="872" spans="1:9" x14ac:dyDescent="0.25">
@@ -10051,7 +10192,7 @@
         <v>693</v>
       </c>
       <c r="I872" t="s">
-        <v>941</v>
+        <v>962</v>
       </c>
     </row>
     <row r="873" spans="1:9" x14ac:dyDescent="0.25">
@@ -10059,55 +10200,49 @@
         <v>694</v>
       </c>
       <c r="I873" t="s">
-        <v>942</v>
+        <v>9</v>
       </c>
     </row>
     <row r="874" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>695</v>
       </c>
-      <c r="I874" t="s">
-        <v>943</v>
-      </c>
     </row>
     <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>696</v>
       </c>
       <c r="I875" t="s">
-        <v>944</v>
+        <v>15</v>
       </c>
     </row>
     <row r="876" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>697</v>
       </c>
-      <c r="I876" t="s">
-        <v>945</v>
-      </c>
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>698</v>
       </c>
       <c r="I877" t="s">
-        <v>946</v>
+        <v>10</v>
       </c>
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>699</v>
       </c>
-      <c r="I878" t="s">
-        <v>947</v>
+      <c r="I878">
+        <v>461.15600000000001</v>
       </c>
     </row>
     <row r="879" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>700</v>
       </c>
-      <c r="I879" t="s">
-        <v>948</v>
+      <c r="I879">
+        <v>0.68504299999999996</v>
       </c>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.25">
@@ -10115,49 +10250,55 @@
         <v>701</v>
       </c>
       <c r="I880" t="s">
-        <v>949</v>
+        <v>11</v>
       </c>
     </row>
     <row r="881" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>702</v>
       </c>
-      <c r="I881" t="s">
-        <v>950</v>
+      <c r="I881">
+        <v>461.15600000000001</v>
       </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>703</v>
       </c>
-      <c r="I882" t="s">
-        <v>9</v>
+      <c r="I882">
+        <v>0.68504299999999996</v>
       </c>
     </row>
     <row r="883" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>704</v>
       </c>
+      <c r="I883" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="884" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>705</v>
       </c>
-      <c r="I884" t="s">
-        <v>15</v>
+      <c r="I884" s="1">
+        <v>3.0517600000000001E-5</v>
       </c>
     </row>
     <row r="885" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>706</v>
       </c>
+      <c r="I885" s="1">
+        <v>5.9604600000000002E-8</v>
+      </c>
     </row>
     <row r="886" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>707</v>
       </c>
       <c r="I886" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="887" spans="1:9" x14ac:dyDescent="0.25">
@@ -10165,7 +10306,7 @@
         <v>706</v>
       </c>
       <c r="I887">
-        <v>461.15600000000001</v>
+        <v>513.21900000000005</v>
       </c>
     </row>
     <row r="888" spans="1:9" x14ac:dyDescent="0.25">
@@ -10173,15 +10314,15 @@
         <v>707</v>
       </c>
       <c r="I888">
-        <v>0.68504299999999996</v>
+        <v>-246.82</v>
       </c>
     </row>
     <row r="889" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>41</v>
       </c>
-      <c r="I889" t="s">
-        <v>11</v>
+      <c r="I889">
+        <v>-1.7559199999999999</v>
       </c>
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.25">
@@ -10189,7 +10330,7 @@
         <v>708</v>
       </c>
       <c r="I890">
-        <v>461.15699999999998</v>
+        <v>862.05399999999997</v>
       </c>
     </row>
     <row r="891" spans="1:9" x14ac:dyDescent="0.25">
@@ -10197,15 +10338,15 @@
         <v>709</v>
       </c>
       <c r="I891">
-        <v>0.68504299999999996</v>
+        <v>740.23900000000003</v>
       </c>
     </row>
     <row r="892" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>710</v>
       </c>
-      <c r="I892" t="s">
-        <v>12</v>
+      <c r="I892">
+        <v>697.64</v>
       </c>
     </row>
     <row r="893" spans="1:9" x14ac:dyDescent="0.25">
@@ -10213,7 +10354,7 @@
         <v>711</v>
       </c>
       <c r="I893" s="1">
-        <v>-6.1035200000000001E-5</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="894" spans="1:9" x14ac:dyDescent="0.25">
@@ -10221,15 +10362,15 @@
         <v>712</v>
       </c>
       <c r="I894" s="1">
-        <v>-5.9604600000000002E-8</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="895" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>713</v>
       </c>
-      <c r="I895" t="s">
-        <v>13</v>
+      <c r="I895">
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="896" spans="1:9" x14ac:dyDescent="0.25">
@@ -10237,7 +10378,7 @@
         <v>714</v>
       </c>
       <c r="I896">
-        <v>552.12599999999998</v>
+        <v>1015.79</v>
       </c>
     </row>
     <row r="897" spans="1:9" x14ac:dyDescent="0.25">
@@ -10245,89 +10386,81 @@
         <v>715</v>
       </c>
       <c r="I897">
-        <v>-200.999</v>
+        <v>590.71699999999998</v>
       </c>
     </row>
     <row r="898" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>716</v>
       </c>
-      <c r="I898">
-        <v>-1.60049</v>
+      <c r="I898" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="899" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>717</v>
       </c>
-      <c r="I899">
-        <v>862.17899999999997</v>
+      <c r="I899" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="900" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>718</v>
       </c>
-      <c r="I900">
-        <v>740.43100000000004</v>
+      <c r="I900" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="901" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>719</v>
       </c>
-      <c r="I901">
-        <v>698.22299999999996</v>
+      <c r="I901" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="902" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="I902">
-        <v>-744.572</v>
+      <c r="I902" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="903" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>721</v>
       </c>
-      <c r="I903">
-        <v>-1066.71</v>
+      <c r="I903" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="904" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I904">
-        <v>-582.72699999999998</v>
+      <c r="I904" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>722</v>
       </c>
-      <c r="I905">
-        <v>672.33</v>
+      <c r="I905" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="906" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>723</v>
       </c>
-      <c r="I906">
-        <v>-760.16300000000001</v>
-      </c>
     </row>
     <row r="907" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>724</v>
       </c>
       <c r="I907" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I908" t="s">
-        <v>952</v>
+        <v>15</v>
       </c>
     </row>
     <row r="909" spans="1:9" x14ac:dyDescent="0.25">
@@ -10335,67 +10468,73 @@
         <v>725</v>
       </c>
       <c r="I909" t="s">
-        <v>946</v>
+        <v>10</v>
       </c>
     </row>
     <row r="910" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>726</v>
       </c>
-      <c r="I910" t="s">
-        <v>947</v>
+      <c r="I910">
+        <v>1040.1300000000001</v>
       </c>
     </row>
     <row r="911" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>727</v>
       </c>
-      <c r="I911" t="s">
-        <v>948</v>
+      <c r="I911">
+        <v>-2.4982799999999998</v>
       </c>
     </row>
     <row r="912" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I912" t="s">
-        <v>949</v>
+        <v>11</v>
       </c>
     </row>
     <row r="913" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>728</v>
       </c>
-      <c r="I913" t="s">
-        <v>953</v>
+      <c r="I913">
+        <v>1040.1300000000001</v>
       </c>
     </row>
     <row r="914" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>729</v>
       </c>
-      <c r="I914" t="s">
-        <v>9</v>
+      <c r="I914">
+        <v>-2.4982799999999998</v>
       </c>
     </row>
     <row r="915" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>730</v>
       </c>
+      <c r="I915" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="916" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I916" t="s">
-        <v>15</v>
+      <c r="I916">
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>731</v>
       </c>
+      <c r="I917">
+        <v>0</v>
+      </c>
     </row>
     <row r="918" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>732</v>
       </c>
       <c r="I918" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="919" spans="1:9" x14ac:dyDescent="0.25">
@@ -10403,20 +10542,20 @@
         <v>733</v>
       </c>
       <c r="I919">
-        <v>1040.1300000000001</v>
+        <v>513.21900000000005</v>
       </c>
     </row>
     <row r="920" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I920">
-        <v>-2.4982799999999998</v>
+        <v>-246.82</v>
       </c>
     </row>
     <row r="921" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>734</v>
       </c>
-      <c r="I921" t="s">
-        <v>11</v>
+      <c r="I921">
+        <v>-1.7559199999999999</v>
       </c>
     </row>
     <row r="922" spans="1:9" x14ac:dyDescent="0.25">
@@ -10424,7 +10563,7 @@
         <v>735</v>
       </c>
       <c r="I922">
-        <v>1040.1300000000001</v>
+        <v>862.05399999999997</v>
       </c>
     </row>
     <row r="923" spans="1:9" x14ac:dyDescent="0.25">
@@ -10432,12 +10571,12 @@
         <v>736</v>
       </c>
       <c r="I923">
-        <v>-2.4982799999999998</v>
+        <v>740.23900000000003</v>
       </c>
     </row>
     <row r="924" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I924" t="s">
-        <v>12</v>
+      <c r="I924">
+        <v>697.64</v>
       </c>
     </row>
     <row r="925" spans="1:9" x14ac:dyDescent="0.25">
@@ -10445,7 +10584,7 @@
         <v>737</v>
       </c>
       <c r="I925">
-        <v>0</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="926" spans="1:9" x14ac:dyDescent="0.25">
@@ -10453,20 +10592,20 @@
         <v>738</v>
       </c>
       <c r="I926" s="1">
-        <v>-2.3841900000000001E-7</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="927" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>739</v>
       </c>
-      <c r="I927" t="s">
-        <v>13</v>
+      <c r="I927">
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="928" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I928">
-        <v>552.12599999999998</v>
+        <v>1015.79</v>
       </c>
     </row>
     <row r="929" spans="1:9" x14ac:dyDescent="0.25">
@@ -10474,259 +10613,214 @@
         <v>740</v>
       </c>
       <c r="I929">
-        <v>-200.999</v>
+        <v>590.71699999999998</v>
       </c>
     </row>
     <row r="930" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>741</v>
       </c>
-      <c r="I930">
-        <v>-1.60049</v>
+      <c r="I930" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="931" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>742</v>
       </c>
-      <c r="I931">
-        <v>862.17899999999997</v>
+      <c r="I931" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="932" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I932">
-        <v>740.43100000000004</v>
+      <c r="I932" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="933" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>743</v>
       </c>
-      <c r="I933">
-        <v>698.22299999999996</v>
+      <c r="I933" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>744</v>
       </c>
-      <c r="I934">
-        <v>-744.572</v>
+      <c r="I934" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="935" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>745</v>
       </c>
-      <c r="I935">
-        <v>-1066.71</v>
+      <c r="I935" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="936" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>746</v>
       </c>
-      <c r="I936">
-        <v>-582.72699999999998</v>
+      <c r="I936" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="937" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I937">
-        <v>672.33</v>
-      </c>
-    </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I938">
-        <v>-760.16300000000001</v>
+      <c r="I937" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I939" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I940" t="s">
-        <v>955</v>
+        <v>15</v>
       </c>
     </row>
     <row r="941" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I941" t="s">
-        <v>946</v>
+        <v>10</v>
       </c>
     </row>
     <row r="942" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I942" t="s">
-        <v>947</v>
+      <c r="I942">
+        <v>2079.5100000000002</v>
       </c>
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I943" t="s">
-        <v>948</v>
+      <c r="I943">
+        <v>2.7709100000000002</v>
       </c>
     </row>
     <row r="944" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I944" t="s">
-        <v>949</v>
+        <v>11</v>
       </c>
     </row>
     <row r="945" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I945" t="s">
-        <v>956</v>
+      <c r="I945">
+        <v>2079.5100000000002</v>
       </c>
     </row>
     <row r="946" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I946" t="s">
-        <v>9</v>
+      <c r="I946">
+        <v>2.7709100000000002</v>
+      </c>
+    </row>
+    <row r="947" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I947" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="948" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I948" t="s">
-        <v>15</v>
+      <c r="I948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I949">
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I950" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="951" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I951">
-        <v>2079.5100000000002</v>
+        <v>513.21900000000005</v>
       </c>
     </row>
     <row r="952" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I952">
-        <v>2.7709100000000002</v>
+        <v>-246.82</v>
       </c>
     </row>
     <row r="953" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I953" t="s">
-        <v>11</v>
+      <c r="I953">
+        <v>-1.7559199999999999</v>
       </c>
     </row>
     <row r="954" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I954">
-        <v>2079.5100000000002</v>
+        <v>862.05399999999997</v>
       </c>
     </row>
     <row r="955" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I955">
-        <v>2.7709100000000002</v>
+        <v>740.23900000000003</v>
       </c>
     </row>
     <row r="956" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I956" t="s">
-        <v>12</v>
+      <c r="I956">
+        <v>697.64</v>
       </c>
     </row>
     <row r="957" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I957">
-        <v>0</v>
+        <v>-744.54399999999998</v>
       </c>
     </row>
     <row r="958" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I958">
-        <v>0</v>
+        <v>-1066.93</v>
       </c>
     </row>
     <row r="959" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I959" t="s">
-        <v>13</v>
+      <c r="I959">
+        <v>-582.83299999999997</v>
       </c>
     </row>
     <row r="960" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I960">
-        <v>552.12599999999998</v>
+        <v>1015.79</v>
       </c>
     </row>
     <row r="961" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I961">
-        <v>-200.999</v>
+        <v>590.71699999999998</v>
       </c>
     </row>
     <row r="962" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I962">
-        <v>-1.60049</v>
+      <c r="I962" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="963" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I963">
-        <v>862.17899999999997</v>
+      <c r="I963" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="964" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I964">
-        <v>740.43100000000004</v>
+      <c r="I964" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="965" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I965">
-        <v>698.22299999999996</v>
+      <c r="I965" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="966" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I966">
-        <v>-744.572</v>
-      </c>
-    </row>
-    <row r="967" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I967">
-        <v>-1066.71</v>
+      <c r="I966" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="968" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I968">
-        <v>-582.72699999999998</v>
+      <c r="I968" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="969" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I969">
-        <v>672.33</v>
+      <c r="I969" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="970" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I970">
-        <v>-760.16300000000001</v>
-      </c>
-    </row>
-    <row r="971" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I971" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="972" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I972" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="973" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I973" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="974" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I974" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="975" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I975" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="977" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I977" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="978" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I978" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="979" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I979" t="s">
+      <c r="I970" t="s">
         <v>25</v>
       </c>
     </row>

--- a/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
+++ b/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\test_docs\landmark_tests\newSIMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B09506-3826-464E-90E5-248CB9C95C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AE6A25-A22F-404A-A0F1-C4778C93D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3598,8 +3598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1067"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O293" workbookViewId="0">
-      <selection activeCell="AB313" sqref="AB313"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="O572" sqref="O572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
+++ b/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\test_docs\landmark_tests\newSIMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AE6A25-A22F-404A-A0F1-C4778C93D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289D8475-8E96-4F80-BB22-C1BA6E7DF650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1338">
   <si>
     <t>INIT_sigma_r = 0.5</t>
   </si>
@@ -3250,6 +3251,795 @@
   </si>
   <si>
     <t>odroid@odroid-bulls</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (955.38, -0.931113)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (570.306,-766.487)</t>
+  </si>
+  <si>
+    <t>No Landmarks = 1</t>
+  </si>
+  <si>
+    <t>Stored = (870.43,730.015) -&gt; Shifted_Stored = (772.616,730.015)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-97.8139,0)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1016.8</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1303.87, -2.6752)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1164.61,-586.303)</t>
+  </si>
+  <si>
+    <t>Stored = (664.1,-769.462) -&gt; Shifted_Stored = (566.286,-769.462)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1217.29</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=97.8139, y=0, w=-0.2999 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(870.43,730.015) | (664.1,-769.462) | (-1069.85,-580.199) | </t>
+  </si>
+  <si>
+    <t>states[0][0]= 97.8139 states[0][1]= 0</t>
+  </si>
+  <si>
+    <t>landmarks[0][0]= 870.43 landmarks[0][1]= 730.015</t>
+  </si>
+  <si>
+    <t>curr_lm = (870.43,730.015),(664.1,-769.462),(-1069.85,-580.199)</t>
+  </si>
+  <si>
+    <t>u[0][0]= 96.8096 u[0][1]= 0.107997</t>
+  </si>
+  <si>
+    <t>Main: L0= 992.367, 0.705804</t>
+  </si>
+  <si>
+    <t>Main: L0= 898.358, -1.10545</t>
+  </si>
+  <si>
+    <t>Main: L0= 1393.9, -2.81531</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=194.622, y=-0.506722, w=5.88785 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (992.367, 0.705804)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (755.281,643.695)</t>
+  </si>
+  <si>
+    <t>Stored = (870.43,730.015) -&gt; Shifted_Stored = (675.808,730.522)</t>
+  </si>
+  <si>
+    <t>Stored = (664.1,-769.462) -&gt; Shifted_Stored = (469.478,-768.955)</t>
+  </si>
+  <si>
+    <t>Stored = (-1069.85,-580.199) -&gt; Shifted_Stored = (-1264.47,-579.693)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-194.622,0.506722)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 117.707</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (898.358, -1.10545)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (403.121,-802.832)</t>
+  </si>
+  <si>
+    <t>Stored = (870.114,729.349) -&gt; Shifted_Stored = (674.636,729.129)</t>
+  </si>
+  <si>
+    <t>Stored = (664.151,-769.531) -&gt; Shifted_Stored = (468.674,-769.752)</t>
+  </si>
+  <si>
+    <t>Stored = (-1069.73,-580.142) -&gt; Shifted_Stored = (-1265.21,-580.362)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-195.477,-0.220918)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 73.4261</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1393.9, -2.81531)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1320.36,-446.773)</t>
+  </si>
+  <si>
+    <t>Stored = (870.123,729.322) -&gt; Shifted_Stored = (673.942,729.9)</t>
+  </si>
+  <si>
+    <t>Stored = (663.989,-768.711) -&gt; Shifted_Stored = (467.808,-768.133)</t>
+  </si>
+  <si>
+    <t>Stored = (-1069.66,-580.107) -&gt; Shifted_Stored = (-1265.84,-579.529)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-196.18,0.577948)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 143.513</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=196.801, y=-0.423728, w=5.79298 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(870.297,729.573) | (664.054,-768.832) | (-1070.06,-580.207) | </t>
+  </si>
+  <si>
+    <t>states[1][0]= 196.801 states[1][1]= -0.423728</t>
+  </si>
+  <si>
+    <t>landmarks[1][0]= 870.297 landmarks[1][1]= 729.573</t>
+  </si>
+  <si>
+    <t>curr_lm = (870.297,729.573),(664.054,-768.832),(-1070.06,-580.207)</t>
+  </si>
+  <si>
+    <t>u[0][0]= 97.6083 u[0][1]= 0.35654</t>
+  </si>
+  <si>
+    <t>Main: L0= 919.611, 0.687779</t>
+  </si>
+  <si>
+    <t>Main: L0= 858.653, -1.31404</t>
+  </si>
+  <si>
+    <t>Main: L0= 1488.75, -2.93988</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=293.911, y=9.42831, w=26.2212 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (919.611, 0.687779)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (710.545,583.79)</t>
+  </si>
+  <si>
+    <t>Stored = (870.297,729.573) -&gt; Shifted_Stored = (576.386,720.144)</t>
+  </si>
+  <si>
+    <t>Stored = (664.054,-768.832) -&gt; Shifted_Stored = (370.144,-778.26)</t>
+  </si>
+  <si>
+    <t>Stored = (-1070.06,-580.207) -&gt; Shifted_Stored = (-1363.97,-589.636)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-293.911,-9.42831)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 191.288</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (858.653, -1.31404)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (218.05,-830.505)</t>
+  </si>
+  <si>
+    <t>Stored = (870.325,728.982) -&gt; Shifted_Stored = (575.501,718.678)</t>
+  </si>
+  <si>
+    <t>Stored = (664.071,-768.883) -&gt; Shifted_Stored = (369.247,-779.187)</t>
+  </si>
+  <si>
+    <t>Stored = (-1069.96,-580.172) -&gt; Shifted_Stored = (-1364.78,-590.476)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-294.824,-10.304)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 159.669</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1488.75, -2.93988)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1458.57,-298.273)</t>
+  </si>
+  <si>
+    <t>Stored = (870.207,728.747) -&gt; Shifted_Stored = (574.752,719.579)</t>
+  </si>
+  <si>
+    <t>Stored = (664.335,-767.809) -&gt; Shifted_Stored = (368.881,-776.978)</t>
+  </si>
+  <si>
+    <t>Stored = (-1070.11,-580.259) -&gt; Shifted_Stored = (-1365.57,-589.428)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-295.455,-9.16872)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 305.647</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=296.069, y=9.29323, w=11.4292 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(870.275,728.983) | (664.355,-767.906) | (-1070.29,-580.245) | </t>
+  </si>
+  <si>
+    <t>states[2][0]= 296.069 states[2][1]= 9.29323</t>
+  </si>
+  <si>
+    <t>landmarks[2][0]= 870.275 landmarks[2][1]= 728.983</t>
+  </si>
+  <si>
+    <t>curr_lm = (870.275,728.983),(664.355,-767.906),(-1070.29,-580.245)</t>
+  </si>
+  <si>
+    <t>u[0][0]= 100.049 u[0][1]= 0.10399</t>
+  </si>
+  <si>
+    <t>Main: L0= 845.109, 0.660941</t>
+  </si>
+  <si>
+    <t>Main: L0= 839.06, -1.5352</t>
+  </si>
+  <si>
+    <t>Main: L0= 1586.56, -3.04986</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=394.134, y=29.1186, w=17.3874 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (845.109, 0.660941)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (667.142,518.779)</t>
+  </si>
+  <si>
+    <t>Stored = (870.275,728.983) -&gt; Shifted_Stored = (476.141,699.865)</t>
+  </si>
+  <si>
+    <t>Stored = (664.355,-767.906) -&gt; Shifted_Stored = (270.221,-797.025)</t>
+  </si>
+  <si>
+    <t>Stored = (-1070.29,-580.245) -&gt; Shifted_Stored = (-1464.43,-609.363)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-394.134,-29.1186)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 263.199</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (839.06, -1.5352)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (29.8615,-838.529)</t>
+  </si>
+  <si>
+    <t>Stored = (870.391,728.691) -&gt; Shifted_Stored = (475.823,699.093)</t>
+  </si>
+  <si>
+    <t>Stored = (664.349,-767.921) -&gt; Shifted_Stored = (269.78,-797.52)</t>
+  </si>
+  <si>
+    <t>Stored = (-1070.25,-580.24) -&gt; Shifted_Stored = (-1464.82,-609.839)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-394.569,-29.5984)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 243.398</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1586.56, -3.04986)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1579.89,-145.328)</t>
+  </si>
+  <si>
+    <t>Stored = (870.258,728.336) -&gt; Shifted_Stored = (475.454,699.688)</t>
+  </si>
+  <si>
+    <t>Stored = (664.837,-767.026) -&gt; Shifted_Stored = (270.033,-795.674)</t>
+  </si>
+  <si>
+    <t>Stored = (-1070.55,-580.386) -&gt; Shifted_Stored = (-1465.35,-609.034)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-394.804,-28.648)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 477.643</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=394.652, y=28.622, w=17.2676 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(870.262,728.277) | (664.838,-767.01) | (-1070.52,-580.396) | </t>
+  </si>
+  <si>
+    <t>states[3][0]= 394.652 states[3][1]= 28.622</t>
+  </si>
+  <si>
+    <t>landmarks[3][0]= 870.262 landmarks[3][1]= 728.277</t>
+  </si>
+  <si>
+    <t>curr_lm = (870.262,728.277),(664.838,-767.01),(-1070.52,-580.396)</t>
+  </si>
+  <si>
+    <t>u[0][0]= 98.621 u[0][1]= 0.350732</t>
+  </si>
+  <si>
+    <t>Main: L0= 769.077, 0.659851</t>
+  </si>
+  <si>
+    <t>Main: L0= 841.201, -1.74384</t>
+  </si>
+  <si>
+    <t>Main: L0= 1686.13, 3.13351</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=488.828, y=57.8961, w=37.363 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (769.077, 0.659851)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (607.635,471.443)</t>
+  </si>
+  <si>
+    <t>Stored = (870.262,728.277) -&gt; Shifted_Stored = (381.434,670.381)</t>
+  </si>
+  <si>
+    <t>Stored = (664.838,-767.01) -&gt; Shifted_Stored = (176.01,-824.906)</t>
+  </si>
+  <si>
+    <t>Stored = (-1070.52,-580.396) -&gt; Shifted_Stored = (-1559.35,-638.292)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-488.828,-57.8961)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 301.236</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (841.201, -1.74384)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-144.839,-828.638)</t>
+  </si>
+  <si>
+    <t>Stored = (870.56,727.792) -&gt; Shifted_Stored = (381.088,669.055)</t>
+  </si>
+  <si>
+    <t>Stored = (664.825,-767.015) -&gt; Shifted_Stored = (175.353,-825.752)</t>
+  </si>
+  <si>
+    <t>Stored = (-1070.47,-580.404) -&gt; Shifted_Stored = (-1559.94,-639.141)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-489.473,-58.737)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 320.204</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1686.13, 3.13351)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1686.07,13.6258)</t>
+  </si>
+  <si>
+    <t>Stored = (870.482,727.286) -&gt; Shifted_Stored = (380.972,669.572)</t>
+  </si>
+  <si>
+    <t>Stored = (665.493,-766.163) -&gt; Shifted_Stored = (175.983,-823.877)</t>
+  </si>
+  <si>
+    <t>Stored = (-1070.87,-580.577) -&gt; Shifted_Stored = (-1560.38,-638.291)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-489.51,-57.714)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 663.924</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=489.651, y=57.723, w=-97.5729 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(870.478,727.326) | (665.481,-766.182) | (-1070.87,-580.578) | </t>
+  </si>
+  <si>
+    <t>states[4][0]= 489.651 states[4][1]= 57.723</t>
+  </si>
+  <si>
+    <t>landmarks[4][0]= 870.478 landmarks[4][1]= 727.326</t>
+  </si>
+  <si>
+    <t>curr_lm = (870.478,727.326),(665.481,-766.182),(-1070.87,-580.578)</t>
+  </si>
+  <si>
+    <t>u[0][0]= 100.434 u[0][1]= 0.231062</t>
+  </si>
+  <si>
+    <t>Main: L0= 691.985, 0.640304</t>
+  </si>
+  <si>
+    <t>Main: L0= 864.579, -1.97417</t>
+  </si>
+  <si>
+    <t>Main: L0= 1786.1, 3.03605</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=476.414, y=-41.8354, w=-84.3341 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (691.985, 0.640304)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (554.913,413.419)</t>
+  </si>
+  <si>
+    <t>Stored = (870.478,727.326) -&gt; Shifted_Stored = (394.063,769.162)</t>
+  </si>
+  <si>
+    <t>Stored = (665.481,-766.182) -&gt; Shifted_Stored = (189.067,-724.347)</t>
+  </si>
+  <si>
+    <t>Stored = (-1070.87,-580.578) -&gt; Shifted_Stored = (-1547.28,-538.742)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-476.414,41.8354)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 390.417</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (864.579, -1.97417)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-339.365,-795.19)</t>
+  </si>
+  <si>
+    <t>Stored = (888.249,695.945) -&gt; Shifted_Stored = (378.446,660.471)</t>
+  </si>
+  <si>
+    <t>Stored = (669.419,-759.277) -&gt; Shifted_Stored = (159.616,-794.751)</t>
+  </si>
+  <si>
+    <t>Stored = (-1072.87,-583.25) -&gt; Shifted_Stored = (-1582.67,-618.724)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-509.803,-35.4743)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 498.98</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1786.1, 3.03605)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1776.16,188.153)</t>
+  </si>
+  <si>
+    <t>Stored = (886.765,704.669) -&gt; Shifted_Stored = (384.898,647.241)</t>
+  </si>
+  <si>
+    <t>Stored = (663.032,-767.506) -&gt; Shifted_Stored = (161.165,-824.934)</t>
+  </si>
+  <si>
+    <t>Stored = (-1068.78,-581.282) -&gt; Shifted_Stored = (-1570.64,-638.71)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-501.867,-57.4278)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 852.021</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=534.183, y=61.0589, w=-89.4449 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(873.866,712.163) | (656.07,-768.757) | (-1084.2,-583.653) | </t>
+  </si>
+  <si>
+    <t>states[5][0]= 534.183 states[5][1]= 61.0589</t>
+  </si>
+  <si>
+    <t>landmarks[5][0]= 873.866 landmarks[5][1]= 712.163</t>
+  </si>
+  <si>
+    <t>curr_lm = (873.866,712.163),(656.07,-768.757),(-1084.2,-583.653)</t>
+  </si>
+  <si>
+    <t>u[0][0]= 98.8257 u[0][1]= 0.16577</t>
+  </si>
+  <si>
+    <t>Main: L0= 614.478, 0.640995</t>
+  </si>
+  <si>
+    <t>Main: L0= 907.747, -2.16315</t>
+  </si>
+  <si>
+    <t>Main: L0= 1885.7, 2.94067</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=535.14, y=-37.7621, w=-79.947 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (614.478, 0.640995)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (492.504,367.454)</t>
+  </si>
+  <si>
+    <t>Stored = (873.866,712.163) -&gt; Shifted_Stored = (338.726,749.926)</t>
+  </si>
+  <si>
+    <t>Stored = (656.07,-768.757) -&gt; Shifted_Stored = (120.93,-730.995)</t>
+  </si>
+  <si>
+    <t>Stored = (-1084.2,-583.653) -&gt; Shifted_Stored = (-1619.34,-545.89)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-535.14,37.7621)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 412.229</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (907.747, -2.16315)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-506.808,-753.094)</t>
+  </si>
+  <si>
+    <t>Stored = (897.96,680.335) -&gt; Shifted_Stored = (328.66,617.433)</t>
+  </si>
+  <si>
+    <t>Stored = (664.126,-759.718) -&gt; Shifted_Stored = (94.8268,-822.62)</t>
+  </si>
+  <si>
+    <t>Stored = (-1084.3,-585.443) -&gt; Shifted_Stored = (-1653.6,-648.345)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-569.299,-62.9024)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 605.639</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1885.7, 2.94067)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1847.76,376.338)</t>
+  </si>
+  <si>
+    <t>Stored = (891.894,692.79) -&gt; Shifted_Stored = (333.449,597.968)</t>
+  </si>
+  <si>
+    <t>Stored = (650.028,-770.808) -&gt; Shifted_Stored = (91.5839,-865.63)</t>
+  </si>
+  <si>
+    <t>Stored = (-1081.19,-583.91) -&gt; Shifted_Stored = (-1639.64,-678.733)</t>
+  </si>
+  <si>
+    <t>Stored = (0,0) -&gt; Shifted_Stored = (-558.444,-94.8222)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1075.4</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=558.426, y=94.8244, w=-86.1609 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(891.898,692.782) | (650.023,-770.808) | (-1081.2,-583.912) | (-1186.31,-620.526) | </t>
+  </si>
+  <si>
+    <t>states[6][0]= 558.426 states[6][1]= 94.8244</t>
+  </si>
+  <si>
+    <t>landmarks[6][0]= 891.898 landmarks[6][1]= 692.782</t>
+  </si>
+  <si>
+    <t>curr_lm = (891.898,692.782),(650.023,-770.808),(-1081.2,-583.912)</t>
+  </si>
+  <si>
+    <t>u[0][0]= 99.8807 u[0][1]= -0.0329035</t>
+  </si>
+  <si>
+    <t>Main: L0= 537.138, 0.630479</t>
+  </si>
+  <si>
+    <t>Main: L0= 967.295, -2.36132</t>
+  </si>
+  <si>
+    <t>Main: L0= 1983.74, 2.83545</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=565.113, y=-4.83222, w=-88.0462 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (537.138, 0.630479)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (433.871,316.66)</t>
+  </si>
+  <si>
+    <t>Stored = (891.898,692.782) -&gt; Shifted_Stored = (326.785,697.614)</t>
+  </si>
+  <si>
+    <t>Stored = (650.023,-770.808) -&gt; Shifted_Stored = (84.9094,-765.975)</t>
+  </si>
+  <si>
+    <t>Stored = (-1081.2,-583.912) -&gt; Shifted_Stored = (-1646.31,-579.08)</t>
+  </si>
+  <si>
+    <t>Stored = (-1186.31,-620.526) -&gt; Shifted_Stored = (-1751.43,-615.694)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 395.719</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (967.295, -2.36132)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-687.478,-680.466)</t>
+  </si>
+  <si>
+    <t>Stored = (904.959,670.249) -&gt; Shifted_Stored = (301.268,557.735)</t>
+  </si>
+  <si>
+    <t>Stored = (661.252,-760.273) -&gt; Shifted_Stored = (57.5618,-872.787)</t>
+  </si>
+  <si>
+    <t>Stored = (-1083.52,-586.03) -&gt; Shifted_Stored = (-1687.21,-698.544)</t>
+  </si>
+  <si>
+    <t>Stored = (-1179.09,-617.567) -&gt; Shifted_Stored = (-1782.78,-730.08)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 769.462</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1983.74, 2.83545)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1891.51,597.86)</t>
+  </si>
+  <si>
+    <t>Stored = (898.156,681.953) -&gt; Shifted_Stored = (306.721,532.765)</t>
+  </si>
+  <si>
+    <t>Stored = (644.74,-771.413) -&gt; Shifted_Stored = (53.3051,-920.602)</t>
+  </si>
+  <si>
+    <t>Stored = (-1081.74,-585.016) -&gt; Shifted_Stored = (-1673.17,-734.205)</t>
+  </si>
+  <si>
+    <t>Stored = (-1176.75,-616.607) -&gt; Shifted_Stored = (-1768.19,-765.796)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1349.84</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=591.418, y=149.189, w=-78.5965 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(898.164,681.944) | (644.729,-771.417) | (-1081.74,-585.017) | (-1176.77,-616.613) | </t>
+  </si>
+  <si>
+    <t>states[7][0]= 591.418 states[7][1]= 149.189</t>
+  </si>
+  <si>
+    <t>landmarks[7][0]= 898.164 landmarks[7][1]= 681.944</t>
+  </si>
+  <si>
+    <t>curr_lm = (898.164,681.944),(644.729,-771.417),(-1081.74,-585.017)</t>
+  </si>
+  <si>
+    <t>u[0][0]= 99.5661 u[0][1]= -0.0671731</t>
+  </si>
+  <si>
+    <t>Main: L0= 461.017, 0.684807</t>
+  </si>
+  <si>
+    <t>Main: L0= 1040.26, -2.5216</t>
+  </si>
+  <si>
+    <t>Main: L0= 2079.65, 2.75948</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=611.104, y=51.5889, w=-82.4452 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (461.017, 0.684807)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (357.077,291.604)</t>
+  </si>
+  <si>
+    <t>Stored = (898.164,681.944) -&gt; Shifted_Stored = (287.06,630.355)</t>
+  </si>
+  <si>
+    <t>Stored = (644.729,-771.417) -&gt; Shifted_Stored = (33.6252,-823.006)</t>
+  </si>
+  <si>
+    <t>Stored = (-1081.74,-585.017) -&gt; Shifted_Stored = (-1692.84,-636.605)</t>
+  </si>
+  <si>
+    <t>Stored = (-1176.77,-616.613) -&gt; Shifted_Stored = (-1787.87,-668.202)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 345.911</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1040.26, -2.5216)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-846.646,-604.421)</t>
+  </si>
+  <si>
+    <t>Stored = (911.226,660.765) -&gt; Shifted_Stored = (266.174,491.349)</t>
+  </si>
+  <si>
+    <t>Stored = (651.225,-764.205) -&gt; Shifted_Stored = (6.17358,-933.62)</t>
+  </si>
+  <si>
+    <t>Stored = (-1084.71,-586.992) -&gt; Shifted_Stored = (-1729.76,-756.408)</t>
+  </si>
+  <si>
+    <t>Stored = (-1175.31,-616.015) -&gt; Shifted_Stored = (-1820.36,-785.431)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 896.102</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (2079.65, 2.75948)</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1929.67,775.457)</t>
+  </si>
+  <si>
+    <t>Stored = (1011.78,616.461) -&gt; Shifted_Stored = (696.963,459.474)</t>
+  </si>
+  <si>
+    <t>Stored = (678.618,-757.338) -&gt; Shifted_Stored = (363.798,-914.325)</t>
+  </si>
+  <si>
+    <t>Stored = (-983.163,-527.759) -&gt; Shifted_Stored = (-1297.98,-684.746)</t>
+  </si>
+  <si>
+    <t>Stored = (-1172.24,-614.758) -&gt; Shifted_Stored = (-1487.06,-771.746)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1590.98</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=314.82, y=156.987, w=-89.7484 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1011.78,616.461) | (678.618,-757.338) | (-983.163,-527.759) | (-1172.24,-614.758) | </t>
+  </si>
+  <si>
+    <t>states[8][0]= 314.82 states[8][1]= 156.987</t>
+  </si>
+  <si>
+    <t>landmarks[8][0]= 1011.78 landmarks[8][1]= 616.461</t>
+  </si>
+  <si>
+    <t>curr_lm = (1011.78,616.461),(678.618,-757.338),(-983.163,-527.759)</t>
   </si>
 </sst>
 </file>
@@ -3598,7 +4388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1067"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+    <sheetView topLeftCell="A547" workbookViewId="0">
       <selection activeCell="O572" sqref="O572"/>
     </sheetView>
   </sheetViews>
@@ -14166,4 +14956,4904 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22778D0B-131A-4173-BF5B-F3FD8F142ACA}">
+  <dimension ref="A2:A999"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>97.813900000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-5.2342400000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>870.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>730.01499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>955.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-0.93111299999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>955.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-0.93111299999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>97.813900000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-5.2342400000000002E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>870.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>730.01499999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>664.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-769.46199999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1303.8699999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-2.6751999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1303.8699999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-2.6751999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>97.813900000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-5.2342400000000002E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>870.43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>730.01499999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>664.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-769.46199999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-1069.8499999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-580.19899999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>992.36699999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0.70580399999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>995.178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.72152099999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>-2.8104900000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>-1.57173E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>195.477</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0.220918</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0.120153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>870.11400000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>729.34900000000005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>664.15099999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>-769.53099999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>-1069.73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>-580.14200000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>898.35799999999995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>-1.10545</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>901.20699999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>-1.1440399999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>-2.8491200000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3.8587000000000003E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>196.18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>-0.57794800000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0.10037600000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>870.12300000000005</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>729.322</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>663.98900000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>-768.71100000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>-1069.6600000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>-580.10699999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1393.9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>-2.8153100000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1392.2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>-2.81263</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1.7020299999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>-2.6829200000000001E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>196.80099999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>-0.42372799999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0.101107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>870.29700000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>729.57299999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>664.05399999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>-768.83199999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>-1070.06</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>-580.20699999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>919.61099999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0.68777900000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>922.404</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>0.43818000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>-2.79297</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>0.24959899999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>294.82400000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>10.304</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0.21193000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>870.32500000000005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>728.98199999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>664.07100000000003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>-768.88300000000004</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>-1069.96</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>-580.17200000000003</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>858.65300000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>-1.3140400000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>862.25099999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>-1.34019</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>-3.5975299999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2.61453E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>295.45499999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>9.1687200000000004</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>0.196633</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>870.20699999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>728.74699999999996</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>664.33500000000004</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>-767.80899999999997</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>-1070.1099999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>-580.25900000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1488.75</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>-2.93988</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1487.35</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>-2.9307500000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1.40588</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>-9.1280900000000002E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>296.06900000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>9.2932299999999994</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>0.19947699999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>870.27499999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>728.98299999999995</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>664.35500000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>-767.90599999999995</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>-1070.29</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>-580.245</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>845.10900000000004</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>0.660941</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>846.47500000000002</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>0.66992499999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>-1.3665799999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>-8.9842700000000008E-3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>394.56900000000002</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>29.598400000000002</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>0.31445899999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>870.39099999999996</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>728.69100000000003</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>664.34900000000005</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>-767.92100000000005</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>-1070.25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>-580.24</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>839.06</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>-1.5351999999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>841.91399999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>-1.5590599999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>-2.85358</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>2.38652E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>394.80399999999997</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>28.648</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>0.300846</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>870.25800000000004</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>728.33600000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>664.83699999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>-767.02599999999995</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>-1070.55</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>-580.38599999999997</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>1586.56</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>-3.0498599999999998</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>1586.88</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>-3.04854</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>-0.31433100000000003</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>-1.3277499999999999E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>394.65199999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>28.622</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>0.30137599999999998</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>870.26199999999994</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>728.27700000000004</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>664.83799999999997</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>-767.01</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>-1070.52</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>-580.39599999999996</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>769.077</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>0.65985099999999997</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>771.29899999999998</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>0.40139000000000002</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>-2.2225299999999999</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>0.25846200000000003</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>489.47300000000001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>58.737000000000002</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>0.39684799999999998</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>870.56</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>727.79200000000003</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>664.82500000000005</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>-767.01499999999999</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>-1070.47</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>-580.404</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>841.20100000000002</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>-1.7438400000000001</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>844.16499999999996</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>-1.7584</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>-2.9637500000000001</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>1.4558099999999999E-2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>489.51</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>57.713999999999999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>0.38823099999999999</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>870.48199999999997</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>727.28599999999994</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>665.49300000000005</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>-766.16300000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>-1070.8699999999999</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>-580.577</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>1686.13</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>3.1335099999999998</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>1685.88</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>-3.1415299999999999</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>0.24841299999999999</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>-8.1446799999999996E-3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>489.65100000000001</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>57.722999999999999</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>-1.7029700000000001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>870.47799999999995</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>727.32600000000002</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>665.48099999999999</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>-766.18200000000002</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>-1070.8699999999999</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>-580.57799999999997</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>691.98500000000001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>0.64030399999999998</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>864.23099999999999</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>2.5692400000000002</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>-172.24600000000001</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>-1.9289400000000001</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>509.803</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>35.474299999999999</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>0.41438999999999998</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>888.24900000000002</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>695.94500000000005</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>669.41899999999998</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>-759.27700000000004</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>-1072.8699999999999</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>-583.25</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>864.57899999999995</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>-1.97417</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>810.62099999999998</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>-1.7869900000000001</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>53.957799999999999</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>-0.18718000000000001</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>501.86700000000002</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>57.427799999999998</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>0.49646299999999999</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>886.76499999999999</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>704.66899999999998</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>663.03200000000004</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>-767.50599999999997</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>-1068.78</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>-581.28200000000004</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>1786.1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>3.0360499999999999</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>1695.55</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>-3.25183</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>90.555999999999997</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>4.6941600000000002E-3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>534.18299999999999</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>61.058900000000001</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>-1.56111</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>873.86599999999999</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>712.16300000000001</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>656.07</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>-768.75699999999995</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>-1084.2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>-583.65300000000002</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>614.47799999999995</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>0.64099499999999998</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>822.875</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>2.54189</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>-208.39699999999999</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>-1.90089</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>569.29899999999998</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>62.9024</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>0.56606599999999996</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>897.96</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>680.33500000000004</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>664.12599999999998</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>-759.71799999999996</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>-1084.3</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>-585.44299999999998</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>907.74699999999996</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>-2.1631499999999999</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>828.06700000000001</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>-2.0221</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>79.679699999999997</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>-0.14105400000000001</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>558.44399999999996</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>94.822199999999995</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>0.59001599999999998</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>891.89400000000001</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>692.79</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>650.02800000000002</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>-770.80799999999999</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>-1081.19</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>-583.91</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>1885.7</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>2.9406699999999999</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>1885.7</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>-3.3425199999999999</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>-1.2207E-4</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" s="1">
+        <v>-3.0199200000000002E-7</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>558.42600000000004</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>94.824399999999997</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>-1.50379</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>891.89800000000002</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>692.78200000000004</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>650.02300000000002</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>-770.80799999999999</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>-1081.2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>-583.91200000000003</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>-1186.31</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>-620.52599999999995</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>537.13800000000003</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>0.63047900000000001</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>770.36</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>2.6694200000000001</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>-233.221</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>-2.0389400000000002</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>603.69000000000005</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>112.514</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>0.71462999999999999</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>904.95899999999995</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>670.24900000000002</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>661.25199999999995</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>-760.27300000000002</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>-1083.52</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>-586.03</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>-1179.0899999999999</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>-617.56700000000001</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>967.29499999999996</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>-2.3613200000000001</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>874.68299999999999</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>-2.21957</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>92.612399999999994</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>-0.14175099999999999</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>591.43499999999995</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>149.18899999999999</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>0.72240300000000002</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>898.15599999999995</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>681.95299999999997</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>644.74</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>-771.41300000000001</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>-1081.74</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>-585.01599999999996</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>-1176.75</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>-616.60699999999997</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>1983.74</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>2.8354499999999998</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>1983.74</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>-3.44773</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" s="1">
+        <v>-3.0199200000000002E-7</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>591.41800000000001</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>149.18899999999999</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>-1.3717699999999999</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>898.16399999999999</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>681.94399999999996</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>644.72900000000004</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>-771.41700000000003</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>-1081.74</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>-585.01700000000005</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>-1176.77</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>-616.61300000000006</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>461.017</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>0.68480700000000005</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>692.64099999999996</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>2.5824099999999999</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>-231.62299999999999</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>-1.8976</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>645.05100000000004</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>169.41499999999999</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>0.74070800000000003</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>911.226</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>660.76499999999999</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>651.22500000000002</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>-764.20500000000004</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>-1084.71</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>-586.99199999999996</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>-1175.31</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>-616.01499999999999</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>1040.26</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>-2.5215999999999998</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>1887.92</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>-3.4700700000000002</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>-847.66300000000001</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>0.94846799999999998</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>314.82</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>156.98699999999999</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>-1.5664100000000001</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>1011.78</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>616.46100000000001</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>678.61800000000005</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>-757.33799999999997</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>-983.16300000000001</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>-527.75900000000001</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>-1172.24</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>-614.75800000000004</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>2079.65</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>2.7594799999999999</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974">
+        <v>2079.65</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975">
+        <v>2.7594799999999999</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980">
+        <v>314.82</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981">
+        <v>156.98699999999999</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982">
+        <v>-1.5664100000000001</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983">
+        <v>1011.78</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984">
+        <v>616.46100000000001</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985">
+        <v>678.61800000000005</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986">
+        <v>-757.33799999999997</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987">
+        <v>-983.16300000000001</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988">
+        <v>-527.75900000000001</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989">
+        <v>-1172.24</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990">
+        <v>-614.75800000000004</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
+++ b/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\test_docs\landmark_tests\newSIMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289D8475-8E96-4F80-BB22-C1BA6E7DF650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1DECF6-742C-46D7-B673-B43C67AC8DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14963,7 +14963,7 @@
   <dimension ref="A2:A999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
+++ b/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\test_docs\landmark_tests\newSIMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367E62FC-5DBB-4ABF-90CD-1BB77DA04EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22EA27D-7D5C-43DE-8FDF-85D0C5A59E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3574,9 +3574,6 @@
     <t>Stored = (522.57,975.248) -&gt; Shifted_Stored = (422.887,975.248)</t>
   </si>
   <si>
-    <t>(522.57,975.248) &lt;-&gt; (478.799,-760.234) = 1736.03</t>
-  </si>
-  <si>
     <t>5 No Landmarks = 1</t>
   </si>
   <si>
@@ -3595,9 +3592,6 @@
     <t>3 No Landmarks = 2</t>
   </si>
   <si>
-    <t>(522.57,975.248) &lt;-&gt; (-1263.57,-587.75) = 2373.45</t>
-  </si>
-  <si>
     <t>5 No Landmarks = 2</t>
   </si>
   <si>
@@ -3616,15 +3610,9 @@
     <t>3 No Landmarks = 3</t>
   </si>
   <si>
-    <t>(522.57,975.248) &lt;-&gt; (555.547,613.554) = 363.194</t>
-  </si>
-  <si>
     <t>5 No Landmarks = 3</t>
   </si>
   <si>
-    <t>(935.704,-462.24) &lt;-&gt; (555.547,613.554) = 1140.99</t>
-  </si>
-  <si>
     <t>7 No Landmarks = 3</t>
   </si>
   <si>
@@ -3634,15 +3622,9 @@
     <t>Stored = (522.574,975.335) -&gt; Shifted_Stored = (331.638,935.19)</t>
   </si>
   <si>
-    <t>(522.574,975.335) &lt;-&gt; (202.706,-847.719) = 1850.9</t>
-  </si>
-  <si>
     <t>Stored = (935.695,-462.235) -&gt; Shifted_Stored = (744.76,-502.38)</t>
   </si>
   <si>
-    <t>(935.695,-462.235) &lt;-&gt; (202.706,-847.719) = 828.173</t>
-  </si>
-  <si>
     <t>Stored = (-728.175,-1007.36) -&gt; Shifted_Stored = (-919.11,-1047.51)</t>
   </si>
   <si>
@@ -3652,15 +3634,9 @@
     <t>Stored = (522.573,975.335) -&gt; Shifted_Stored = (331.652,935.183)</t>
   </si>
   <si>
-    <t>(522.573,975.335) &lt;-&gt; (-1508.41,-495.283) = 2507.51</t>
-  </si>
-  <si>
     <t>Stored = (935.702,-462.245) -&gt; Shifted_Stored = (744.781,-502.397)</t>
   </si>
   <si>
-    <t>(935.702,-462.245) &lt;-&gt; (-1508.41,-495.283) = 2444.34</t>
-  </si>
-  <si>
     <t>Stored = (-728.175,-1007.36) -&gt; Shifted_Stored = (-919.097,-1047.51)</t>
   </si>
   <si>
@@ -3691,18 +3667,12 @@
     <t>Stored = (522.573,975.335) -&gt; Shifted_Stored = (243.427,884.996)</t>
   </si>
   <si>
-    <t>(522.573,975.335) &lt;-&gt; (431.529,493.351) = 490.508</t>
-  </si>
-  <si>
     <t>5 No Landmarks = 4</t>
   </si>
   <si>
     <t>Stored = (935.702,-462.245) -&gt; Shifted_Stored = (656.556,-552.585)</t>
   </si>
   <si>
-    <t>(935.702,-462.245) &lt;-&gt; (431.529,493.351) = 1080.44</t>
-  </si>
-  <si>
     <t>7 No Landmarks = 4</t>
   </si>
   <si>
@@ -3718,15 +3688,9 @@
     <t>Stored = (522.41,975.677) -&gt; Shifted_Stored = (243.579,886.084)</t>
   </si>
   <si>
-    <t>(522.41,975.677) &lt;-&gt; (-73.3376,-923.427) = 1990.36</t>
-  </si>
-  <si>
     <t>Stored = (935.685,-462.221) -&gt; Shifted_Stored = (656.854,-551.813)</t>
   </si>
   <si>
-    <t>(935.685,-462.221) &lt;-&gt; (-73.3376,-923.427) = 1109.43</t>
-  </si>
-  <si>
     <t>Stored = (-728.172,-1007.36) -&gt; Shifted_Stored = (-1007,-1096.95)</t>
   </si>
   <si>
@@ -3775,15 +3739,9 @@
     <t>Stored = (522.41,975.725) -&gt; Shifted_Stored = (243.866,885.949)</t>
   </si>
   <si>
-    <t>(522.41,975.725) &lt;-&gt; (-1733.14,-406.352) = 2645.31</t>
-  </si>
-  <si>
     <t>Stored = (935.727,-462.489) -&gt; Shifted_Stored = (657.183,-552.264)</t>
   </si>
   <si>
-    <t>(935.727,-462.489) &lt;-&gt; (-1733.14,-406.352) = 2669.46</t>
-  </si>
-  <si>
     <t>Stored = (-728.146,-1007.33) -&gt; Shifted_Stored = (-1006.69,-1097.1)</t>
   </si>
   <si>
@@ -3814,15 +3772,9 @@
     <t>Stored = (522.41,975.725) -&gt; Shifted_Stored = (161.324,826.782)</t>
   </si>
   <si>
-    <t>(522.41,975.725) &lt;-&gt; (302.68,374.167) = 640.432</t>
-  </si>
-  <si>
     <t>Stored = (935.727,-462.489) -&gt; Shifted_Stored = (574.641,-611.431)</t>
   </si>
   <si>
-    <t>(935.727,-462.489) &lt;-&gt; (302.68,374.167) = 1049.16</t>
-  </si>
-  <si>
     <t>Stored = (-728.146,-1007.33) -&gt; Shifted_Stored = (-1089.23,-1156.27)</t>
   </si>
   <si>
@@ -3838,15 +3790,9 @@
     <t>Stored = (521.991,976.157) -&gt; Shifted_Stored = (161.36,828.462)</t>
   </si>
   <si>
-    <t>(521.991,976.157) &lt;-&gt; (-328.754,-986.274) = 2138.9</t>
-  </si>
-  <si>
     <t>Stored = (935.585,-462.663) -&gt; Shifted_Stored = (574.954,-610.359)</t>
   </si>
   <si>
-    <t>(935.585,-462.663) &lt;-&gt; (-328.754,-986.274) = 1368.47</t>
-  </si>
-  <si>
     <t>Stored = (-728.123,-1007.3) -&gt; Shifted_Stored = (-1088.75,-1154.99)</t>
   </si>
   <si>
@@ -3862,15 +3808,9 @@
     <t>Stored = (521.982,976.191) -&gt; Shifted_Stored = (161.583,828.357)</t>
   </si>
   <si>
-    <t>(521.982,976.191) &lt;-&gt; (-1937.82,-317.366) = 2779.19</t>
-  </si>
-  <si>
     <t>Stored = (935.624,-462.784) -&gt; Shifted_Stored = (575.226,-610.618)</t>
   </si>
   <si>
-    <t>(935.624,-462.784) &lt;-&gt; (-1937.82,-317.366) = 2877.12</t>
-  </si>
-  <si>
     <t>Stored = (-728.103,-1007.27) -&gt; Shifted_Stored = (-1088.5,-1155.11)</t>
   </si>
   <si>
@@ -3901,15 +3841,9 @@
     <t>Stored = (521.982,976.191) -&gt; Shifted_Stored = (85.6745,762.764)</t>
   </si>
   <si>
-    <t>(521.982,976.191) &lt;-&gt; (179.867,246.725) = 805.706</t>
-  </si>
-  <si>
     <t>Stored = (935.624,-462.784) -&gt; Shifted_Stored = (499.317,-676.211)</t>
   </si>
   <si>
-    <t>(935.624,-462.784) &lt;-&gt; (179.867,246.725) = 1036.62</t>
-  </si>
-  <si>
     <t>Stored = (-728.103,-1007.27) -&gt; Shifted_Stored = (-1164.41,-1220.7)</t>
   </si>
   <si>
@@ -3925,15 +3859,9 @@
     <t>Stored = (521.691,976.389) -&gt; Shifted_Stored = (85.5805,763.663)</t>
   </si>
   <si>
-    <t>(521.691,976.389) &lt;-&gt; (-580.799,-1041.34) = 2299.28</t>
-  </si>
-  <si>
     <t>Stored = (935.568,-462.858) -&gt; Shifted_Stored = (499.457,-675.584)</t>
   </si>
   <si>
-    <t>(935.568,-462.858) &lt;-&gt; (-580.799,-1041.34) = 1622.96</t>
-  </si>
-  <si>
     <t>Stored = (-728.092,-1007.26) -&gt; Shifted_Stored = (-1164.2,-1219.99)</t>
   </si>
   <si>
@@ -3949,15 +3877,9 @@
     <t>Stored = (521.647,976.465) -&gt; Shifted_Stored = (85.8393,763.499)</t>
   </si>
   <si>
-    <t>(521.647,976.465) &lt;-&gt; (-2121.74,-187.599) = 2888.34</t>
-  </si>
-  <si>
     <t>Stored = (935.636,-462.981) -&gt; Shifted_Stored = (499.828,-675.948)</t>
   </si>
   <si>
-    <t>(935.636,-462.981) &lt;-&gt; (-2121.74,-187.599) = 3069.75</t>
-  </si>
-  <si>
     <t>Stored = (-728.059,-1007.22) -&gt; Shifted_Stored = (-1163.87,-1220.19)</t>
   </si>
   <si>
@@ -3988,15 +3910,9 @@
     <t>Stored = (521.662,976.461) -&gt; Shifted_Stored = (56.8099,860.659)</t>
   </si>
   <si>
-    <t>(521.662,976.461) &lt;-&gt; (88.5997,299.6) = 803.545</t>
-  </si>
-  <si>
     <t>Stored = (935.643,-462.985) -&gt; Shifted_Stored = (470.791,-578.787)</t>
   </si>
   <si>
-    <t>(935.643,-462.985) &lt;-&gt; (88.5997,299.6) = 1139.74</t>
-  </si>
-  <si>
     <t>Stored = (-728.057,-1007.22) -&gt; Shifted_Stored = (-1192.91,-1123.02)</t>
   </si>
   <si>
@@ -4012,15 +3928,9 @@
     <t>Stored = (522.846,972.276) -&gt; Shifted_Stored = (41.9866,881.049)</t>
   </si>
   <si>
-    <t>(522.846,972.276) &lt;-&gt; (-820.505,-886.356) = 2293.27</t>
-  </si>
-  <si>
     <t>Stored = (930.918,-462.7) -&gt; Shifted_Stored = (450.059,-553.927)</t>
   </si>
   <si>
-    <t>(930.918,-462.7) &lt;-&gt; (-820.505,-886.356) = 1801.93</t>
-  </si>
-  <si>
     <t>Stored = (-729.803,-1009.34) -&gt; Shifted_Stored = (-1210.66,-1100.57)</t>
   </si>
   <si>
@@ -4033,12 +3943,6 @@
     <t>ObservedLandmark = (-1776.76,182.482) -&gt; Shifted_Stored = (-2257.62,91.2547) -&gt; test = (536.646,1876.46)</t>
   </si>
   <si>
-    <t>(522.846,972.276) &lt;-&gt; (-2257.62,91.2547) = 2916.7</t>
-  </si>
-  <si>
-    <t>(930.918,-462.7) &lt;-&gt; (-2257.62,91.2547) = 3236.3</t>
-  </si>
-  <si>
     <t>smallestDistance = 904.287</t>
   </si>
   <si>
@@ -4066,15 +3970,9 @@
     <t>Stored = (319.901,1132.97) -&gt; Shifted_Stored = (-74.9654,1482.63)</t>
   </si>
   <si>
-    <t>(319.901,1132.97) &lt;-&gt; (100.069,713.898) = 473.233</t>
-  </si>
-  <si>
     <t>Stored = (976.322,-489.908) -&gt; Shifted_Stored = (581.455,-140.246)</t>
   </si>
   <si>
-    <t>(976.322,-489.908) &lt;-&gt; (100.069,713.898) = 1488.95</t>
-  </si>
-  <si>
     <t>Stored = (-701.214,-974.555) -&gt; Shifted_Stored = (-1096.08,-624.892)</t>
   </si>
   <si>
@@ -4090,15 +3988,9 @@
     <t>Stored = (320.211,1133.69) -&gt; Shifted_Stored = (-67.5505,1480.88)</t>
   </si>
   <si>
-    <t>(320.211,1133.69) &lt;-&gt; (-899.673,-402.45) = 1961.59</t>
-  </si>
-  <si>
     <t>Stored = (978.116,-489.203) -&gt; Shifted_Stored = (590.354,-142.013)</t>
   </si>
   <si>
-    <t>(978.116,-489.203) &lt;-&gt; (-899.673,-402.45) = 1879.79</t>
-  </si>
-  <si>
     <t>Stored = (-700.748,-973.987) -&gt; Shifted_Stored = (-1088.51,-626.796)</t>
   </si>
   <si>
@@ -4108,12 +4000,6 @@
     <t>ObservedLandmark = (-1843.4,396.817) -&gt; Shifted_Stored = (-2231.17,744.008) -&gt; test = (-414.186,1359.41)</t>
   </si>
   <si>
-    <t>(320.211,1133.69) &lt;-&gt; (-2231.17,744.008) = 2580.96</t>
-  </si>
-  <si>
-    <t>(978.116,-489.203) &lt;-&gt; (-2231.17,744.008) = 3438.07</t>
-  </si>
-  <si>
     <t>smallestDistance = 768.302</t>
   </si>
   <si>
@@ -4141,15 +4027,9 @@
     <t>Stored = (235.539,1175.69) -&gt; Shifted_Stored = (-200.563,1808.26)</t>
   </si>
   <si>
-    <t>(235.539,1175.69) &lt;-&gt; (-1.60994,948.348) = 328.519</t>
-  </si>
-  <si>
     <t>Stored = (989.482,-493.901) -&gt; Shifted_Stored = (553.38,138.668)</t>
   </si>
   <si>
-    <t>(989.482,-493.901) &lt;-&gt; (-1.60994,948.348) = 1749.96</t>
-  </si>
-  <si>
     <t>Stored = (-696.443,-968.749) -&gt; Shifted_Stored = (-1132.55,-336.18)</t>
   </si>
   <si>
@@ -4165,15 +4045,9 @@
     <t>Stored = (235.013,1174.47) -&gt; Shifted_Stored = (-216.055,1804.51)</t>
   </si>
   <si>
-    <t>(235.013,1174.47) &lt;-&gt; (-1126.62,-62.3476) = 1839.5</t>
-  </si>
-  <si>
     <t>Stored = (986.623,-496.685) -&gt; Shifted_Stored = (535.556,133.356)</t>
   </si>
   <si>
-    <t>(986.623,-496.685) &lt;-&gt; (-1126.62,-62.3476) = 2157.41</t>
-  </si>
-  <si>
     <t>Stored = (-697.099,-969.547) -&gt; Shifted_Stored = (-1148.17,-339.505)</t>
   </si>
   <si>
@@ -4183,12 +4057,6 @@
     <t>ObservedLandmark = (-1891.18,598.714) -&gt; Shifted_Stored = (-2342.25,1228.76) -&gt; test = (-1177.73,502.239)</t>
   </si>
   <si>
-    <t>(235.013,1174.47) &lt;-&gt; (-2342.25,1228.76) = 2577.84</t>
-  </si>
-  <si>
-    <t>(986.623,-496.685) &lt;-&gt; (-2342.25,1228.76) = 3749.47</t>
-  </si>
-  <si>
     <t>MAIN: after_ekf State: x=451.068, y=-630.041, w=-17.2388 deg</t>
   </si>
   <si>
@@ -4213,15 +4081,9 @@
     <t>Stored = (235.013,1174.47) -&gt; Shifted_Stored = (-311.993,1834.28)</t>
   </si>
   <si>
-    <t>(235.013,1174.47) &lt;-&gt; (-187.743,948.935) = 479.152</t>
-  </si>
-  <si>
     <t>Stored = (986.623,-496.685) -&gt; Shifted_Stored = (439.617,163.125)</t>
   </si>
   <si>
-    <t>(986.623,-496.685) &lt;-&gt; (-187.743,948.935) = 1862.51</t>
-  </si>
-  <si>
     <t>Stored = (-697.099,-969.547) -&gt; Shifted_Stored = (-1244.1,-309.736)</t>
   </si>
   <si>
@@ -4237,15 +4099,9 @@
     <t>Stored = (235.04,1174.3) -&gt; Shifted_Stored = (-315.863,1833.15)</t>
   </si>
   <si>
-    <t>(235.04,1174.3) &lt;-&gt; (-1396.98,53.6203) = 1979.75</t>
-  </si>
-  <si>
     <t>Stored = (986.391,-497.094) -&gt; Shifted_Stored = (435.488,161.751)</t>
   </si>
   <si>
-    <t>(986.391,-497.094) &lt;-&gt; (-1396.98,53.6203) = 2446.17</t>
-  </si>
-  <si>
     <t>Stored = (-697.149,-969.608) -&gt; Shifted_Stored = (-1248.05,-310.762)</t>
   </si>
   <si>
@@ -4255,12 +4111,6 @@
     <t>ObservedLandmark = (-1931.79,770.023) -&gt; Shifted_Stored = (-2482.69,1428.87) -&gt; test = (-1051.15,667.115)</t>
   </si>
   <si>
-    <t>(235.04,1174.3) &lt;-&gt; (-2482.69,1428.87) = 2729.63</t>
-  </si>
-  <si>
-    <t>(986.391,-497.094) &lt;-&gt; (-2482.69,1428.87) = 3967.85</t>
-  </si>
-  <si>
     <t>MAIN: after_ekf State: x=550.903, y=-658.846, w=-17.8808 deg</t>
   </si>
   <si>
@@ -4274,6 +4124,156 @@
   </si>
   <si>
     <t>curr_lm = (235.04,1174.3),(986.391,-497.094),(-697.149,-969.608)</t>
+  </si>
+  <si>
+    <t>(522.57,975.248) &lt;-&gt; (935.704,-462.24) = 1495.68</t>
+  </si>
+  <si>
+    <t>(522.57,975.248) &lt;-&gt; (-728.167,-1007.35) = 2344.15</t>
+  </si>
+  <si>
+    <t>(522.57,975.248) &lt;-&gt; (664.463,912.391) = 155.192</t>
+  </si>
+  <si>
+    <t>(935.704,-462.24) &lt;-&gt; (664.463,912.391) = 1401.14</t>
+  </si>
+  <si>
+    <t>(522.574,975.335) &lt;-&gt; (929.014,-472.074) = 1503.39</t>
+  </si>
+  <si>
+    <t>(935.695,-462.235) &lt;-&gt; (929.014,-472.074) = 11.8924</t>
+  </si>
+  <si>
+    <t>(522.573,975.335) &lt;-&gt; (-729.212,-1006.89) = 2344.39</t>
+  </si>
+  <si>
+    <t>(935.702,-462.245) &lt;-&gt; (-729.212,-1006.89) = 1751.73</t>
+  </si>
+  <si>
+    <t>(522.573,975.335) &lt;-&gt; (389.105,1003.39) = 136.385</t>
+  </si>
+  <si>
+    <t>(935.702,-462.245) &lt;-&gt; (389.105,1003.39) = 1564.24</t>
+  </si>
+  <si>
+    <t>(522.41,975.677) &lt;-&gt; (926.249,-474.64) = 1505.49</t>
+  </si>
+  <si>
+    <t>(935.685,-462.221) &lt;-&gt; (926.249,-474.64) = 15.5979</t>
+  </si>
+  <si>
+    <t>(522.41,975.725) &lt;-&gt; (-719.263,-1014.97) = 2346.19</t>
+  </si>
+  <si>
+    <t>(935.727,-462.489) &lt;-&gt; (-719.263,-1014.97) = 1744.77</t>
+  </si>
+  <si>
+    <t>(522.41,975.725) &lt;-&gt; (545.842,973.62) = 23.5257</t>
+  </si>
+  <si>
+    <t>(935.727,-462.489) &lt;-&gt; (545.842,973.62) = 1488.09</t>
+  </si>
+  <si>
+    <t>(521.991,976.157) &lt;-&gt; (929.194,-469.528) = 1501.94</t>
+  </si>
+  <si>
+    <t>(935.585,-462.663) &lt;-&gt; (929.194,-469.528) = 9.37999</t>
+  </si>
+  <si>
+    <t>(521.982,976.191) &lt;-&gt; (-722.318,-1011.79) = 2345.28</t>
+  </si>
+  <si>
+    <t>(935.624,-462.784) &lt;-&gt; (-722.318,-1011.79) = 1746.48</t>
+  </si>
+  <si>
+    <t>(521.982,976.191) &lt;-&gt; (389.003,981.003) = 133.066</t>
+  </si>
+  <si>
+    <t>(935.624,-462.784) &lt;-&gt; (389.003,981.003) = 1543.8</t>
+  </si>
+  <si>
+    <t>(521.691,976.389) &lt;-&gt; (940.157,-460.673) = 1496.75</t>
+  </si>
+  <si>
+    <t>(935.568,-462.858) &lt;-&gt; (940.157,-460.673) = 5.08262</t>
+  </si>
+  <si>
+    <t>(521.647,976.465) &lt;-&gt; (-740.519,-995.034) = 2340.91</t>
+  </si>
+  <si>
+    <t>(935.636,-462.981) &lt;-&gt; (-740.519,-995.034) = 1758.57</t>
+  </si>
+  <si>
+    <t>(521.662,976.461) &lt;-&gt; (1078.52,-204.014) = 1305.22</t>
+  </si>
+  <si>
+    <t>(935.643,-462.985) &lt;-&gt; (1078.52,-204.014) = 295.769</t>
+  </si>
+  <si>
+    <t>(522.846,972.276) &lt;-&gt; (-336.391,373.523) = 1047.28</t>
+  </si>
+  <si>
+    <t>(930.918,-462.7) &lt;-&gt; (-336.391,373.523) = 1518.33</t>
+  </si>
+  <si>
+    <t>(522.846,972.276) &lt;-&gt; (536.646,1876.46) = 904.287</t>
+  </si>
+  <si>
+    <t>(930.918,-462.7) &lt;-&gt; (536.646,1876.46) = 2372.15</t>
+  </si>
+  <si>
+    <t>(319.901,1132.97) &lt;-&gt; (652.628,-907.504) = 2067.43</t>
+  </si>
+  <si>
+    <t>(976.322,-489.908) &lt;-&gt; (652.628,-907.504) = 528.36</t>
+  </si>
+  <si>
+    <t>(320.211,1133.69) &lt;-&gt; (-518.756,-394.529) = 1743.36</t>
+  </si>
+  <si>
+    <t>(978.116,-489.203) &lt;-&gt; (-518.756,-394.529) = 1499.86</t>
+  </si>
+  <si>
+    <t>(320.211,1133.69) &lt;-&gt; (-414.186,1359.41) = 768.302</t>
+  </si>
+  <si>
+    <t>(978.116,-489.203) &lt;-&gt; (-414.186,1359.41) = 2314.28</t>
+  </si>
+  <si>
+    <t>(235.539,1175.69) &lt;-&gt; (921.88,-861.74) = 2149.93</t>
+  </si>
+  <si>
+    <t>(989.482,-493.901) &lt;-&gt; (921.88,-861.74) = 373.999</t>
+  </si>
+  <si>
+    <t>(235.013,1174.47) &lt;-&gt; (-399.328,-1091.12) = 2352.72</t>
+  </si>
+  <si>
+    <t>(986.623,-496.685) &lt;-&gt; (-399.328,-1091.12) = 1508.05</t>
+  </si>
+  <si>
+    <t>(235.013,1174.47) &lt;-&gt; (-1177.73,502.239) = 1564.52</t>
+  </si>
+  <si>
+    <t>(986.623,-496.685) &lt;-&gt; (-1177.73,502.239) = 2383.75</t>
+  </si>
+  <si>
+    <t>(235.013,1174.47) &lt;-&gt; (983.04,-509.685) = 1842.8</t>
+  </si>
+  <si>
+    <t>(986.623,-496.685) &lt;-&gt; (983.04,-509.685) = 13.4851</t>
+  </si>
+  <si>
+    <t>(235.04,1174.3) &lt;-&gt; (-440.136,-975.058) = 2252.91</t>
+  </si>
+  <si>
+    <t>(986.391,-497.094) &lt;-&gt; (-440.136,-975.058) = 1504.47</t>
+  </si>
+  <si>
+    <t>(235.04,1174.3) &lt;-&gt; (-1051.15,667.115) = 1382.58</t>
+  </si>
+  <si>
+    <t>(986.391,-497.094) &lt;-&gt; (-1051.15,667.115) = 2346.69</t>
   </si>
 </sst>
 </file>
@@ -15196,8 +15196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22778D0B-131A-4173-BF5B-F3FD8F142ACA}">
   <dimension ref="A1:Z969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="M190" sqref="M190"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="O184" sqref="O184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15284,7 +15284,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -15431,7 +15431,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -15446,12 +15446,12 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1182</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -15461,7 +15461,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -15471,7 +15471,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -15568,22 +15568,22 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
@@ -15593,37 +15593,37 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1189</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -15784,12 +15784,12 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
@@ -15799,12 +15799,12 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1196</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -15814,12 +15814,12 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1198</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -15829,7 +15829,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -15839,7 +15839,7 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
@@ -15934,62 +15934,62 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1202</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1204</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
@@ -16084,59 +16084,59 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="Z178" s="1"/>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1208</v>
+        <v>1372</v>
       </c>
       <c r="Z181" s="1"/>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1210</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.25">
@@ -16227,27 +16227,27 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="Z210" s="1"/>
     </row>
@@ -16283,7 +16283,7 @@
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
@@ -16298,62 +16298,62 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1221</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1224</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
@@ -16448,62 +16448,62 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1230</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1232</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.25">
@@ -16599,57 +16599,57 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1249</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>1251</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1253</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
@@ -16744,27 +16744,27 @@
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1254</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1255</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1256</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1257</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1258</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
@@ -16801,7 +16801,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1259</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
@@ -16816,62 +16816,62 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1261</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1262</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1264</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1265</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1266</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1267</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -16966,62 +16966,62 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1268</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1269</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1270</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1271</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1272</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1273</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1274</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1275</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
@@ -17117,57 +17117,57 @@
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1276</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1277</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1278</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1279</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1280</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1281</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1282</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="400" spans="1:26" x14ac:dyDescent="0.25">
@@ -17262,27 +17262,27 @@
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1283</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1284</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1285</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1286</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1287</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
@@ -17317,7 +17317,7 @@
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1288</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
@@ -17332,62 +17332,62 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1289</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1290</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1291</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1293</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1294</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1295</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1296</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
@@ -17482,62 +17482,62 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1297</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1298</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1299</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1300</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1301</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1302</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1303</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1304</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
@@ -17633,57 +17633,57 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1305</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1306</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1307</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1308</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1309</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1310</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1311</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
@@ -17779,27 +17779,27 @@
     </row>
     <row r="527" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1312</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="528" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1313</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1314</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1315</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1316</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
@@ -17834,7 +17834,7 @@
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1317</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
@@ -17849,62 +17849,62 @@
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1318</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1319</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1320</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1321</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1322</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1323</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1324</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1325</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
@@ -17999,62 +17999,62 @@
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1326</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1327</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1328</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1329</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1330</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1331</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1332</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1333</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
@@ -18154,63 +18154,63 @@
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
       <c r="H606" s="1"/>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1327</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1335</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1329</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1336</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1331</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1332</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1337</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
@@ -18296,27 +18296,27 @@
     </row>
     <row r="634" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1338</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="635" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1339</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="636" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1340</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="637" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1341</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="638" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1342</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="641" spans="1:26" x14ac:dyDescent="0.25">
@@ -18352,7 +18352,7 @@
     </row>
     <row r="647" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1343</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="648" spans="1:26" x14ac:dyDescent="0.25">
@@ -18367,62 +18367,62 @@
     </row>
     <row r="650" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1344</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="651" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="652" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1345</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="653" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1346</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="654" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="655" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>1347</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="656" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>1348</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>1349</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1350</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1351</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
@@ -18517,57 +18517,57 @@
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1352</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>1353</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1354</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1355</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1356</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1357</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1358</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
@@ -18672,62 +18672,62 @@
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1359</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1353</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1360</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1355</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1361</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1357</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1358</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1362</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
@@ -18813,28 +18813,28 @@
     </row>
     <row r="741" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1363</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="742" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1364</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="743" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1365</v>
+        <v>1327</v>
       </c>
       <c r="Q743" s="1"/>
     </row>
     <row r="744" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1366</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="745" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1367</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="746" spans="1:26" x14ac:dyDescent="0.25">
@@ -18873,7 +18873,7 @@
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1368</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
@@ -18888,62 +18888,62 @@
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>1369</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>1370</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>1371</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>1372</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>1373</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>1374</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>1375</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>1376</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.25">
@@ -19040,59 +19040,59 @@
     </row>
     <row r="787" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>1377</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="788" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="789" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>1378</v>
+        <v>1338</v>
       </c>
       <c r="Q789" s="1"/>
     </row>
     <row r="790" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>1379</v>
+        <v>1406</v>
       </c>
       <c r="Q790" s="1"/>
     </row>
     <row r="791" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="792" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>1380</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="793" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>1381</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="794" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="795" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>1382</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="796" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="797" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>1383</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="798" spans="1:17" x14ac:dyDescent="0.25">
@@ -19198,57 +19198,57 @@
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>1384</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>1378</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>1385</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>1380</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>1386</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>1382</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>1383</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
@@ -19343,27 +19343,27 @@
     </row>
     <row r="851" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>1387</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="852" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>1388</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="853" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>1389</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="854" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>1390</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="855" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>1391</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="858" spans="1:26" x14ac:dyDescent="0.25">
@@ -19399,7 +19399,7 @@
     </row>
     <row r="864" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1392</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
@@ -19414,62 +19414,62 @@
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>1393</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>1394</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1395</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>1396</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1397</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>1398</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>1399</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1400</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
@@ -19564,57 +19564,57 @@
     </row>
     <row r="897" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>1401</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="898" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="899" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>1402</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="900" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>1403</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="901" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="902" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>1404</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="903" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>1405</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="904" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="905" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>1406</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="906" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="907" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>1407</v>
+        <v>1359</v>
       </c>
       <c r="Z907" s="1"/>
     </row>
@@ -19721,57 +19721,57 @@
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>1408</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>1402</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>1404</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>1406</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>1407</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
@@ -19866,27 +19866,27 @@
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>1411</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>1412</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>1413</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>1414</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>1415</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">

--- a/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
+++ b/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\test_docs\landmark_tests\newSIMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22EA27D-7D5C-43DE-8FDF-85D0C5A59E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E887381C-E165-4161-9181-95A86932445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="1395">
   <si>
     <t>INIT_sigma_r = 0.5</t>
   </si>
@@ -3289,21 +3289,6 @@
     <t>ObservedLandark in NewLM = (746.538,653.813)</t>
   </si>
   <si>
-    <t>Stored = (522.57,975.248) -&gt; Shifted_Stored = (331.579,934.989)</t>
-  </si>
-  <si>
-    <t>Stored = (935.704,-462.24) -&gt; Shifted_Stored = (744.713,-502.499)</t>
-  </si>
-  <si>
-    <t>Stored = (-728.167,-1007.35) -&gt; Shifted_Stored = (-919.158,-1047.61)</t>
-  </si>
-  <si>
-    <t>Stored = (0,0) -&gt; Shifted_Stored = (-190.991,-40.2587)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 1100</t>
-  </si>
-  <si>
     <t>ObservedLandmark in NewLM = (898.403, -1.11725)</t>
   </si>
   <si>
@@ -3550,9 +3535,6 @@
     <t>3 No Landmarks = 0</t>
   </si>
   <si>
-    <t>Stored = (0,0) -&gt; Shifted_Stored = (-99.6825,0)</t>
-  </si>
-  <si>
     <t>5 No Landmarks = 0</t>
   </si>
   <si>
@@ -3571,9 +3553,6 @@
     <t>3 No Landmarks = 1</t>
   </si>
   <si>
-    <t>Stored = (522.57,975.248) -&gt; Shifted_Stored = (422.887,975.248)</t>
-  </si>
-  <si>
     <t>5 No Landmarks = 1</t>
   </si>
   <si>
@@ -3595,15 +3574,9 @@
     <t>5 No Landmarks = 2</t>
   </si>
   <si>
-    <t>Stored = (935.704,-462.24) -&gt; Shifted_Stored = (836.021,-462.24)</t>
-  </si>
-  <si>
     <t>7 No Landmarks = 2</t>
   </si>
   <si>
-    <t>Stored = (0,0) -&gt; Shifted_Stored = (-99.6825,2.60312e-10)</t>
-  </si>
-  <si>
     <t>9 No Landmarks = 2</t>
   </si>
   <si>
@@ -3619,84 +3592,18 @@
     <t>9 No Landmarks = 3</t>
   </si>
   <si>
-    <t>Stored = (522.574,975.335) -&gt; Shifted_Stored = (331.638,935.19)</t>
-  </si>
-  <si>
-    <t>Stored = (935.695,-462.235) -&gt; Shifted_Stored = (744.76,-502.38)</t>
-  </si>
-  <si>
-    <t>Stored = (-728.175,-1007.36) -&gt; Shifted_Stored = (-919.11,-1047.51)</t>
-  </si>
-  <si>
-    <t>Stored = (0,0) -&gt; Shifted_Stored = (-190.935,-40.1452)</t>
-  </si>
-  <si>
-    <t>Stored = (522.573,975.335) -&gt; Shifted_Stored = (331.652,935.183)</t>
-  </si>
-  <si>
-    <t>Stored = (935.702,-462.245) -&gt; Shifted_Stored = (744.781,-502.397)</t>
-  </si>
-  <si>
-    <t>Stored = (-728.175,-1007.36) -&gt; Shifted_Stored = (-919.097,-1047.51)</t>
-  </si>
-  <si>
-    <t>Stored = (0,0) -&gt; Shifted_Stored = (-190.921,-40.1519)</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=190.921, y=40.1519, w=29.6335 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(522.573,975.335) | (935.702,-462.245) | (-728.175,-1007.36) | (-729.212,-1006.89) | </t>
-  </si>
-  <si>
-    <t>states[1][0]= 190.921 states[1][1]= 40.1519</t>
-  </si>
-  <si>
-    <t>landmarks[1][0]= 522.573 landmarks[1][1]= 975.335</t>
-  </si>
-  <si>
-    <t>curr_lm = (522.573,975.335),(935.702,-462.245),(-728.175,-1007.36)</t>
-  </si>
-  <si>
-    <t>MAIN: after_motion State: x=279.147, y=90.3391, w=43.7361 deg</t>
-  </si>
-  <si>
     <t>3 No Landmarks = 4</t>
   </si>
   <si>
-    <t>Stored = (522.573,975.335) -&gt; Shifted_Stored = (243.427,884.996)</t>
-  </si>
-  <si>
     <t>5 No Landmarks = 4</t>
   </si>
   <si>
-    <t>Stored = (935.702,-462.245) -&gt; Shifted_Stored = (656.556,-552.585)</t>
-  </si>
-  <si>
     <t>7 No Landmarks = 4</t>
   </si>
   <si>
-    <t>Stored = (-728.175,-1007.36) -&gt; Shifted_Stored = (-1007.32,-1097.7)</t>
-  </si>
-  <si>
     <t>9 No Landmarks = 4</t>
   </si>
   <si>
-    <t>Stored = (-729.212,-1006.89) -&gt; Shifted_Stored = (-1008.36,-1097.22)</t>
-  </si>
-  <si>
-    <t>Stored = (522.41,975.677) -&gt; Shifted_Stored = (243.579,886.084)</t>
-  </si>
-  <si>
-    <t>Stored = (935.685,-462.221) -&gt; Shifted_Stored = (656.854,-551.813)</t>
-  </si>
-  <si>
-    <t>Stored = (-728.172,-1007.36) -&gt; Shifted_Stored = (-1007,-1096.95)</t>
-  </si>
-  <si>
-    <t>Stored = (-729.288,-1006.97) -&gt; Shifted_Stored = (-1008.12,-1096.56)</t>
-  </si>
-  <si>
     <t>ObservedLandmark = (578.482,-760.234) -&gt; Shifted_Stored = (478.799,-760.234) -&gt; test = (935.704,-462.24)</t>
   </si>
   <si>
@@ -3712,12 +3619,6 @@
     <t>ObservedLandmark = (-1317.49,-455.131) -&gt; Shifted_Stored = (-1508.41,-495.283) -&gt; test = (-729.212,-1006.89)</t>
   </si>
   <si>
-    <t>ObservedLandmark = (710.676,583.69) -&gt; Shifted_Stored = (431.529,493.351) -&gt; test = (389.105,1003.39)</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (205.494,-833.835) -&gt; Shifted_Stored = (-73.3376,-923.427) -&gt; test = (926.249,-474.64)</t>
-  </si>
-  <si>
     <t>ObservedLandmark = (780.395,721.751) -&gt; Shifted_Stored = (680.713,721.751) -&gt; test = (522.57,975.248)</t>
   </si>
   <si>
@@ -3727,405 +3628,6 @@
     <t>smallestDistance = 11.8924</t>
   </si>
   <si>
-    <t>smallestDistance = 136.385</t>
-  </si>
-  <si>
-    <t>smallestDistance = 15.5979</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (-1454.6,-316.576) -&gt; Shifted_Stored = (-1733.14,-406.352) -&gt; test = (-719.263,-1014.97)</t>
-  </si>
-  <si>
-    <t>Stored = (522.41,975.725) -&gt; Shifted_Stored = (243.866,885.949)</t>
-  </si>
-  <si>
-    <t>Stored = (935.727,-462.489) -&gt; Shifted_Stored = (657.183,-552.264)</t>
-  </si>
-  <si>
-    <t>Stored = (-728.146,-1007.33) -&gt; Shifted_Stored = (-1006.69,-1097.1)</t>
-  </si>
-  <si>
-    <t>Stored = (-729.286,-1006.97) -&gt; Shifted_Stored = (-1007.83,-1096.74)</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=278.544, y=89.7757, w=35.6332 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(522.41,975.725) | (935.727,-462.489) | (-728.146,-1007.33) | (-729.286,-1006.97) | </t>
-  </si>
-  <si>
-    <t>states[2][0]= 278.544 states[2][1]= 89.7757</t>
-  </si>
-  <si>
-    <t>landmarks[2][0]= 522.41 landmarks[2][1]= 975.725</t>
-  </si>
-  <si>
-    <t>curr_lm = (522.41,975.725),(935.727,-462.489),(-728.146,-1007.33)</t>
-  </si>
-  <si>
-    <t>MAIN: after_motion State: x=361.086, y=148.943, w=39.1309 deg</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (663.766,523.109) -&gt; Shifted_Stored = (302.68,374.167) -&gt; test = (545.842,973.62)</t>
-  </si>
-  <si>
-    <t>Stored = (522.41,975.725) -&gt; Shifted_Stored = (161.324,826.782)</t>
-  </si>
-  <si>
-    <t>Stored = (935.727,-462.489) -&gt; Shifted_Stored = (574.641,-611.431)</t>
-  </si>
-  <si>
-    <t>Stored = (-728.146,-1007.33) -&gt; Shifted_Stored = (-1089.23,-1156.27)</t>
-  </si>
-  <si>
-    <t>Stored = (-729.286,-1006.97) -&gt; Shifted_Stored = (-1090.37,-1155.91)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 23.5257</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (31.8766,-838.578) -&gt; Shifted_Stored = (-328.754,-986.274) -&gt; test = (929.194,-469.528)</t>
-  </si>
-  <si>
-    <t>Stored = (521.991,976.157) -&gt; Shifted_Stored = (161.36,828.462)</t>
-  </si>
-  <si>
-    <t>Stored = (935.585,-462.663) -&gt; Shifted_Stored = (574.954,-610.359)</t>
-  </si>
-  <si>
-    <t>Stored = (-728.123,-1007.3) -&gt; Shifted_Stored = (-1088.75,-1154.99)</t>
-  </si>
-  <si>
-    <t>Stored = (-729.295,-1006.98) -&gt; Shifted_Stored = (-1089.93,-1154.68)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 9.37999</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (-1577.42,-169.531) -&gt; Shifted_Stored = (-1937.82,-317.366) -&gt; test = (-722.318,-1011.79)</t>
-  </si>
-  <si>
-    <t>Stored = (521.982,976.191) -&gt; Shifted_Stored = (161.583,828.357)</t>
-  </si>
-  <si>
-    <t>Stored = (935.624,-462.784) -&gt; Shifted_Stored = (575.226,-610.618)</t>
-  </si>
-  <si>
-    <t>Stored = (-728.103,-1007.27) -&gt; Shifted_Stored = (-1088.5,-1155.11)</t>
-  </si>
-  <si>
-    <t>Stored = (-729.281,-1006.96) -&gt; Shifted_Stored = (-1089.68,-1154.8)</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=360.398, y=147.834, w=40.83 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(521.982,976.191) | (935.624,-462.784) | (-728.103,-1007.27) | (-729.281,-1006.96) | </t>
-  </si>
-  <si>
-    <t>states[3][0]= 360.398 states[3][1]= 147.834</t>
-  </si>
-  <si>
-    <t>landmarks[3][0]= 521.982 landmarks[3][1]= 976.191</t>
-  </si>
-  <si>
-    <t>curr_lm = (521.982,976.191),(935.624,-462.784),(-728.103,-1007.27)</t>
-  </si>
-  <si>
-    <t>MAIN: after_motion State: x=436.307, y=213.427, w=56.7746 deg</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (616.174,460.152) -&gt; Shifted_Stored = (179.867,246.725) -&gt; test = (389.003,981.003)</t>
-  </si>
-  <si>
-    <t>Stored = (521.982,976.191) -&gt; Shifted_Stored = (85.6745,762.764)</t>
-  </si>
-  <si>
-    <t>Stored = (935.624,-462.784) -&gt; Shifted_Stored = (499.317,-676.211)</t>
-  </si>
-  <si>
-    <t>Stored = (-728.103,-1007.27) -&gt; Shifted_Stored = (-1164.41,-1220.7)</t>
-  </si>
-  <si>
-    <t>Stored = (-729.281,-1006.96) -&gt; Shifted_Stored = (-1165.59,-1220.39)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 133.066</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (-144.689,-828.61) -&gt; Shifted_Stored = (-580.799,-1041.34) -&gt; test = (940.157,-460.673)</t>
-  </si>
-  <si>
-    <t>Stored = (521.691,976.389) -&gt; Shifted_Stored = (85.5805,763.663)</t>
-  </si>
-  <si>
-    <t>Stored = (935.568,-462.858) -&gt; Shifted_Stored = (499.457,-675.584)</t>
-  </si>
-  <si>
-    <t>Stored = (-728.092,-1007.26) -&gt; Shifted_Stored = (-1164.2,-1219.99)</t>
-  </si>
-  <si>
-    <t>Stored = (-729.273,-1006.95) -&gt; Shifted_Stored = (-1165.38,-1219.68)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 5.08262</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (-1685.93,25.3679) -&gt; Shifted_Stored = (-2121.74,-187.599) -&gt; test = (-740.519,-995.034)</t>
-  </si>
-  <si>
-    <t>Stored = (521.647,976.465) -&gt; Shifted_Stored = (85.8393,763.499)</t>
-  </si>
-  <si>
-    <t>Stored = (935.636,-462.981) -&gt; Shifted_Stored = (499.828,-675.948)</t>
-  </si>
-  <si>
-    <t>Stored = (-728.059,-1007.22) -&gt; Shifted_Stored = (-1163.87,-1220.19)</t>
-  </si>
-  <si>
-    <t>Stored = (-729.239,-1006.92) -&gt; Shifted_Stored = (-1165.05,-1219.88)</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=435.82, y=212.961, w=-73.3633 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(521.662,976.461) | (935.643,-462.985) | (-728.057,-1007.22) | (-729.237,-1006.91) | </t>
-  </si>
-  <si>
-    <t>states[4][0]= 435.82 states[4][1]= 212.961</t>
-  </si>
-  <si>
-    <t>landmarks[4][0]= 521.662 landmarks[4][1]= 976.461</t>
-  </si>
-  <si>
-    <t>curr_lm = (521.662,976.461),(935.643,-462.985),(-728.057,-1007.22)</t>
-  </si>
-  <si>
-    <t>MAIN: after_motion State: x=464.852, y=115.802, w=-64.4172 deg</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (553.451,415.402) -&gt; Shifted_Stored = (88.5997,299.6) -&gt; test = (1078.52,-204.014)</t>
-  </si>
-  <si>
-    <t>Stored = (521.662,976.461) -&gt; Shifted_Stored = (56.8099,860.659)</t>
-  </si>
-  <si>
-    <t>Stored = (935.643,-462.985) -&gt; Shifted_Stored = (470.791,-578.787)</t>
-  </si>
-  <si>
-    <t>Stored = (-728.057,-1007.22) -&gt; Shifted_Stored = (-1192.91,-1123.02)</t>
-  </si>
-  <si>
-    <t>Stored = (-729.237,-1006.91) -&gt; Shifted_Stored = (-1194.09,-1122.72)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 295.769</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (-339.646,-795.128) -&gt; Shifted_Stored = (-820.505,-886.356) -&gt; test = (-336.391,373.523)</t>
-  </si>
-  <si>
-    <t>Stored = (522.846,972.276) -&gt; Shifted_Stored = (41.9866,881.049)</t>
-  </si>
-  <si>
-    <t>Stored = (930.918,-462.7) -&gt; Shifted_Stored = (450.059,-553.927)</t>
-  </si>
-  <si>
-    <t>Stored = (-729.803,-1009.34) -&gt; Shifted_Stored = (-1210.66,-1100.57)</t>
-  </si>
-  <si>
-    <t>Stored = (-731.327,-1009.29) -&gt; Shifted_Stored = (-1212.19,-1100.52)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 1047.28</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (-1776.76,182.482) -&gt; Shifted_Stored = (-2257.62,91.2547) -&gt; test = (536.646,1876.46)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 904.287</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=395.257, y=-248.782, w=-90.2218 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(319.901,1132.97) | (976.322,-489.908) | (-701.214,-974.555) | (-696.191,-969.31) | </t>
-  </si>
-  <si>
-    <t>states[5][0]= 395.257 states[5][1]= -248.782</t>
-  </si>
-  <si>
-    <t>landmarks[5][0]= 319.901 landmarks[5][1]= 1132.97</t>
-  </si>
-  <si>
-    <t>curr_lm = (319.901,1132.97),(976.322,-489.908),(-701.214,-974.555)</t>
-  </si>
-  <si>
-    <t>MAIN: after_motion State: x=394.867, y=-349.662, w=-101.55 deg</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (494.936,364.236) -&gt; Shifted_Stored = (100.069,713.898) -&gt; test = (652.628,-907.504)</t>
-  </si>
-  <si>
-    <t>Stored = (319.901,1132.97) -&gt; Shifted_Stored = (-74.9654,1482.63)</t>
-  </si>
-  <si>
-    <t>Stored = (976.322,-489.908) -&gt; Shifted_Stored = (581.455,-140.246)</t>
-  </si>
-  <si>
-    <t>Stored = (-701.214,-974.555) -&gt; Shifted_Stored = (-1096.08,-624.892)</t>
-  </si>
-  <si>
-    <t>Stored = (-696.191,-969.31) -&gt; Shifted_Stored = (-1091.06,-619.648)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 528.36</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (-511.912,-749.64) -&gt; Shifted_Stored = (-899.673,-402.45) -&gt; test = (-518.756,-394.529)</t>
-  </si>
-  <si>
-    <t>Stored = (320.211,1133.69) -&gt; Shifted_Stored = (-67.5505,1480.88)</t>
-  </si>
-  <si>
-    <t>Stored = (978.116,-489.203) -&gt; Shifted_Stored = (590.354,-142.013)</t>
-  </si>
-  <si>
-    <t>Stored = (-700.748,-973.987) -&gt; Shifted_Stored = (-1088.51,-626.796)</t>
-  </si>
-  <si>
-    <t>Stored = (-695.615,-968.655) -&gt; Shifted_Stored = (-1083.38,-621.465)</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (-1843.4,396.817) -&gt; Shifted_Stored = (-2231.17,744.008) -&gt; test = (-414.186,1359.41)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 768.302</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=386.096, y=-545.502, w=-60.1296 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(235.539,1175.69) | (989.482,-493.901) | (-696.443,-968.749) | (-689.706,-961.931) | </t>
-  </si>
-  <si>
-    <t>states[6][0]= 386.096 states[6][1]= -545.502</t>
-  </si>
-  <si>
-    <t>landmarks[6][0]= 235.539 landmarks[6][1]= 1175.69</t>
-  </si>
-  <si>
-    <t>curr_lm = (235.539,1175.69),(989.482,-493.901),(-696.443,-968.749)</t>
-  </si>
-  <si>
-    <t>MAIN: after_motion State: x=436.102, y=-632.569, w=-61.2649 deg</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (434.492,315.779) -&gt; Shifted_Stored = (-1.60994,948.348) -&gt; test = (921.88,-861.74)</t>
-  </si>
-  <si>
-    <t>Stored = (235.539,1175.69) -&gt; Shifted_Stored = (-200.563,1808.26)</t>
-  </si>
-  <si>
-    <t>Stored = (989.482,-493.901) -&gt; Shifted_Stored = (553.38,138.668)</t>
-  </si>
-  <si>
-    <t>Stored = (-696.443,-968.749) -&gt; Shifted_Stored = (-1132.55,-336.18)</t>
-  </si>
-  <si>
-    <t>Stored = (-689.706,-961.931) -&gt; Shifted_Stored = (-1125.81,-329.362)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 373.999</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (-675.55,-692.389) -&gt; Shifted_Stored = (-1126.62,-62.3476) -&gt; test = (-399.328,-1091.12)</t>
-  </si>
-  <si>
-    <t>Stored = (235.013,1174.47) -&gt; Shifted_Stored = (-216.055,1804.51)</t>
-  </si>
-  <si>
-    <t>Stored = (986.623,-496.685) -&gt; Shifted_Stored = (535.556,133.356)</t>
-  </si>
-  <si>
-    <t>Stored = (-697.099,-969.547) -&gt; Shifted_Stored = (-1148.17,-339.505)</t>
-  </si>
-  <si>
-    <t>Stored = (-690.6,-962.948) -&gt; Shifted_Stored = (-1141.67,-332.907)</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (-1891.18,598.714) -&gt; Shifted_Stored = (-2342.25,1228.76) -&gt; test = (-1177.73,502.239)</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=451.068, y=-630.041, w=-17.2388 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(235.013,1174.47) | (986.623,-496.685) | (-697.099,-969.547) | (-690.6,-962.948) | </t>
-  </si>
-  <si>
-    <t>states[7][0]= 451.068 states[7][1]= -630.041</t>
-  </si>
-  <si>
-    <t>landmarks[7][0]= 235.013 landmarks[7][1]= 1174.47</t>
-  </si>
-  <si>
-    <t>curr_lm = (235.013,1174.47),(986.623,-496.685),(-697.099,-969.547)</t>
-  </si>
-  <si>
-    <t>MAIN: after_motion State: x=547.006, y=-659.81, w=-19.8277 deg</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (359.263,289.125) -&gt; Shifted_Stored = (-187.743,948.935) -&gt; test = (983.04,-509.685)</t>
-  </si>
-  <si>
-    <t>Stored = (235.013,1174.47) -&gt; Shifted_Stored = (-311.993,1834.28)</t>
-  </si>
-  <si>
-    <t>Stored = (986.623,-496.685) -&gt; Shifted_Stored = (439.617,163.125)</t>
-  </si>
-  <si>
-    <t>Stored = (-697.099,-969.547) -&gt; Shifted_Stored = (-1244.1,-309.736)</t>
-  </si>
-  <si>
-    <t>Stored = (-690.6,-962.948) -&gt; Shifted_Stored = (-1237.61,-303.138)</t>
-  </si>
-  <si>
-    <t>smallestDistance = 13.4851</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (-846.08,-605.225) -&gt; Shifted_Stored = (-1396.98,53.6203) -&gt; test = (-440.136,-975.058)</t>
-  </si>
-  <si>
-    <t>Stored = (235.04,1174.3) -&gt; Shifted_Stored = (-315.863,1833.15)</t>
-  </si>
-  <si>
-    <t>Stored = (986.391,-497.094) -&gt; Shifted_Stored = (435.488,161.751)</t>
-  </si>
-  <si>
-    <t>Stored = (-697.149,-969.608) -&gt; Shifted_Stored = (-1248.05,-310.762)</t>
-  </si>
-  <si>
-    <t>Stored = (-690.68,-963.039) -&gt; Shifted_Stored = (-1241.58,-304.193)</t>
-  </si>
-  <si>
-    <t>ObservedLandmark = (-1931.79,770.023) -&gt; Shifted_Stored = (-2482.69,1428.87) -&gt; test = (-1051.15,667.115)</t>
-  </si>
-  <si>
-    <t>MAIN: after_ekf State: x=550.903, y=-658.846, w=-17.8808 deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(235.04,1174.3) | (986.391,-497.094) | (-697.149,-969.608) | (-690.68,-963.039) | </t>
-  </si>
-  <si>
-    <t>states[8][0]= 550.903 states[8][1]= -658.846</t>
-  </si>
-  <si>
-    <t>landmarks[8][0]= 235.04 landmarks[8][1]= 1174.3</t>
-  </si>
-  <si>
-    <t>curr_lm = (235.04,1174.3),(986.391,-497.094),(-697.149,-969.608)</t>
-  </si>
-  <si>
     <t>(522.57,975.248) &lt;-&gt; (935.704,-462.24) = 1495.68</t>
   </si>
   <si>
@@ -4150,130 +3652,565 @@
     <t>(935.702,-462.245) &lt;-&gt; (-729.212,-1006.89) = 1751.73</t>
   </si>
   <si>
-    <t>(522.573,975.335) &lt;-&gt; (389.105,1003.39) = 136.385</t>
-  </si>
-  <si>
-    <t>(935.702,-462.245) &lt;-&gt; (389.105,1003.39) = 1564.24</t>
-  </si>
-  <si>
-    <t>(522.41,975.677) &lt;-&gt; (926.249,-474.64) = 1505.49</t>
-  </si>
-  <si>
-    <t>(935.685,-462.221) &lt;-&gt; (926.249,-474.64) = 15.5979</t>
-  </si>
-  <si>
-    <t>(522.41,975.725) &lt;-&gt; (-719.263,-1014.97) = 2346.19</t>
-  </si>
-  <si>
-    <t>(935.727,-462.489) &lt;-&gt; (-719.263,-1014.97) = 1744.77</t>
-  </si>
-  <si>
-    <t>(522.41,975.725) &lt;-&gt; (545.842,973.62) = 23.5257</t>
-  </si>
-  <si>
-    <t>(935.727,-462.489) &lt;-&gt; (545.842,973.62) = 1488.09</t>
-  </si>
-  <si>
-    <t>(521.991,976.157) &lt;-&gt; (929.194,-469.528) = 1501.94</t>
-  </si>
-  <si>
-    <t>(935.585,-462.663) &lt;-&gt; (929.194,-469.528) = 9.37999</t>
-  </si>
-  <si>
-    <t>(521.982,976.191) &lt;-&gt; (-722.318,-1011.79) = 2345.28</t>
-  </si>
-  <si>
-    <t>(935.624,-462.784) &lt;-&gt; (-722.318,-1011.79) = 1746.48</t>
-  </si>
-  <si>
-    <t>(521.982,976.191) &lt;-&gt; (389.003,981.003) = 133.066</t>
-  </si>
-  <si>
-    <t>(935.624,-462.784) &lt;-&gt; (389.003,981.003) = 1543.8</t>
-  </si>
-  <si>
-    <t>(521.691,976.389) &lt;-&gt; (940.157,-460.673) = 1496.75</t>
-  </si>
-  <si>
-    <t>(935.568,-462.858) &lt;-&gt; (940.157,-460.673) = 5.08262</t>
-  </si>
-  <si>
-    <t>(521.647,976.465) &lt;-&gt; (-740.519,-995.034) = 2340.91</t>
-  </si>
-  <si>
-    <t>(935.636,-462.981) &lt;-&gt; (-740.519,-995.034) = 1758.57</t>
-  </si>
-  <si>
-    <t>(521.662,976.461) &lt;-&gt; (1078.52,-204.014) = 1305.22</t>
-  </si>
-  <si>
-    <t>(935.643,-462.985) &lt;-&gt; (1078.52,-204.014) = 295.769</t>
-  </si>
-  <si>
-    <t>(522.846,972.276) &lt;-&gt; (-336.391,373.523) = 1047.28</t>
-  </si>
-  <si>
-    <t>(930.918,-462.7) &lt;-&gt; (-336.391,373.523) = 1518.33</t>
-  </si>
-  <si>
-    <t>(522.846,972.276) &lt;-&gt; (536.646,1876.46) = 904.287</t>
-  </si>
-  <si>
-    <t>(930.918,-462.7) &lt;-&gt; (536.646,1876.46) = 2372.15</t>
-  </si>
-  <si>
-    <t>(319.901,1132.97) &lt;-&gt; (652.628,-907.504) = 2067.43</t>
-  </si>
-  <si>
-    <t>(976.322,-489.908) &lt;-&gt; (652.628,-907.504) = 528.36</t>
-  </si>
-  <si>
-    <t>(320.211,1133.69) &lt;-&gt; (-518.756,-394.529) = 1743.36</t>
-  </si>
-  <si>
-    <t>(978.116,-489.203) &lt;-&gt; (-518.756,-394.529) = 1499.86</t>
-  </si>
-  <si>
-    <t>(320.211,1133.69) &lt;-&gt; (-414.186,1359.41) = 768.302</t>
-  </si>
-  <si>
-    <t>(978.116,-489.203) &lt;-&gt; (-414.186,1359.41) = 2314.28</t>
-  </si>
-  <si>
-    <t>(235.539,1175.69) &lt;-&gt; (921.88,-861.74) = 2149.93</t>
-  </si>
-  <si>
-    <t>(989.482,-493.901) &lt;-&gt; (921.88,-861.74) = 373.999</t>
-  </si>
-  <si>
-    <t>(235.013,1174.47) &lt;-&gt; (-399.328,-1091.12) = 2352.72</t>
-  </si>
-  <si>
-    <t>(986.623,-496.685) &lt;-&gt; (-399.328,-1091.12) = 1508.05</t>
-  </si>
-  <si>
-    <t>(235.013,1174.47) &lt;-&gt; (-1177.73,502.239) = 1564.52</t>
-  </si>
-  <si>
-    <t>(986.623,-496.685) &lt;-&gt; (-1177.73,502.239) = 2383.75</t>
-  </si>
-  <si>
-    <t>(235.013,1174.47) &lt;-&gt; (983.04,-509.685) = 1842.8</t>
-  </si>
-  <si>
-    <t>(986.623,-496.685) &lt;-&gt; (983.04,-509.685) = 13.4851</t>
-  </si>
-  <si>
-    <t>(235.04,1174.3) &lt;-&gt; (-440.136,-975.058) = 2252.91</t>
-  </si>
-  <si>
-    <t>(986.391,-497.094) &lt;-&gt; (-440.136,-975.058) = 1504.47</t>
-  </si>
-  <si>
-    <t>(235.04,1174.3) &lt;-&gt; (-1051.15,667.115) = 1382.58</t>
-  </si>
-  <si>
-    <t>(986.391,-497.094) &lt;-&gt; (-1051.15,667.115) = 2346.69</t>
+    <t>(0,0) &lt;-&gt; (522.57,975.248) = 1106.43</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1106.43</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (935.704,-462.24) = 1043.65</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1043.65</t>
+  </si>
+  <si>
+    <t>(935.704,-462.24) &lt;-&gt; (-728.167,-1007.35) = 1750.89</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (-728.167,-1007.35) = 1242.97</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1242.97</t>
+  </si>
+  <si>
+    <t>(-728.167,-1007.35) &lt;-&gt; (664.463,912.391) = 2371.67</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (664.463,912.391) = 1128.7</t>
+  </si>
+  <si>
+    <t>(-728.175,-1007.36) &lt;-&gt; (929.014,-472.074) = 1741.5</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (929.014,-472.074) = 1042.08</t>
+  </si>
+  <si>
+    <t>(-728.175,-1007.36) &lt;-&gt; (-729.212,-1006.89) = 1.14036</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (-729.212,-1006.89) = 1243.21</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1.14036</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=191.011, y=40.2251, w=29.6451 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(522.583,975.389) | (935.721,-462.26) | (-728.241,-1007.41) | </t>
+  </si>
+  <si>
+    <t>states[1][0]= 191.011 states[1][1]= 40.2251</t>
+  </si>
+  <si>
+    <t>landmarks[1][0]= 522.583 landmarks[1][1]= 975.389</t>
+  </si>
+  <si>
+    <t>curr_lm = (522.583,975.389),(935.721,-462.26),(-728.241,-1007.41)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=279.226, y=90.4302, w=43.7478 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (710.676,583.69) -&gt; Shifted_Stored = (431.45,493.26) -&gt; test = (388.999,1003.5)</t>
+  </si>
+  <si>
+    <t>(522.583,975.389) &lt;-&gt; (388.999,1003.5) = 136.511</t>
+  </si>
+  <si>
+    <t>(935.721,-462.26) &lt;-&gt; (388.999,1003.5) = 1564.41</t>
+  </si>
+  <si>
+    <t>(-728.241,-1007.41) &lt;-&gt; (388.999,1003.5) = 2300.44</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (388.999,1003.5) = 1076.26</t>
+  </si>
+  <si>
+    <t>smallestDistance = 136.511</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (205.494,-833.835) -&gt; Shifted_Stored = (-73.4144,-923.497) -&gt; test = (926.407,-474.477)</t>
+  </si>
+  <si>
+    <t>(522.411,975.742) &lt;-&gt; (926.407,-474.477) = 1505.44</t>
+  </si>
+  <si>
+    <t>(935.699,-462.235) &lt;-&gt; (926.407,-474.477) = 15.3693</t>
+  </si>
+  <si>
+    <t>(-728.29,-1007.46) &lt;-&gt; (926.407,-474.477) = 1738.42</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (926.407,-474.477) = 1040.85</t>
+  </si>
+  <si>
+    <t>smallestDistance = 15.3693</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-1454.6,-316.576) -&gt; Shifted_Stored = (-1733.23,-406.426) -&gt; test = (-719.146,-1014.92)</t>
+  </si>
+  <si>
+    <t>(522.412,975.796) &lt;-&gt; (-719.146,-1014.92) = 2346.15</t>
+  </si>
+  <si>
+    <t>(935.744,-462.505) &lt;-&gt; (-719.146,-1014.92) = 1744.65</t>
+  </si>
+  <si>
+    <t>(-728.271,-1007.43) &lt;-&gt; (-719.146,-1014.92) = 11.8002</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (-719.146,-1014.92) = 1243.87</t>
+  </si>
+  <si>
+    <t>smallestDistance = 11.8002</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=278.421, y=89.6954, w=35.4877 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(522.427,975.694) | (935.721,-462.471) | (-728.193,-1007.4) | </t>
+  </si>
+  <si>
+    <t>states[2][0]= 278.421 states[2][1]= 89.6954</t>
+  </si>
+  <si>
+    <t>landmarks[2][0]= 522.427 landmarks[2][1]= 975.694</t>
+  </si>
+  <si>
+    <t>curr_lm = (522.427,975.694),(935.721,-462.471),(-728.193,-1007.4)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=361.113, y=148.652, w=38.9854 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (663.766,523.109) -&gt; Shifted_Stored = (302.653,374.457) -&gt; test = (547.963,972.858)</t>
+  </si>
+  <si>
+    <t>(522.427,975.694) &lt;-&gt; (547.963,972.858) = 25.6926</t>
+  </si>
+  <si>
+    <t>(935.721,-462.471) &lt;-&gt; (547.963,972.858) = 1486.78</t>
+  </si>
+  <si>
+    <t>(-728.193,-1007.4) &lt;-&gt; (547.963,972.858) = 2355.85</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (547.963,972.858) = 1116.56</t>
+  </si>
+  <si>
+    <t>smallestDistance = 25.6926</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (31.8766,-838.578) -&gt; Shifted_Stored = (-328.849,-986.108) -&gt; test = (929.781,-469.241)</t>
+  </si>
+  <si>
+    <t>(522.027,976.093) &lt;-&gt; (929.781,-469.241) = 1501.75</t>
+  </si>
+  <si>
+    <t>(935.717,-462.438) &lt;-&gt; (929.781,-469.241) = 9.02852</t>
+  </si>
+  <si>
+    <t>(-728.265,-1007.45) &lt;-&gt; (929.781,-469.241) = 1743.21</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (929.781,-469.241) = 1041.48</t>
+  </si>
+  <si>
+    <t>smallestDistance = 9.02852</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-1577.42,-169.531) -&gt; Shifted_Stored = (-1937.93,-317.3) -&gt; test = (-721.64,-1012.38)</t>
+  </si>
+  <si>
+    <t>(522.017,976.201) &lt;-&gt; (-721.64,-1012.38) = 2345.45</t>
+  </si>
+  <si>
+    <t>(935.686,-462.767) &lt;-&gt; (-721.64,-1012.38) = 1746.08</t>
+  </si>
+  <si>
+    <t>(-728.209,-1007.38) &lt;-&gt; (-721.64,-1012.38) = 8.25948</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (-721.64,-1012.38) = 1243.26</t>
+  </si>
+  <si>
+    <t>smallestDistance = 8.25948</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=360.174, y=147.543, w=40.7718 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(522.091,976.063) | (935.673,-462.727) | (-728.137,-1007.37) | </t>
+  </si>
+  <si>
+    <t>states[3][0]= 360.174 states[3][1]= 147.543</t>
+  </si>
+  <si>
+    <t>landmarks[3][0]= 522.091 landmarks[3][1]= 976.063</t>
+  </si>
+  <si>
+    <t>curr_lm = (522.091,976.063),(935.673,-462.727),(-728.137,-1007.37)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=436.15, y=213.058, w=56.7163 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (616.174,460.152) -&gt; Shifted_Stored = (180.024,247.094) -&gt; test = (389.626,980.682)</t>
+  </si>
+  <si>
+    <t>(522.091,976.063) &lt;-&gt; (389.626,980.682) = 132.545</t>
+  </si>
+  <si>
+    <t>(935.673,-462.727) &lt;-&gt; (389.626,980.682) = 1543.24</t>
+  </si>
+  <si>
+    <t>(-728.137,-1007.37) &lt;-&gt; (389.626,980.682) = 2280.73</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (389.626,980.682) = 1055.25</t>
+  </si>
+  <si>
+    <t>smallestDistance = 132.545</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-144.689,-828.61) -&gt; Shifted_Stored = (-580.701,-1041.11) -&gt; test = (940.153,-460.827)</t>
+  </si>
+  <si>
+    <t>(521.84,976.24) &lt;-&gt; (940.153,-460.827) = 1496.71</t>
+  </si>
+  <si>
+    <t>(935.678,-462.722) &lt;-&gt; (940.153,-460.827) = 4.85951</t>
+  </si>
+  <si>
+    <t>(-728.165,-1007.38) &lt;-&gt; (940.153,-460.827) = 1755.56</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (940.153,-460.827) = 1047.02</t>
+  </si>
+  <si>
+    <t>smallestDistance = 4.85951</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-1685.93,25.3679) -&gt; Shifted_Stored = (-2121.74,-187.474) -&gt; test = (-740.996,-994.689)</t>
+  </si>
+  <si>
+    <t>(521.787,976.414) &lt;-&gt; (-740.996,-994.689) = 2340.91</t>
+  </si>
+  <si>
+    <t>(935.567,-463.138) &lt;-&gt; (-740.996,-994.689) = 1758.81</t>
+  </si>
+  <si>
+    <t>(-728.067,-1007.27) &lt;-&gt; (-740.996,-994.689) = 18.0416</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (-740.996,-994.689) = 1240.36</t>
+  </si>
+  <si>
+    <t>smallestDistance = 18.0416</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=435.795, y=212.815, w=-73.1625 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(521.813,976.4) | (935.561,-463.156) | (-728.049,-1007.27) | </t>
+  </si>
+  <si>
+    <t>states[4][0]= 435.795 states[4][1]= 212.815</t>
+  </si>
+  <si>
+    <t>landmarks[4][0]= 521.813 landmarks[4][1]= 976.4</t>
+  </si>
+  <si>
+    <t>curr_lm = (521.813,976.4),(935.561,-463.156),(-728.049,-1007.27)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=465.168, y=115.758, w=-64.2164 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (553.451,415.402) -&gt; Shifted_Stored = (88.2838,299.643) -&gt; test = (1079.95,-201.904)</t>
+  </si>
+  <si>
+    <t>(521.813,976.4) &lt;-&gt; (1079.95,-201.904) = 1303.81</t>
+  </si>
+  <si>
+    <t>(935.561,-463.156) &lt;-&gt; (1079.95,-201.904) = 298.497</t>
+  </si>
+  <si>
+    <t>(-728.049,-1007.27) &lt;-&gt; (1079.95,-201.904) = 1979.26</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (1079.95,-201.904) = 1098.66</t>
+  </si>
+  <si>
+    <t>smallestDistance = 298.497</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-339.646,-795.128) -&gt; Shifted_Stored = (-820.387,-887.185) -&gt; test = (-334.227,380.872)</t>
+  </si>
+  <si>
+    <t>(522.734,972.268) &lt;-&gt; (-334.227,380.872) = 1041.22</t>
+  </si>
+  <si>
+    <t>(935.381,-457.538) &lt;-&gt; (-334.227,380.872) = 1521.46</t>
+  </si>
+  <si>
+    <t>(-730.584,-1010) &lt;-&gt; (-334.227,380.872) = 1446.24</t>
+  </si>
+  <si>
+    <t>(0,0) &lt;-&gt; (-334.227,380.872) = 506.726</t>
+  </si>
+  <si>
+    <t>smallestDistance = 506.726</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-1776.76,182.482) -&gt; Shifted_Stored = (-2311.52,67.3999) -&gt; test = (-320.953,1682.85)</t>
+  </si>
+  <si>
+    <t>(522.977,973.198) &lt;-&gt; (-320.953,1682.85) = 1102.65</t>
+  </si>
+  <si>
+    <t>(934.139,-462.955) &lt;-&gt; (-320.953,1682.85) = 2485.91</t>
+  </si>
+  <si>
+    <t>(-729.944,-1009.17) &lt;-&gt; (-320.953,1682.85) = 2722.92</t>
+  </si>
+  <si>
+    <t>(-249.676,-47.8098) &lt;-&gt; (-320.953,1682.85) = 1732.13</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1102.65</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=534.766, y=115.082, w=-55.5095 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(522.977,973.198) | (934.139,-462.955) | (-729.944,-1009.17) | (-320.953,1682.85) | </t>
+  </si>
+  <si>
+    <t>states[5][0]= 534.766 states[5][1]= 115.082</t>
+  </si>
+  <si>
+    <t>landmarks[5][0]= 522.977 landmarks[5][1]= 973.198</t>
+  </si>
+  <si>
+    <t>curr_lm = (522.977,973.198),(934.139,-462.955),(-729.944,-1009.17)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=591.892, y=31.9338, w=-66.8378 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (494.936,364.236) -&gt; Shifted_Stored = (-96.9567,332.302) -&gt; test = (1121.44,-279.84)</t>
+  </si>
+  <si>
+    <t>(522.977,973.198) &lt;-&gt; (1121.44,-279.84) = 1388.62</t>
+  </si>
+  <si>
+    <t>(934.139,-462.955) &lt;-&gt; (1121.44,-279.84) = 261.943</t>
+  </si>
+  <si>
+    <t>(-729.944,-1009.17) &lt;-&gt; (1121.44,-279.84) = 1989.86</t>
+  </si>
+  <si>
+    <t>(-320.953,1682.85) &lt;-&gt; (1121.44,-279.84) = 2435.71</t>
+  </si>
+  <si>
+    <t>smallestDistance = 261.943</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-511.912,-749.64) -&gt; Shifted_Stored = (-1099.78,-787.392) -&gt; test = (-146.953,570.711)</t>
+  </si>
+  <si>
+    <t>(522.904,973.431) &lt;-&gt; (-146.953,570.711) = 781.597</t>
+  </si>
+  <si>
+    <t>(933.298,-464.507) &lt;-&gt; (-146.953,570.711) = 1496.2</t>
+  </si>
+  <si>
+    <t>(-729.8,-1009.03) &lt;-&gt; (-146.953,570.711) = 1683.83</t>
+  </si>
+  <si>
+    <t>(-322.016,1684.23) &lt;-&gt; (-146.953,570.711) = 1127.19</t>
+  </si>
+  <si>
+    <t>smallestDistance = 781.597</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-1843.4,396.817) -&gt; Shifted_Stored = (-2431.86,348.823) -&gt; test = (1736.02,1544.22)</t>
+  </si>
+  <si>
+    <t>(534.221,966.536) &lt;-&gt; (1736.02,1544.22) = 1333.43</t>
+  </si>
+  <si>
+    <t>(933.993,-461.034) &lt;-&gt; (1736.02,1544.22) = 2159.7</t>
+  </si>
+  <si>
+    <t>(-730.877,-1010.41) &lt;-&gt; (1736.02,1544.22) = 3551.3</t>
+  </si>
+  <si>
+    <t>(-323.567,1686.23) &lt;-&gt; (1736.02,1544.22) = 2064.48</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1333.43</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=588.456, y=47.9946, w=-115.339 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(534.221,966.536) | (933.993,-461.034) | (-730.877,-1010.41) | (-323.567,1686.23) | </t>
+  </si>
+  <si>
+    <t>states[6][0]= 588.456 states[6][1]= 47.9946</t>
+  </si>
+  <si>
+    <t>landmarks[6][0]= 534.221 landmarks[6][1]= 966.536</t>
+  </si>
+  <si>
+    <t>curr_lm = (534.221,966.536),(933.993,-461.034),(-730.877,-1010.41)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=545.485, y=-42.751, w=-116.474 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (434.492,315.779) -&gt; Shifted_Stored = (-110.993,358.53) -&gt; test = (634.456,-572.453)</t>
+  </si>
+  <si>
+    <t>(534.221,966.536) &lt;-&gt; (634.456,-572.453) = 1542.25</t>
+  </si>
+  <si>
+    <t>(933.993,-461.034) &lt;-&gt; (634.456,-572.453) = 319.588</t>
+  </si>
+  <si>
+    <t>(-730.877,-1010.41) &lt;-&gt; (634.456,-572.453) = 1433.86</t>
+  </si>
+  <si>
+    <t>(-323.567,1686.23) &lt;-&gt; (634.456,-572.453) = 2453.46</t>
+  </si>
+  <si>
+    <t>smallestDistance = 319.588</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-675.55,-692.389) -&gt; Shifted_Stored = (-1230.62,-636.666) -&gt; test = (-271.92,446.132)</t>
+  </si>
+  <si>
+    <t>(533.357,965.816) &lt;-&gt; (-271.92,446.132) = 958.406</t>
+  </si>
+  <si>
+    <t>(932.852,-458.777) &lt;-&gt; (-271.92,446.132) = 1506.76</t>
+  </si>
+  <si>
+    <t>(-731.245,-1011.12) &lt;-&gt; (-271.92,446.132) = 1527.93</t>
+  </si>
+  <si>
+    <t>(-323.852,1686.6) &lt;-&gt; (-271.92,446.132) = 1241.55</t>
+  </si>
+  <si>
+    <t>smallestDistance = 958.406</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-1891.18,598.714) -&gt; Shifted_Stored = (-2454.29,631.493) -&gt; test = (-541.109,-1680.73)</t>
+  </si>
+  <si>
+    <t>(545.471,959.169) &lt;-&gt; (-541.109,-1680.73) = 2854.77</t>
+  </si>
+  <si>
+    <t>(932.055,-456.504) &lt;-&gt; (-541.109,-1680.73) = 1915.45</t>
+  </si>
+  <si>
+    <t>(-732.319,-1012.47) &lt;-&gt; (-541.109,-1680.73) = 695.073</t>
+  </si>
+  <si>
+    <t>(-324.508,1687.45) &lt;-&gt; (-541.109,-1680.73) = 3375.14</t>
+  </si>
+  <si>
+    <t>smallestDistance = 695.073</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=684.457, y=49.2914, w=-40.5791 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(519.902,976.792) | (927.648,-457.025) | (-842.495,-967.916) | (-327.517,1691.35) | </t>
+  </si>
+  <si>
+    <t>states[7][0]= 684.457 states[7][1]= 49.2914</t>
+  </si>
+  <si>
+    <t>landmarks[7][0]= 519.902 landmarks[7][1]= 976.792</t>
+  </si>
+  <si>
+    <t>curr_lm = (519.902,976.792),(927.648,-457.025),(-842.495,-967.916)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=760.75, y=-16.0514, w=-43.168 deg</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (359.263,289.125) -&gt; Shifted_Stored = (-401.487,305.176) -&gt; test = (1220.58,-50.9638)</t>
+  </si>
+  <si>
+    <t>(519.902,976.792) &lt;-&gt; (1220.58,-50.9638) = 1243.88</t>
+  </si>
+  <si>
+    <t>(927.648,-457.025) &lt;-&gt; (1220.58,-50.9638) = 500.695</t>
+  </si>
+  <si>
+    <t>(-842.495,-967.916) &lt;-&gt; (1220.58,-50.9638) = 2257.67</t>
+  </si>
+  <si>
+    <t>(-327.517,1691.35) &lt;-&gt; (1220.58,-50.9638) = 2330.72</t>
+  </si>
+  <si>
+    <t>smallestDistance = 500.695</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-846.08,-605.225) -&gt; Shifted_Stored = (-1609,-584.949) -&gt; test = (453.799,972.999)</t>
+  </si>
+  <si>
+    <t>(520.28,976.768) &lt;-&gt; (453.799,972.999) = 66.5876</t>
+  </si>
+  <si>
+    <t>(930.118,-454.054) &lt;-&gt; (453.799,972.999) = 1504.45</t>
+  </si>
+  <si>
+    <t>(-842.362,-967.766) &lt;-&gt; (453.799,972.999) = 2333.79</t>
+  </si>
+  <si>
+    <t>(-327.696,1691.58) &lt;-&gt; (453.799,972.999) = 1061.65</t>
+  </si>
+  <si>
+    <t>smallestDistance = 66.5876</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-1931.79,770.023) -&gt; Shifted_Stored = (-2695.96,794.7) -&gt; test = (2156.01,1520.48)</t>
+  </si>
+  <si>
+    <t>(515.981,978.612) &lt;-&gt; (2156.01,1520.48) = 1727.23</t>
+  </si>
+  <si>
+    <t>(928.485,-456.409) &lt;-&gt; (2156.01,1520.48) = 2327</t>
+  </si>
+  <si>
+    <t>(-842.207,-967.62) &lt;-&gt; (2156.01,1520.48) = 3896.15</t>
+  </si>
+  <si>
+    <t>(-327.586,1691.44) &lt;-&gt; (2156.01,1520.48) = 2489.47</t>
+  </si>
+  <si>
+    <t>smallestDistance = 1727.23</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=764.168, y=-24.6773, w=-110.279 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(515.981,978.612) | (928.485,-456.409) | (-842.207,-967.62) | (-327.586,1691.44) | </t>
+  </si>
+  <si>
+    <t>states[8][0]= 764.168 states[8][1]= -24.6773</t>
+  </si>
+  <si>
+    <t>landmarks[8][0]= 515.981 landmarks[8][1]= 978.612</t>
+  </si>
+  <si>
+    <t>curr_lm = (515.981,978.612),(928.485,-456.409),(-842.207,-967.62)</t>
   </si>
 </sst>
 </file>
@@ -15194,10 +15131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22778D0B-131A-4173-BF5B-F3FD8F142ACA}">
-  <dimension ref="A1:Z969"/>
+  <dimension ref="A1:Z908"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="O184" sqref="O184"/>
+    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="O539" sqref="O539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15244,7 +15181,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -15254,72 +15191,72 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1230</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1174</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1174</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1174</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -15331,12 +15268,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1174</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1091</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -15421,129 +15358,129 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1223</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1181</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1366</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1182</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1183</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1184</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1174</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1091</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>12</v>
+      <c r="A58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>0</v>
+      <c r="A59" s="1">
+        <v>5.9604600000000002E-8</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>5.9604600000000002E-8</v>
+      <c r="A60" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="Q60" s="1"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>13</v>
+      <c r="A61">
+        <v>99.682500000000005</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>99.682500000000005</v>
+      <c r="A62" s="1">
+        <v>-2.6031200000000002E-10</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>-2.6031200000000002E-10</v>
+        <v>0.415269</v>
       </c>
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.415269</v>
+        <v>522.57000000000005</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>522.57000000000005</v>
+        <v>975.24800000000005</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>975.24800000000005</v>
+        <v>935.70399999999995</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>935.70399999999995</v>
+        <v>-462.24</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>-462.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -15562,28 +15499,28 @@
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>0</v>
+      <c r="A72" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1186</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1224</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1187</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
@@ -15593,1801 +15530,1821 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1367</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1189</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1191</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1192</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1191</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1091</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>9</v>
+      <c r="A86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>12</v>
+      <c r="A87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>0</v>
+      <c r="A88" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0</v>
+        <v>99.682500000000005</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>13</v>
+      <c r="A90" s="1">
+        <v>-2.6031200000000002E-10</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>99.682500000000005</v>
+        <v>0.415269</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>-2.6031200000000002E-10</v>
+        <v>522.57000000000005</v>
       </c>
       <c r="Q92" s="1"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.415269</v>
+        <v>975.24800000000005</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>522.57000000000005</v>
+        <v>935.70399999999995</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>975.24800000000005</v>
+        <v>-462.24</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>935.70399999999995</v>
+        <v>-728.16700000000003</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>-462.24</v>
+        <v>-1007.35</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>-728.16700000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>-1007.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>0</v>
+      <c r="A100" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>0</v>
+      <c r="A101" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
         <v>1079</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1085</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1086</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1225</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1087</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1368</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1194</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1088</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1369</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1089</v>
+        <v>774</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1196</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>1090</v>
+      <c r="A128">
+        <v>0.32312000000000002</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>1231</v>
+      <c r="A129">
+        <v>-0.15657099999999999</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>774</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>12</v>
+      <c r="A131">
+        <v>190.935</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0.32312000000000002</v>
+        <v>40.145200000000003</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>-0.15657099999999999</v>
+        <v>0.51056900000000005</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>13</v>
+      <c r="A134">
+        <v>522.57399999999996</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>190.935</v>
+        <v>975.33500000000004</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>40.145200000000003</v>
+        <v>935.69500000000005</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.51056900000000005</v>
+        <v>-462.23500000000001</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>522.57399999999996</v>
+        <v>-728.17499999999995</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>975.33500000000004</v>
+        <v>-1007.36</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>935.69500000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>-462.23500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>-728.17499999999995</v>
+      <c r="A142" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>-1007.36</v>
+      <c r="A143" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>0</v>
+      <c r="A144" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>0</v>
+      <c r="A145" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1092</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1093</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1226</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1197</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1370</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1194</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1371</v>
+        <v>774</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>1199</v>
+      <c r="A156">
+        <v>4.2175299999999999E-2</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>1196</v>
+      <c r="A157">
+        <v>-1.32376E-2</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1200</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>1232</v>
+      <c r="A159">
+        <v>190.92099999999999</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>774</v>
+      <c r="A160">
+        <v>40.151899999999998</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>12</v>
+      <c r="A161">
+        <v>0.51720200000000005</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>4.2175299999999999E-2</v>
+        <v>522.57299999999998</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>-1.32376E-2</v>
+        <v>975.33500000000004</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>13</v>
+      <c r="A164">
+        <v>935.702</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>190.92099999999999</v>
+        <v>-462.245</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>40.151899999999998</v>
+        <v>-728.17499999999995</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>0.51720200000000005</v>
+        <v>-1007.36</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>522.57299999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>975.33500000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>935.702</v>
+      <c r="A170" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>-462.245</v>
+      <c r="A171" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>-728.17499999999995</v>
+      <c r="A172" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>-1007.36</v>
+      <c r="A173" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>0</v>
+      <c r="A174" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>0</v>
+      <c r="A175" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1094</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1095</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="Z178" s="1"/>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1201</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1372</v>
+        <v>1221</v>
       </c>
       <c r="Z181" s="1"/>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1194</v>
+        <v>774</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1202</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>1373</v>
+      <c r="A184">
+        <v>0.32690399999999997</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>1195</v>
+      <c r="A185">
+        <v>-7.8368199999999996E-4</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1203</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>1196</v>
+      <c r="A187">
+        <v>191.011</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>1204</v>
+      <c r="A188">
+        <v>40.225099999999998</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>1091</v>
+      <c r="A189">
+        <v>0.517405</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>9</v>
+      <c r="A190">
+        <v>522.58299999999997</v>
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>12</v>
+      <c r="A191">
+        <v>975.38900000000001</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>0</v>
+        <v>935.721</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>0</v>
+        <v>-462.26</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>13</v>
+      <c r="A194">
+        <v>-728.24099999999999</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>190.92099999999999</v>
+        <v>-1007.41</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>40.151899999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0.51720200000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>522.57299999999998</v>
+      <c r="A198" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>975.33500000000004</v>
+      <c r="A199" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>935.702</v>
+      <c r="A200" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>-462.245</v>
+      <c r="A201" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>-728.17499999999995</v>
+      <c r="A202" t="s">
+        <v>1226</v>
       </c>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>-1007.36</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>-729.21199999999999</v>
-      </c>
-    </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>-1006.89</v>
+      <c r="A205" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1205</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1206</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1207</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1208</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1209</v>
+        <v>1094</v>
       </c>
       <c r="Z210" s="1"/>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1095</v>
+      </c>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>16</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1096</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>8</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1097</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1098</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1099</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1210</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1100</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1101</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1211</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1212</v>
+        <v>774</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1374</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>1213</v>
+      <c r="A226">
+        <v>1.83911</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>1214</v>
+      <c r="A227">
+        <v>0.14871000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1375</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>1215</v>
+      <c r="A229">
+        <v>278.90800000000002</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>1216</v>
+      <c r="A230">
+        <v>89.662000000000006</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>1217</v>
+      <c r="A231">
+        <v>0.61245899999999998</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>1218</v>
+      <c r="A232">
+        <v>522.41099999999994</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>1233</v>
+      <c r="A233">
+        <v>975.74199999999996</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>774</v>
+      <c r="A234">
+        <v>935.69899999999996</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>12</v>
+      <c r="A235">
+        <v>-462.23500000000001</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1.7847900000000001</v>
+        <v>-728.29</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>0.14856900000000001</v>
+        <v>-1007.46</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>13</v>
+      <c r="A238">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>278.83199999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>89.592699999999994</v>
+      <c r="A240" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>0.61231500000000005</v>
+      <c r="A241" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>522.41</v>
+      <c r="A242" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>975.67700000000002</v>
+      <c r="A243" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>935.68499999999995</v>
+      <c r="A244" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>-462.221</v>
+      <c r="A245" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>-728.17200000000003</v>
+      <c r="A246" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>-1007.36</v>
+      <c r="A247" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>-729.28800000000001</v>
+      <c r="A248" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>-1006.97</v>
+      <c r="A249" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1102</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1103</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1229</v>
+        <v>774</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1211</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>1219</v>
+      <c r="A254">
+        <v>0.89971900000000005</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>1376</v>
+      <c r="A255">
+        <v>-1.7875599999999998E-2</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1213</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>1220</v>
+      <c r="A257">
+        <v>278.63400000000001</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>1377</v>
+      <c r="A258">
+        <v>89.850099999999998</v>
       </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>1215</v>
+      <c r="A259">
+        <v>0.62194099999999997</v>
       </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>1221</v>
+      <c r="A260">
+        <v>522.41200000000003</v>
       </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>1217</v>
+      <c r="A261">
+        <v>975.79600000000005</v>
       </c>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>1222</v>
+      <c r="A262">
+        <v>935.74400000000003</v>
       </c>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>1234</v>
+      <c r="A263">
+        <v>-462.505</v>
       </c>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>774</v>
+      <c r="A264">
+        <v>-728.27099999999996</v>
       </c>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>12</v>
+      <c r="A265">
+        <v>-1007.43</v>
       </c>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>0.90484600000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>-1.8141999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>13</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>278.54399999999998</v>
+      <c r="A269" t="s">
+        <v>1100</v>
       </c>
       <c r="Q269" s="1"/>
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>89.775700000000001</v>
+      <c r="A270" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>0.62191700000000005</v>
+      <c r="A271" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>522.41</v>
+      <c r="A272" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>975.72500000000002</v>
+      <c r="A273" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>935.72699999999998</v>
+      <c r="A274" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>-462.48899999999998</v>
+      <c r="A275" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>-728.14599999999996</v>
+      <c r="A276" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>-1007.33</v>
+      <c r="A277" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>-729.28599999999994</v>
+      <c r="A278" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>-1006.97</v>
+      <c r="A279" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1104</v>
+        <v>774</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>1235</v>
+      <c r="A282">
+        <v>-0.60974099999999998</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>1211</v>
+      <c r="A283">
+        <v>7.9145399999999994E-3</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1236</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>1378</v>
+      <c r="A285">
+        <v>278.42099999999999</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>1213</v>
+      <c r="A286">
+        <v>89.695400000000006</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>1237</v>
+      <c r="A287">
+        <v>0.61937699999999996</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>1379</v>
+      <c r="A288">
+        <v>522.42700000000002</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>1215</v>
+      <c r="A289">
+        <v>975.69399999999996</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>1238</v>
+      <c r="A290">
+        <v>935.721</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>1217</v>
+      <c r="A291">
+        <v>-462.471</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>1239</v>
+      <c r="A292">
+        <v>-728.19299999999998</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>1091</v>
+      <c r="A293">
+        <v>-1007.4</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>9</v>
+      <c r="A294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>15</v>
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>12</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>-1.2207E-4</v>
+      <c r="A299" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>278.54399999999998</v>
+      <c r="A300" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>89.775700000000001</v>
+      <c r="A303" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>0.62191700000000005</v>
+      <c r="A304" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>522.41</v>
+      <c r="A305" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>975.72500000000002</v>
+      <c r="A306" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>935.72699999999998</v>
+      <c r="A307" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308">
-        <v>-462.48899999999998</v>
+      <c r="A308" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>-728.14599999999996</v>
+      <c r="A309" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>-1007.33</v>
+      <c r="A310" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>-729.28599999999994</v>
+      <c r="A311" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>-1006.97</v>
+      <c r="A312" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1240</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1241</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1242</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1243</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1244</v>
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>17</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1106</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>8</v>
+        <v>774</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>1108</v>
+      <c r="A324">
+        <v>2.49335</v>
       </c>
       <c r="H324" s="1"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>1109</v>
+      <c r="A325">
+        <v>-3.0303500000000001E-2</v>
       </c>
       <c r="H325" s="1"/>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1245</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>1110</v>
+      <c r="A327">
+        <v>360.72500000000002</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>1111</v>
+      <c r="A328">
+        <v>147.529</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>1246</v>
+      <c r="A329">
+        <v>0.70718800000000004</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>1211</v>
+      <c r="A330">
+        <v>522.02700000000004</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>1247</v>
+      <c r="A331">
+        <v>976.09299999999996</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>1380</v>
+      <c r="A332">
+        <v>935.71699999999998</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>1213</v>
+      <c r="A333">
+        <v>-462.43799999999999</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>1248</v>
+      <c r="A334">
+        <v>-728.26499999999999</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>1381</v>
+      <c r="A335">
+        <v>-1007.45</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>1215</v>
+      <c r="A336">
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>1249</v>
+      <c r="A337">
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1217</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1250</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1251</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>774</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>12</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <v>2.7461500000000001</v>
+      <c r="A343" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344">
-        <v>-2.7692600000000001E-2</v>
+      <c r="A344" t="s">
+        <v>1260</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>13</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>360.63099999999997</v>
+      <c r="A346" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347">
-        <v>147.696</v>
+      <c r="A347" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348">
-        <v>0.70638999999999996</v>
+      <c r="A348" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349">
-        <v>521.99099999999999</v>
+      <c r="A349" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350">
-        <v>976.15700000000004</v>
+      <c r="A350" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <v>935.58500000000004</v>
+      <c r="A351" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>-462.66300000000001</v>
+        <v>0.92578099999999997</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>-728.12300000000005</v>
+        <v>-1.0708000000000001E-2</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <v>-1007.3</v>
+      <c r="A354" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>-729.29499999999996</v>
+        <v>360.50900000000001</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>-1006.98</v>
+        <v>147.768</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>1112</v>
+      <c r="A357">
+        <v>0.71310899999999999</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>1113</v>
+      <c r="A358">
+        <v>522.01700000000005</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>1252</v>
+      <c r="A359">
+        <v>976.20100000000002</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>1211</v>
+      <c r="A360">
+        <v>935.68600000000004</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>1253</v>
+      <c r="A361">
+        <v>-462.767</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>1382</v>
+      <c r="A362">
+        <v>-728.20899999999995</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>1213</v>
+      <c r="A363">
+        <v>-1007.38</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>1254</v>
+      <c r="A364">
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>1383</v>
+      <c r="A365">
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1215</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1255</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1217</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1256</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1257</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>774</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>12</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <v>0.66699200000000003</v>
+      <c r="A373" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <v>-1.11538E-2</v>
+      <c r="A374" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>13</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <v>360.39800000000002</v>
+      <c r="A376" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <v>147.834</v>
+      <c r="A377" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <v>0.712619</v>
+      <c r="A378" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <v>521.98199999999997</v>
+      <c r="A379" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>976.19100000000003</v>
+        <v>-0.84130899999999997</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>935.62400000000002</v>
+        <v>5.1777400000000001E-3</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <v>-462.78399999999999</v>
+      <c r="A382" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>-728.10299999999995</v>
+        <v>360.17399999999998</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>-1007.27</v>
+        <v>147.54300000000001</v>
       </c>
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>-729.28099999999995</v>
+        <v>0.71160199999999996</v>
       </c>
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>-1006.96</v>
+        <v>522.09100000000001</v>
       </c>
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>1114</v>
+      <c r="A387">
+        <v>976.06299999999999</v>
       </c>
       <c r="Z387" s="1"/>
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>1115</v>
+      <c r="A388">
+        <v>935.673</v>
       </c>
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>1258</v>
+      <c r="A389">
+        <v>-462.72699999999998</v>
       </c>
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>1211</v>
+      <c r="A390">
+        <v>-728.13699999999994</v>
       </c>
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>1259</v>
+      <c r="A391">
+        <v>-1007.37</v>
       </c>
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>1384</v>
+      <c r="A392">
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>1213</v>
+      <c r="A393">
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1260</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1385</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1215</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>1091</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>12</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406">
-        <v>0</v>
+      <c r="A406" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407">
-        <v>0</v>
+      <c r="A407" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>13</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409">
-        <v>360.39800000000002</v>
+      <c r="A409" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410">
-        <v>147.834</v>
+      <c r="A410" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411">
-        <v>0.712619</v>
+      <c r="A411" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412">
-        <v>521.98199999999997</v>
+      <c r="A412" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413">
-        <v>976.19100000000003</v>
+      <c r="A413" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414">
-        <v>935.62400000000002</v>
+      <c r="A414" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415">
-        <v>-462.78399999999999</v>
+      <c r="A415" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416">
-        <v>-728.10299999999995</v>
+      <c r="A416" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417">
-        <v>-1007.27</v>
+      <c r="A417" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418">
-        <v>-729.28099999999995</v>
+      <c r="A418" t="s">
+        <v>1280</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419">
-        <v>-1006.96</v>
+      <c r="A419" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1263</v>
+        <v>774</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1264</v>
+        <v>12</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>1265</v>
+      <c r="A422">
+        <v>1.2023299999999999</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>1266</v>
+      <c r="A423">
+        <v>0.17269499999999999</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1267</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>436.012</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>212.501</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>18</v>
+      <c r="A427">
+        <v>0.81556200000000001</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>1116</v>
+      <c r="A428">
+        <v>521.84</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>8</v>
+      <c r="A429">
+        <v>976.24</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>1117</v>
+      <c r="A430">
+        <v>935.678</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>1118</v>
+      <c r="A431">
+        <v>-462.72199999999998</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>1119</v>
+      <c r="A432">
+        <v>-728.16499999999996</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>1268</v>
+      <c r="A433">
+        <v>-1007.38</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>1120</v>
+      <c r="A434">
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>1121</v>
+      <c r="A435">
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1269</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1211</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1270</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1386</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1213</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1271</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1387</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1215</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1272</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1217</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1273</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1274</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
@@ -17402,12 +17359,12 @@
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>1.47156</v>
+        <v>1.15198</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>0.173402</v>
+        <v>5.6163100000000002E-3</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
@@ -17417,2492 +17374,2188 @@
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>436.11</v>
+        <v>435.81200000000001</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>212.726</v>
+        <v>212.84200000000001</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>0.81542099999999995</v>
+        <v>0.81332800000000005</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>521.69100000000003</v>
+        <v>521.78700000000003</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>976.38900000000001</v>
+        <v>976.41399999999999</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>935.56799999999998</v>
+        <v>935.56700000000001</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>-462.858</v>
+        <v>-463.13799999999998</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>-728.09199999999998</v>
+        <v>-728.06700000000001</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>-1007.26</v>
+        <v>-1007.27</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>-729.27300000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>-1006.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1275</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1211</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1388</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1213</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1277</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1389</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1215</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1217</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1279</v>
+        <v>774</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1280</v>
+        <v>12</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>774</v>
+      <c r="A478">
+        <v>-8.4716799999999995E-2</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>12</v>
+      <c r="A479">
+        <v>-1.06996E-2</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480">
-        <v>0.986267</v>
+      <c r="A480" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>5.9311399999999997E-3</v>
+        <v>435.79500000000002</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>13</v>
+      <c r="A482">
+        <v>212.815</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>435.80799999999999</v>
+        <v>-1.2769299999999999</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>212.96700000000001</v>
+        <v>521.81299999999999</v>
       </c>
       <c r="H484" s="1"/>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>0.81372699999999998</v>
+        <v>976.4</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>521.64700000000005</v>
+        <v>935.56100000000004</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>976.46500000000003</v>
+        <v>-463.15600000000001</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>935.63599999999997</v>
+        <v>-728.04899999999998</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>-462.98099999999999</v>
+        <v>-1007.27</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>-728.05899999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>-1007.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A492">
-        <v>-729.23900000000003</v>
+      <c r="A492" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A493">
-        <v>-1006.92</v>
+      <c r="A493" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1124</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1125</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
-        <v>1282</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1390</v>
+        <v>19</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1213</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1283</v>
+        <v>8</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1391</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1215</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1284</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1217</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1285</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1091</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>9</v>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>15</v>
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>12</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="513" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A513">
-        <v>0</v>
+      <c r="A513" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="514" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A514" s="1">
-        <v>1.74846E-7</v>
+      <c r="A514" s="1" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="515" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>13</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="516" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A516">
-        <v>435.82</v>
+      <c r="A516" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="517" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A517">
-        <v>212.96100000000001</v>
+      <c r="A517" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="518" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A518">
-        <v>-1.28043</v>
+      <c r="A518" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="519" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A519">
-        <v>521.66200000000003</v>
+      <c r="A519" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="520" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>976.46100000000001</v>
+        <v>-53.928199999999997</v>
       </c>
     </row>
     <row r="521" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>935.64300000000003</v>
+        <v>0.411528</v>
       </c>
     </row>
     <row r="522" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A522">
-        <v>-462.98500000000001</v>
+      <c r="A522" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="523" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>-728.05700000000002</v>
+        <v>480.74200000000002</v>
       </c>
       <c r="Q523" s="1"/>
     </row>
     <row r="524" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>-1007.22</v>
+        <v>92.056399999999996</v>
       </c>
     </row>
     <row r="525" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>-729.23699999999997</v>
+        <v>-1.5076799999999999</v>
       </c>
     </row>
     <row r="526" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>-1006.91</v>
+        <v>522.73400000000004</v>
       </c>
     </row>
     <row r="527" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
-        <v>1286</v>
+      <c r="A527">
+        <v>972.26800000000003</v>
       </c>
     </row>
     <row r="528" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
-        <v>1287</v>
+      <c r="A528">
+        <v>935.38099999999997</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
-        <v>1288</v>
+      <c r="A529">
+        <v>-457.53800000000001</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
-        <v>1289</v>
+      <c r="A530">
+        <v>-730.58399999999995</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>1290</v>
+      <c r="A531">
+        <v>-1010</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>19</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>8</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1127</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1128</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1129</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1291</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1130</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1131</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1292</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1211</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1293</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1392</v>
+        <v>774</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1213</v>
+        <v>12</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
-        <v>1294</v>
+      <c r="A548">
+        <v>375.15600000000001</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
-        <v>1393</v>
+      <c r="A549">
+        <v>-0.52977700000000005</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1215</v>
+        <v>13</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>1295</v>
+      <c r="A551">
+        <v>534.76599999999996</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
-        <v>1217</v>
+      <c r="A552">
+        <v>115.08199999999999</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>1296</v>
+      <c r="A553">
+        <v>-0.96882299999999999</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>1297</v>
+      <c r="A554">
+        <v>522.97699999999998</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
-        <v>774</v>
+      <c r="A555">
+        <v>973.19799999999998</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
-        <v>12</v>
+      <c r="A556">
+        <v>934.13900000000001</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>-54.080399999999997</v>
+        <v>-462.95499999999998</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>0.407503</v>
+        <v>-729.94399999999996</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
-        <v>13</v>
+      <c r="A559">
+        <v>-1009.17</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>480.85899999999998</v>
+        <v>-249.67599999999999</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>91.227400000000003</v>
+        <v>-47.809800000000003</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562">
-        <v>-1.49969</v>
+      <c r="A562" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563">
-        <v>522.846</v>
+      <c r="A563" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564">
-        <v>972.27599999999995</v>
+      <c r="A564" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565">
-        <v>930.91800000000001</v>
+      <c r="A565" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566">
-        <v>-462.7</v>
+      <c r="A566" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567">
-        <v>-729.803</v>
+      <c r="A567" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568">
-        <v>-1009.34</v>
+      <c r="A568" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569">
-        <v>-731.327</v>
+      <c r="A569" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570">
-        <v>-1009.29</v>
+      <c r="A570" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1132</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1133</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1298</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1211</v>
+        <v>9</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1299</v>
+        <v>12</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>1394</v>
+      <c r="A576">
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
-        <v>1213</v>
+      <c r="A577">
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1300</v>
+        <v>13</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
-        <v>1395</v>
+      <c r="A579">
+        <v>534.76599999999996</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
-        <v>1215</v>
+      <c r="A580">
+        <v>115.08199999999999</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>1301</v>
+      <c r="A581">
+        <v>-0.96882299999999999</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
-        <v>1217</v>
+      <c r="A582">
+        <v>522.97699999999998</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
-        <v>1302</v>
+      <c r="A583">
+        <v>973.19799999999998</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
-        <v>1303</v>
+      <c r="A584">
+        <v>934.13900000000001</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
-        <v>9</v>
+      <c r="A585">
+        <v>-462.95499999999998</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>-729.94399999999996</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
-        <v>15</v>
+      <c r="A587">
+        <v>-1009.17</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>-320.95299999999997</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
-        <v>12</v>
+      <c r="A589">
+        <v>1682.85</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590">
-        <v>0</v>
+      <c r="A590" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="1">
-        <v>2.3841900000000001E-7</v>
+      <c r="A591" s="1" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>13</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A593">
-        <v>480.85899999999998</v>
+      <c r="A593" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A594">
-        <v>91.227400000000003</v>
-      </c>
-    </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A595">
-        <v>-1.49969</v>
-      </c>
-    </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A596">
-        <v>522.846</v>
+      <c r="A594" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A597">
-        <v>972.27599999999995</v>
+      <c r="A597" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A598">
-        <v>930.91800000000001</v>
+      <c r="A598" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A599">
-        <v>-462.7</v>
+      <c r="A599" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A600">
-        <v>-729.803</v>
+      <c r="A600" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A601">
-        <v>-1009.34</v>
+      <c r="A601" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A602">
-        <v>-731.327</v>
+      <c r="A602" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A603">
-        <v>-1009.29</v>
+      <c r="A603" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1304</v>
+        <v>1324</v>
       </c>
       <c r="H606" s="1"/>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1211</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1299</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1396</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1213</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1300</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1397</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1215</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1301</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1217</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1302</v>
+        <v>774</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1305</v>
+        <v>12</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
-        <v>774</v>
+      <c r="A618">
+        <v>12.811299999999999</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
-        <v>12</v>
+      <c r="A619">
+        <v>0.43364900000000001</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620">
-        <v>904.05399999999997</v>
+      <c r="A620" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>1.6380100000000002E-2</v>
+        <v>587.87199999999996</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
-        <v>13</v>
+      <c r="A622">
+        <v>37.751800000000003</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>395.25700000000001</v>
+        <v>-1.5991500000000001</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>-248.78200000000001</v>
+        <v>522.904</v>
       </c>
     </row>
     <row r="625" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>-1.57467</v>
+        <v>973.43100000000004</v>
       </c>
     </row>
     <row r="626" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>319.90100000000001</v>
+        <v>933.298</v>
       </c>
     </row>
     <row r="627" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>1132.97</v>
+        <v>-464.50700000000001</v>
       </c>
     </row>
     <row r="628" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>976.322</v>
+        <v>-729.8</v>
       </c>
     </row>
     <row r="629" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>-489.90800000000002</v>
+        <v>-1009.03</v>
       </c>
     </row>
     <row r="630" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>-701.21400000000006</v>
+        <v>-322.01600000000002</v>
       </c>
     </row>
     <row r="631" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>-974.55499999999995</v>
+        <v>1684.23</v>
       </c>
     </row>
     <row r="632" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A632">
-        <v>-696.19100000000003</v>
+      <c r="A632" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="633" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A633">
-        <v>-969.31</v>
+      <c r="A633" t="s">
+        <v>1138</v>
       </c>
       <c r="Q633" s="1"/>
     </row>
     <row r="634" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1306</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="635" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1307</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="636" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1308</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="637" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1309</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="638" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1310</v>
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="639" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="640" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="641" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>20</v>
+        <v>1191</v>
       </c>
       <c r="Z641" s="1"/>
     </row>
     <row r="642" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1136</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="643" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>8</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="644" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1137</v>
+        <v>774</v>
       </c>
     </row>
     <row r="645" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="646" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
-        <v>1139</v>
+      <c r="A646">
+        <v>-30.180399999999999</v>
       </c>
     </row>
     <row r="647" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
-        <v>1311</v>
+      <c r="A647">
+        <v>0.87397800000000003</v>
       </c>
     </row>
     <row r="648" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1140</v>
+        <v>13</v>
       </c>
     </row>
     <row r="649" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
-        <v>1141</v>
+      <c r="A649">
+        <v>588.45600000000002</v>
       </c>
     </row>
     <row r="650" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
-        <v>1312</v>
+      <c r="A650">
+        <v>47.994599999999998</v>
       </c>
     </row>
     <row r="651" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
-        <v>1211</v>
+      <c r="A651">
+        <v>-2.0130400000000002</v>
       </c>
     </row>
     <row r="652" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
-        <v>1313</v>
+      <c r="A652">
+        <v>534.221</v>
       </c>
     </row>
     <row r="653" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
-        <v>1398</v>
+      <c r="A653">
+        <v>966.53599999999994</v>
       </c>
     </row>
     <row r="654" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
-        <v>1213</v>
+      <c r="A654">
+        <v>933.99300000000005</v>
       </c>
     </row>
     <row r="655" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
-        <v>1314</v>
+      <c r="A655">
+        <v>-461.03399999999999</v>
       </c>
     </row>
     <row r="656" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
-        <v>1399</v>
+      <c r="A656">
+        <v>-730.87699999999995</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
-        <v>1215</v>
+      <c r="A657">
+        <v>-1010.41</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
-        <v>1315</v>
+      <c r="A658">
+        <v>-323.56700000000001</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
-        <v>1217</v>
+      <c r="A659">
+        <v>1686.23</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1316</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1317</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>774</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>12</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664">
-        <v>16.385100000000001</v>
+      <c r="A664" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665">
-        <v>-0.90127400000000002</v>
+      <c r="A665" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>13</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667">
-        <v>387.76100000000002</v>
+      <c r="A667" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668">
-        <v>-347.19</v>
+      <c r="A668" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669">
-        <v>-0.91948200000000002</v>
+      <c r="A669" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670">
-        <v>320.21100000000001</v>
+      <c r="A670" t="s">
+        <v>1340</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671">
-        <v>1133.69</v>
+      <c r="A671" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672">
-        <v>978.11599999999999</v>
-      </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673">
-        <v>-489.20299999999997</v>
+      <c r="A672" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674">
-        <v>-700.74800000000005</v>
-      </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675">
-        <v>-973.98699999999997</v>
+      <c r="A674" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676">
-        <v>-695.61500000000001</v>
+      <c r="A676" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>-968.65499999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
-        <v>1142</v>
+      <c r="A678">
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>1143</v>
+        <v>13</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" t="s">
-        <v>1318</v>
+      <c r="A680">
+        <v>588.45600000000002</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
-        <v>1211</v>
+      <c r="A681">
+        <v>47.994599999999998</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
-        <v>1319</v>
+      <c r="A682">
+        <v>-2.0130400000000002</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
-        <v>1400</v>
+      <c r="A683">
+        <v>534.221</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
-        <v>1213</v>
+      <c r="A684">
+        <v>966.53599999999994</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
-        <v>1320</v>
+      <c r="A685">
+        <v>933.99300000000005</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" t="s">
-        <v>1401</v>
+      <c r="A686">
+        <v>-461.03399999999999</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" t="s">
-        <v>1215</v>
+      <c r="A687">
+        <v>-730.87699999999995</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" t="s">
-        <v>1321</v>
+      <c r="A688">
+        <v>-1010.41</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
-        <v>1217</v>
+      <c r="A689">
+        <v>-323.56700000000001</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
-        <v>1322</v>
+      <c r="A690">
+        <v>1686.23</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>1091</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>9</v>
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>1344</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697">
-        <v>0</v>
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698">
-        <v>0</v>
+      <c r="A698" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>13</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700">
-        <v>387.76100000000002</v>
+      <c r="A700" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701">
-        <v>-347.19</v>
+      <c r="A701" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702">
-        <v>-0.91948200000000002</v>
+      <c r="A702" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703">
-        <v>320.21100000000001</v>
+      <c r="A703" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704">
-        <v>1133.69</v>
+      <c r="A704" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705">
-        <v>978.11599999999999</v>
+      <c r="A705" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706">
-        <v>-489.20299999999997</v>
+      <c r="A706" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707">
-        <v>-700.74800000000005</v>
+      <c r="A707" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708">
-        <v>-973.98699999999997</v>
+      <c r="A708" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709">
-        <v>-695.61500000000001</v>
+      <c r="A709" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710">
-        <v>-968.65499999999997</v>
+      <c r="A710" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1144</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1145</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1323</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1211</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1319</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1402</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1213</v>
+        <v>774</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1320</v>
+        <v>12</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" t="s">
-        <v>1403</v>
+      <c r="A719">
+        <v>-33.753999999999998</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
-        <v>1215</v>
+      <c r="A720">
+        <v>-0.582098</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1321</v>
+        <v>13</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
-        <v>1217</v>
+      <c r="A722">
+        <v>555.07000000000005</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
-        <v>1322</v>
+      <c r="A723">
+        <v>-55.722799999999999</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
-        <v>1324</v>
+      <c r="A724">
+        <v>-1.3431500000000001</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
-        <v>774</v>
+      <c r="A725">
+        <v>533.35699999999997</v>
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
-        <v>12</v>
+      <c r="A726">
+        <v>965.81600000000003</v>
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>403.21199999999999</v>
+        <v>932.85199999999998</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>0.39370300000000003</v>
+        <v>-458.77699999999999</v>
       </c>
       <c r="H728" s="1"/>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
-        <v>13</v>
+      <c r="A729">
+        <v>-731.245</v>
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>386.096</v>
+        <v>-1011.12</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>-545.50199999999995</v>
+        <v>-323.85199999999998</v>
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>-1.0494600000000001</v>
+        <v>1686.6</v>
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A733">
-        <v>235.53899999999999</v>
+      <c r="A733" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A734">
-        <v>1175.69</v>
+      <c r="A734" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A735">
-        <v>989.48199999999997</v>
+      <c r="A735" t="s">
+        <v>1354</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A736">
-        <v>-493.90100000000001</v>
+      <c r="A736" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="737" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A737">
-        <v>-696.44299999999998</v>
+      <c r="A737" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="738" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A738">
-        <v>-968.74900000000002</v>
+      <c r="A738" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="739" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A739">
-        <v>-689.70600000000002</v>
+      <c r="A739" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="740" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A740">
-        <v>-961.93100000000004</v>
+      <c r="A740" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="741" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1325</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="742" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1326</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="743" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1327</v>
+        <v>1358</v>
       </c>
       <c r="Q743" s="1"/>
     </row>
     <row r="744" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1328</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="745" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1329</v>
+        <v>774</v>
       </c>
     </row>
     <row r="746" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A746" s="1"/>
+      <c r="A746" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="747" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>-54.417400000000001</v>
+      </c>
     </row>
     <row r="748" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A748" t="s">
-        <v>21</v>
+      <c r="A748">
+        <v>-5.2790800000000004</v>
       </c>
     </row>
     <row r="749" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>1146</v>
+        <v>13</v>
       </c>
     </row>
     <row r="750" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
-        <v>8</v>
+      <c r="A750">
+        <v>563.10500000000002</v>
       </c>
     </row>
     <row r="751" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A751" t="s">
-        <v>1147</v>
+      <c r="A751">
+        <v>-32.778300000000002</v>
       </c>
       <c r="Z751" s="1"/>
     </row>
     <row r="752" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
-        <v>1148</v>
+      <c r="A752">
+        <v>1.28705</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
-        <v>1149</v>
+      <c r="A753">
+        <v>545.471</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A754" t="s">
-        <v>1330</v>
+      <c r="A754">
+        <v>959.16899999999998</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A755" t="s">
-        <v>1150</v>
+      <c r="A755">
+        <v>932.05499999999995</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A756" t="s">
-        <v>1151</v>
+      <c r="A756">
+        <v>-456.50400000000002</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A757" t="s">
-        <v>1331</v>
+      <c r="A757">
+        <v>-732.31899999999996</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
-        <v>1211</v>
+      <c r="A758">
+        <v>-1012.47</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
-        <v>1332</v>
+      <c r="A759">
+        <v>-324.50799999999998</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
-        <v>1404</v>
+      <c r="A760">
+        <v>1687.45</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>1213</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>1333</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>1405</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>1215</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>1334</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>1217</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>1335</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>1336</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>774</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>12</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A771">
-        <v>-33.367699999999999</v>
+      <c r="A771" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A772">
-        <v>-0.68633</v>
+      <c r="A772" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>13</v>
+        <v>774</v>
       </c>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A774">
-        <v>451.06799999999998</v>
+      <c r="A774" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>-630.04100000000005</v>
+        <v>359.52199999999999</v>
       </c>
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>-0.30087399999999997</v>
+        <v>0.33294899999999999</v>
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A777">
-        <v>235.01300000000001</v>
+      <c r="A777" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>1174.47</v>
+        <v>684.45699999999999</v>
       </c>
       <c r="H778" s="1"/>
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>986.62300000000005</v>
+        <v>49.291400000000003</v>
       </c>
       <c r="H779" s="1"/>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>-496.685</v>
+        <v>-0.70823800000000003</v>
       </c>
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>-697.09900000000005</v>
+        <v>519.90200000000004</v>
       </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>-969.54700000000003</v>
+        <v>976.79200000000003</v>
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>-690.6</v>
+        <v>927.64800000000002</v>
       </c>
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>-962.94799999999998</v>
+        <v>-457.02499999999998</v>
       </c>
     </row>
     <row r="785" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
-        <v>1152</v>
+      <c r="A785">
+        <v>-842.495</v>
       </c>
     </row>
     <row r="786" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A786" t="s">
-        <v>1153</v>
+      <c r="A786">
+        <v>-967.91600000000005</v>
       </c>
     </row>
     <row r="787" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
-        <v>1337</v>
+      <c r="A787">
+        <v>-327.517</v>
       </c>
     </row>
     <row r="788" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
-        <v>1211</v>
+      <c r="A788">
+        <v>1691.35</v>
       </c>
     </row>
     <row r="789" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>1338</v>
+        <v>1366</v>
       </c>
       <c r="Q789" s="1"/>
     </row>
     <row r="790" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>1406</v>
+        <v>1367</v>
       </c>
       <c r="Q790" s="1"/>
     </row>
     <row r="791" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>1213</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="792" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>1339</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="793" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="794" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="795" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
-        <v>1340</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="796" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>1217</v>
+        <v>22</v>
       </c>
     </row>
     <row r="797" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>1341</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="798" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>1091</v>
+        <v>8</v>
       </c>
     </row>
     <row r="799" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>9</v>
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="800" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>15</v>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>12</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="804" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A804">
-        <v>0</v>
+      <c r="A804" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="805" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A805">
-        <v>0</v>
+      <c r="A805" t="s">
+        <v>1372</v>
       </c>
     </row>
     <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>13</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="807" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A807">
-        <v>451.06799999999998</v>
+      <c r="A807" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A808">
-        <v>-630.04100000000005</v>
+      <c r="A808" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="809" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A809">
-        <v>-0.30087399999999997</v>
+      <c r="A809" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="810" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A810">
-        <v>235.01300000000001</v>
+      <c r="A810" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="811" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A811">
-        <v>1174.47</v>
+      <c r="A811" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="812" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A812">
-        <v>986.62300000000005</v>
+      <c r="A812" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="813" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A813">
-        <v>-496.685</v>
+      <c r="A813" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="814" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A814">
-        <v>-697.09900000000005</v>
+      <c r="A814" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="815" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A815">
-        <v>-969.54700000000003</v>
+      <c r="A815" t="s">
+        <v>774</v>
       </c>
       <c r="H815" s="1"/>
     </row>
     <row r="816" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A816">
-        <v>-690.6</v>
+      <c r="A816" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817">
-        <v>-962.94799999999998</v>
+        <v>-10.3462</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A818" t="s">
-        <v>1154</v>
+      <c r="A818">
+        <v>1.1332</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>1155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A820" t="s">
-        <v>1342</v>
+      <c r="A820">
+        <v>762.91700000000003</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A821" t="s">
-        <v>1211</v>
+      <c r="A821">
+        <v>-20.2761</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A822" t="s">
-        <v>1338</v>
+      <c r="A822">
+        <v>-1.8900300000000001</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A823" t="s">
-        <v>1408</v>
+      <c r="A823">
+        <v>520.28</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A824" t="s">
-        <v>1213</v>
+      <c r="A824">
+        <v>976.76800000000003</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A825" t="s">
-        <v>1339</v>
+      <c r="A825">
+        <v>930.11800000000005</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A826" t="s">
-        <v>1409</v>
+      <c r="A826">
+        <v>-454.05399999999997</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A827" t="s">
-        <v>1215</v>
+      <c r="A827">
+        <v>-842.36199999999997</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A828" t="s">
-        <v>1340</v>
+      <c r="A828">
+        <v>-967.76599999999996</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A829" t="s">
-        <v>1217</v>
+      <c r="A829">
+        <v>-327.69600000000003</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A830" t="s">
-        <v>1341</v>
+      <c r="A830">
+        <v>1691.58</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>1091</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>9</v>
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>15</v>
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>12</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A837">
-        <v>0</v>
+      <c r="A837" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A838">
-        <v>0</v>
+      <c r="A838" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>13</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A840">
-        <v>451.06799999999998</v>
+      <c r="A840" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A841">
-        <v>-630.04100000000005</v>
+      <c r="A841" t="s">
+        <v>1382</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A842">
-        <v>-0.30087399999999997</v>
+      <c r="A842" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A843">
-        <v>235.01300000000001</v>
+      <c r="A843" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A844">
-        <v>1174.47</v>
+      <c r="A844" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>986.62300000000005</v>
+        <v>14.120200000000001</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>-496.685</v>
+        <v>6.2993999999999994E-2</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A847">
-        <v>-697.09900000000005</v>
+      <c r="A847" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848">
-        <v>-969.54700000000003</v>
+        <v>764.16800000000001</v>
       </c>
     </row>
     <row r="849" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>-690.6</v>
+        <v>-24.677299999999999</v>
       </c>
     </row>
     <row r="850" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>-962.94799999999998</v>
+        <v>-1.9247399999999999</v>
       </c>
     </row>
     <row r="851" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A851" t="s">
-        <v>1343</v>
+      <c r="A851">
+        <v>515.98099999999999</v>
       </c>
     </row>
     <row r="852" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A852" t="s">
-        <v>1344</v>
+      <c r="A852">
+        <v>978.61199999999997</v>
       </c>
     </row>
     <row r="853" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A853" t="s">
-        <v>1345</v>
+      <c r="A853">
+        <v>928.48500000000001</v>
       </c>
     </row>
     <row r="854" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A854" t="s">
-        <v>1346</v>
+      <c r="A854">
+        <v>-456.40899999999999</v>
       </c>
     </row>
     <row r="855" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A855" t="s">
-        <v>1347</v>
+      <c r="A855">
+        <v>-842.20699999999999</v>
+      </c>
+    </row>
+    <row r="856" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>-967.62</v>
+      </c>
+    </row>
+    <row r="857" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>-327.58600000000001</v>
       </c>
     </row>
     <row r="858" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A858" t="s">
-        <v>22</v>
+      <c r="A858">
+        <v>1691.44</v>
       </c>
     </row>
     <row r="859" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="860" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>8</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="861" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>1157</v>
+        <v>1384</v>
       </c>
       <c r="Z861" s="1"/>
     </row>
     <row r="862" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
-        <v>1158</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="863" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>1159</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="864" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1348</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>1160</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>1161</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>1349</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>1211</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>1350</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1410</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" t="s">
-        <v>1351</v>
+        <v>9</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" t="s">
-        <v>1215</v>
+        <v>15</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>1352</v>
+        <v>12</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" t="s">
-        <v>1217</v>
+      <c r="A876">
+        <v>2.4414100000000002E-4</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" t="s">
-        <v>1353</v>
+      <c r="A877">
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1354</v>
+        <v>13</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" t="s">
-        <v>774</v>
+      <c r="A879">
+        <v>764.16800000000001</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" t="s">
-        <v>12</v>
+      <c r="A880">
+        <v>-24.677299999999999</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>-7.7524100000000002</v>
+        <v>-1.9247399999999999</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>-2.3728699999999998E-2</v>
+        <v>515.98099999999999</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" t="s">
-        <v>13</v>
+      <c r="A883">
+        <v>978.61199999999997</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>550.90300000000002</v>
+        <v>928.48500000000001</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>-658.846</v>
+        <v>-456.40899999999999</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>-0.312079</v>
+        <v>-842.20699999999999</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>235.04</v>
+        <v>-967.62</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888">
-        <v>1174.3</v>
+        <v>-327.58600000000001</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889">
-        <v>986.39099999999996</v>
+        <v>1691.44</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890">
-        <v>-497.09399999999999</v>
+      <c r="A890" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891">
-        <v>-697.149</v>
+      <c r="A891" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892">
-        <v>-969.60799999999995</v>
+      <c r="A892" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893">
-        <v>-690.68</v>
+      <c r="A893" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894">
-        <v>-963.03899999999999</v>
-      </c>
-    </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" t="s">
-        <v>1162</v>
+      <c r="A894" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>1163</v>
+        <v>23</v>
       </c>
     </row>
     <row r="897" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>1355</v>
+        <v>24</v>
       </c>
     </row>
     <row r="898" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="899" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A899" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="900" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A900" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="901" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A901" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="902" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A902" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="903" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A903" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="904" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A904" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="905" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A905" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="906" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A906" t="s">
-        <v>1217</v>
+        <v>25</v>
       </c>
     </row>
     <row r="907" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A907" t="s">
-        <v>1359</v>
-      </c>
       <c r="Z907" s="1"/>
     </row>
     <row r="908" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A908" t="s">
-        <v>1091</v>
-      </c>
       <c r="Z908" s="1"/>
-    </row>
-    <row r="909" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A909" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="911" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A911" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917">
-        <v>550.90300000000002</v>
-      </c>
-    </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918">
-        <v>-658.846</v>
-      </c>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919">
-        <v>-0.312079</v>
-      </c>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920">
-        <v>235.04</v>
-      </c>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921">
-        <v>1174.3</v>
-      </c>
-    </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922">
-        <v>986.39099999999996</v>
-      </c>
-    </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923">
-        <v>-497.09399999999999</v>
-      </c>
-    </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924">
-        <v>-697.149</v>
-      </c>
-    </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925">
-        <v>-969.60799999999995</v>
-      </c>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926">
-        <v>-690.68</v>
-      </c>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927">
-        <v>-963.03899999999999</v>
-      </c>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A938" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A939" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A940" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A941" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A942" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A944" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A946" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A947">
-        <v>2.4414100000000002E-4</v>
-      </c>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A948">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A949" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A950">
-        <v>550.90300000000002</v>
-      </c>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A951">
-        <v>-658.846</v>
-      </c>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A952">
-        <v>-0.312079</v>
-      </c>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A953">
-        <v>235.04</v>
-      </c>
-    </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A954">
-        <v>1174.3</v>
-      </c>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A955">
-        <v>986.39099999999996</v>
-      </c>
-    </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A956">
-        <v>-497.09399999999999</v>
-      </c>
-    </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A957">
-        <v>-697.149</v>
-      </c>
-    </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A958">
-        <v>-969.60799999999995</v>
-      </c>
-    </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A959">
-        <v>-690.68</v>
-      </c>
-    </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A960">
-        <v>-963.03899999999999</v>
-      </c>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A961" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A962" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A963" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A964" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A965" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A967" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A968" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A969" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
+++ b/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\test_docs\landmark_tests\newSIMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E887381C-E165-4161-9181-95A86932445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D1F57C-9840-41F9-9A39-8D5E3F065BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1569">
   <si>
     <t>INIT_sigma_r = 0.5</t>
   </si>
@@ -4211,6 +4212,528 @@
   </si>
   <si>
     <t>curr_lm = (515.981,978.612),(928.485,-456.409),(-842.207,-967.62)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (955.3, -0.920339)Obs2 = 955.299,-0.920339</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (578.482,-760.234) Obs2 = (578.482,-760.234)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 25088.9 for (522.57,975.248)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 7448.86 for (0,0)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1303.87, -2.67396)Obs2 = 1303.87,-2.67396</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1163.89,-587.75) Obs2 = (-1163.89,-587.75)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 67282 for (522.57,975.248)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 257639 for (935.704,-462.24)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 67865.4 for (0,0)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (992.366, 0.719279)Obs2 = 992.366,0.719279</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (746.538,653.813) Obs2 = (746.538,653.813)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 196401 for (522.57,975.248)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 94508.5 for (935.704,-462.24)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 225333 for (-728.167,-1007.35)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 89150 for (0,0)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (898.403, -1.11725)Obs2 = 898.404,-1.11725</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (393.641,-807.574) Obs2 = (393.641,-807.574)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 21364.9 for (522.574,975.335)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 5546.78 for (935.695,-462.235)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 12496.5 for (-728.175,-1007.36)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 5614.22 for (0,0)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1393.89, -2.80898)Obs2 = 1393.89,-2.80897</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1317.49,-455.131) Obs2 = (-1317.49,-455.131)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 162762 for (522.573,975.335)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 597462 for (935.702,-462.245)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 166094 for (-728.175,-1007.36)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 162637 for (0,0)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (919.649, 0.687604)Obs2 = 919.649,0.687604</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (710.676,583.69) Obs2 = (710.676,583.69)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 401801 for (522.583,975.389)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 183558 for (935.721,-462.26)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 499241 for (-728.241,-1007.41)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 173191 for (0,0)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (858.783, -1.32917)Obs2 = 858.783,-1.32917</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (205.494,-833.835) Obs2 = (205.494,-833.835)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 8915.83 for (522.411,975.742)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 2301.47 for (935.699,-462.235)</t>
+  </si>
+  <si>
+    <t>(935.699,-462.235) &lt;-&gt; (926.407,-474.477) = 15.3692</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 5308.25 for (-728.29,-1007.46)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 2273.35 for (0,0)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 15.3692</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1488.65, -2.9273)Obs2 = 1488.65,-2.9273</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1454.6,-316.576) Obs2 = (-1454.6,-316.576)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark = (-1454.6,-316.576) -&gt; Shifted_Stored = (-1733.23,-406.426) -&gt; test = (-719.146,-1014.91)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 285047 for (522.412,975.796)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 994194 for (935.744,-462.505)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 274691 for (-728.271,-1007.43)</t>
+  </si>
+  <si>
+    <t>(-728.271,-1007.43) &lt;-&gt; (-719.146,-1014.92) = 11.8003</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 273309 for (0,0)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 11.8003</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (845.12, 0.667438)Obs2 = 845.12,0.667438</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (663.766,523.109) Obs2 = (663.766,523.109)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 654089 for (522.427,975.694)</t>
+  </si>
+  <si>
+    <t>(522.427,975.694) &lt;-&gt; (547.963,972.858) = 25.6927</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 317778 for (935.721,-462.471)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 866682 for (-728.193,-1007.4)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 290545 for (0,0)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 25.6927</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (839.184, -1.5328)Obs2 = 839.184,-1.5328</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (31.8766,-838.578) Obs2 = (31.8766,-838.578)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 63.3248 for (522.027,976.093)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 25.0353 for (935.717,-462.438)</t>
+  </si>
+  <si>
+    <t>(935.717,-462.438) &lt;-&gt; (929.781,-469.241) = 9.02847</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 39.6811 for (-728.265,-1007.45)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 23.435 for (0,0)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 9.02847</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1586.5, -3.03453)Obs2 = 1586.5,-3.03453</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1577.42,-169.531) Obs2 = (-1577.42,-169.532)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 464444 for (522.017,976.201)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.41291e+06 for (935.686,-462.767)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 399868 for (-728.209,-1007.38)</t>
+  </si>
+  <si>
+    <t>(-728.209,-1007.38) &lt;-&gt; (-721.64,-1012.38) = 8.25924</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 398311 for (0,0)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 8.25924</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (769.032, 0.641443)Obs2 = 769.032,0.641443</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (616.174,460.152) Obs2 = (616.174,460.152)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 957195 for (522.091,976.063)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 535845 for (935.673,-462.727)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.3327e+06 for (-728.137,-1007.37)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 446766 for (0,0)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (841.147, -1.74367)Obs2 = 841.147,-1.74367</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-144.689,-828.61) Obs2 = (-144.689,-828.61)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 13275.9 for (521.84,976.24)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 4546.3 for (935.678,-462.722)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 6762.43 for (-728.165,-1007.38)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 3379.29 for (0,0)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1686.12, 3.12655)Obs2 = 1686.12,3.12655</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1685.93,25.3679) Obs2 = (-1685.93,25.3677)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 742152 for (521.787,976.414)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.81806e+06 for (935.567,-463.138)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 534335 for (-728.067,-1007.27)</t>
+  </si>
+  <si>
+    <t>(-728.067,-1007.27) &lt;-&gt; (-740.996,-994.689) = 18.0417</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 519327 for (0,0)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 18.0417</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (692.002, 0.643863)Obs2 = 692.002,0.643863</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (553.451,415.402) Obs2 = (553.451,415.402)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.09001e+06 for (521.813,976.4)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 735073 for (935.561,-463.156)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.49076e+06 for (-728.049,-1007.27)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 587637 for (0,0)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (864.632, -1.97449)Obs2 = 864.632,-1.97449</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-339.646,-795.128) Obs2 = (-339.646,-795.128)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 22480.5 for (522.734,972.268)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 53789.5 for (935.381,-457.538)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 15348.5 for (-730.584,-1010)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 15066.5 for (0,0)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1786.1, 3.03925)Obs2 = 1786.1,3.03925</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1776.76,182.482) Obs2 = (-1776.76,182.482)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.33446e+06 for (522.977,973.198)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.57147e+06 for (934.139,-462.955)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.82363e+06 for (-729.944,-1009.17)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 3.34826e+06 for (-249.676,-47.8098)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (614.515, 0.634432)Obs2 = 614.515,0.634432</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (494.936,364.236) Obs2 = (494.936,364.236)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.53013e+06 for (522.977,973.198)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 2.41521e+06 for (934.139,-462.955)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.04075e+06 for (-729.944,-1009.17)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 2.30434e+06 for (-320.953,1682.85)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (907.752, -2.16994)Obs2 = 907.752,-2.16994</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-511.912,-749.64) Obs2 = (-511.912,-749.64)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 94093.8 for (522.904,973.431)</t>
+  </si>
+  <si>
+    <t>(522.904,973.431) &lt;-&gt; (-146.954,570.711) = 781.597</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 221492 for (933.298,-464.507)</t>
+  </si>
+  <si>
+    <t>(933.298,-464.507) &lt;-&gt; (-146.954,570.711) = 1496.2</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 63415.2 for (-729.8,-1009.03)</t>
+  </si>
+  <si>
+    <t>(-729.8,-1009.03) &lt;-&gt; (-146.954,570.711) = 1683.83</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 154171 for (-322.016,1684.23)</t>
+  </si>
+  <si>
+    <t>(-322.016,1684.23) &lt;-&gt; (-146.954,570.711) = 1127.19</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1885.63, 2.92956)Obs2 = 1885.63,2.92956</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1843.4,396.817) Obs2 = (-1843.4,396.818)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 2.30529e+06 for (534.221,966.536)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.50288e+06 for (933.993,-461.034)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 968803 for (-730.877,-1010.41)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.48875e+06 for (-323.567,1686.23)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (537.122, 0.628473)Obs2 = 537.122,0.628473</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (434.492,315.779) Obs2 = (434.492,315.779)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 3.22366e+06 for (534.221,966.536)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.80635e+06 for (933.993,-461.034)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 3.1104e+06 for (-730.877,-1010.41)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 2.40651e+06 for (-323.567,1686.23)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (967.352, -2.34389)Obs2 = 967.352,-2.34389</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-675.55,-692.389) Obs2 = (-675.55,-692.389)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 232087 for (533.357,965.816)</t>
+  </si>
+  <si>
+    <t>(533.357,965.816) &lt;-&gt; (-271.92,446.132) = 958.407</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 440200 for (932.852,-458.777)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 123494 for (-731.245,-1011.12)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 280069 for (-323.852,1686.6)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 958.407</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1983.69, 2.83499)Obs2 = 1983.69,2.83499</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1891.18,598.714) Obs2 = (-1891.18,598.714)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 2.50773e+06 for (545.471,959.169)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.46147e+06 for (932.055,-456.504)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.06805e+06 for (-732.319,-1012.47)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.45209e+06 for (-324.508,1687.45)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (461.154, 0.677644)Obs2 = 461.154,0.677644</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (359.263,289.125) Obs2 = (359.263,289.125)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 2.40054e+06 for (519.902,976.792)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.54434e+06 for (927.648,-457.025)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 2.93513e+06 for (-842.495,-967.916)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 2.38616e+06 for (-327.517,1691.35)</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (1040.26, -2.52065)Obs2 = 1040.26,-2.52065</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-846.08,-605.225) Obs2 = (-846.08,-605.225)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 583152 for (520.28,976.768)</t>
+  </si>
+  <si>
+    <t>(520.28,976.768) &lt;-&gt; (453.799,972.999) = 66.5877</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 801823 for (930.118,-454.054)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 277127 for (-842.362,-967.766)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 482926 for (-327.696,1691.58)</t>
+  </si>
+  <si>
+    <t>smallestDistance = 66.5877</t>
+  </si>
+  <si>
+    <t>ObservedLandmark in NewLM = (2079.6, 2.76229)Obs2 = 2079.6,2.76229</t>
+  </si>
+  <si>
+    <t>ObservedLandark in NewLM = (-1931.79,770.023) Obs2 = (-1931.79,770.023)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 2.88989e+06 for (515.981,978.612)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 2.6362e+06 for (928.485,-456.409)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.05607e+06 for (-842.207,-967.62)</t>
+  </si>
+  <si>
+    <t>Maha_Distance = 1.73554e+06 for (-327.586,1691.44)</t>
   </si>
 </sst>
 </file>
@@ -15133,7 +15656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22778D0B-131A-4173-BF5B-F3FD8F142ACA}">
   <dimension ref="A1:Z908"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+    <sheetView topLeftCell="A522" workbookViewId="0">
       <selection activeCell="O539" sqref="O539"/>
     </sheetView>
   </sheetViews>
@@ -19560,4 +20083,4769 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16431ACD-75DF-41A0-8007-2B40A16A415D}">
+  <dimension ref="A1:A970"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="O209" sqref="O209"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>99.682500000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.415269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>522.57000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>975.24800000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>5.9604600000000002E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>99.682500000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>-2.6031200000000002E-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.415269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>522.57000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>975.24800000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>935.70399999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-462.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>99.682500000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>-2.6031200000000002E-10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.415269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>522.57000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>975.24800000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>935.70399999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-462.24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-728.16700000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-1007.35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0.32312000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>-0.15657099999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>190.935</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>40.145200000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0.51056900000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>522.57399999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>975.33500000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>935.69500000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>-462.23500000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>-728.17499999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>-1007.36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>4.2175299999999999E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>-1.32376E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>190.92099999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>40.151899999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0.51720200000000005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>522.57299999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>975.33500000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>935.702</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>-462.245</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>-728.17499999999995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>-1007.36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0.32690399999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>-7.8368199999999996E-4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>191.011</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>40.225099999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.517405</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>522.58299999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>975.38900000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>935.721</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>-462.26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>-728.24099999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>-1007.41</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1.83911</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>0.14871000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>278.90800000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>89.662000000000006</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0.61245899999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>522.41099999999994</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>975.74199999999996</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>935.69899999999996</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>-462.23500000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>-728.29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>-1007.46</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>0.89971900000000005</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>-1.7875599999999998E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>278.63400000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>89.850099999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>0.62194099999999997</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>522.41200000000003</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>975.79600000000005</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>935.74400000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>-462.505</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>-728.27099999999996</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>-1007.43</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>-0.60974099999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>7.9145399999999994E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>278.42099999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>89.695400000000006</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>0.61937699999999996</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>522.42700000000002</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>975.69399999999996</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>935.721</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>-462.471</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>-728.19299999999998</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>-1007.4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2.49335</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>-3.0303500000000001E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>360.72500000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>147.529</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>0.70718800000000004</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>522.02700000000004</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>976.09299999999996</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>935.71699999999998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>-462.43799999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>-728.26499999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>-1007.45</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>0.92578099999999997</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>-1.0708000000000001E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>360.50900000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>147.768</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>0.71310899999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>522.01700000000005</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>976.20100000000002</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>935.68600000000004</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>-462.767</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>-728.20899999999995</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>-1007.38</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>-0.84130899999999997</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>5.1777400000000001E-3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>360.17399999999998</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>147.54300000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>0.71160199999999996</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>522.09100000000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>976.06299999999999</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>935.673</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>-462.72699999999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>-728.13699999999994</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>-1007.37</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>1.2023299999999999</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>0.17269499999999999</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>436.012</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>212.501</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>0.81556200000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>521.84</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>976.24</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>935.678</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>-462.72199999999998</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>-728.16499999999996</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>-1007.38</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>1.15198</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>5.6163100000000002E-3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>435.81200000000001</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>212.84200000000001</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>0.81332800000000005</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>521.78700000000003</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>976.41399999999999</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>935.56700000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>-463.13799999999998</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>-728.06700000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>-1007.27</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>-8.4716799999999995E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>-1.06996E-2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>435.79500000000002</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>212.815</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>-1.2769299999999999</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>521.81299999999999</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>976.4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>935.56100000000004</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>-463.15600000000001</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>-728.04899999999998</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>-1007.27</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>-53.928199999999997</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>0.411528</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>480.74200000000002</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>92.056399999999996</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>-1.5076799999999999</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>522.73400000000004</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>972.26800000000003</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>935.38099999999997</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>-457.53800000000001</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>-730.58399999999995</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>-1010</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>375.15600000000001</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>-0.52977700000000005</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>534.76599999999996</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>115.08199999999999</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>-0.96882299999999999</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>522.97699999999998</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>973.19799999999998</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>934.13900000000001</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>-462.95499999999998</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>-729.94399999999996</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>-1009.17</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>-249.67599999999999</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>-47.809800000000003</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>534.76599999999996</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>115.08199999999999</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>-0.96882299999999999</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>522.97699999999998</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>973.19799999999998</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>934.13900000000001</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>-462.95499999999998</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>-729.94399999999996</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>-1009.17</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>-320.95299999999997</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>1682.85</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>12.811299999999999</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>0.43364900000000001</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>587.87199999999996</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>37.751800000000003</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>-1.5991500000000001</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>522.904</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>973.43100000000004</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>933.298</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>-464.50700000000001</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>-729.8</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>-1009.03</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>-322.01600000000002</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>1684.23</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>-30.180399999999999</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>0.87397800000000003</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>588.45600000000002</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>47.994599999999998</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>-2.0130400000000002</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>534.221</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>966.53599999999994</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>933.99300000000005</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>-461.03399999999999</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>-730.87699999999995</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>-1010.41</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>-323.56700000000001</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>1686.23</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>588.45600000000002</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>47.994599999999998</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>-2.0130400000000002</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>534.221</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>966.53599999999994</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>933.99300000000005</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>-461.03399999999999</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>-730.87699999999995</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>-1010.41</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>-323.56700000000001</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>1686.23</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>-33.753999999999998</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>-0.582098</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>555.07000000000005</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>-55.722799999999999</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>-1.3431500000000001</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>533.35699999999997</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>965.81600000000003</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>932.85199999999998</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>-458.77699999999999</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>-731.245</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>-1011.12</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>-323.85199999999998</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>1686.6</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>-54.417400000000001</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>-5.2790800000000004</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>563.10500000000002</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>-32.778300000000002</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>1.28705</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>545.471</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>959.16899999999998</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>932.05499999999995</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>-456.50400000000002</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>-732.31899999999996</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>-1012.47</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>-324.50799999999998</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>1687.45</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>359.52199999999999</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>0.33294899999999999</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>684.45699999999999</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>49.291400000000003</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>-0.70823800000000003</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>519.90200000000004</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>976.79200000000003</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>927.64800000000002</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>-457.02499999999998</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>-842.495</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>-967.91600000000005</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>-327.517</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>1691.35</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>-10.3462</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>1.1332</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>762.91700000000003</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>-20.2761</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>-1.8900300000000001</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>520.28</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>976.76800000000003</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>930.11800000000005</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>-454.05399999999997</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>-842.36199999999997</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>-967.76599999999996</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>-327.69600000000003</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>1691.58</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>14.120200000000001</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>6.2993999999999994E-2</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>764.16800000000001</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>-24.677299999999999</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>-1.9247399999999999</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>515.98099999999999</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>978.61199999999997</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>928.48500000000001</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>-456.40899999999999</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>-842.20699999999999</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>-967.62</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>-327.58600000000001</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>1691.44</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>2.4414100000000002E-4</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>764.16800000000001</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>-24.677299999999999</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>-1.9247399999999999</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>515.98099999999999</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>978.61199999999997</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>928.48500000000001</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>-456.40899999999999</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>-842.20699999999999</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>-967.62</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>-327.58600000000001</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>1691.44</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
+++ b/tests/test_docs/landmark_tests/newSIMAS/New Microsoft Excel Worksheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johann\Uni\Modules\2023\EPR\Project\Code\SLAM_Git\EKF_SLAM_Robot\tests\test_docs\landmark_tests\newSIMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D1F57C-9840-41F9-9A39-8D5E3F065BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C24B03-0BE2-4346-A872-77269C5291A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="1854">
   <si>
     <t>INIT_sigma_r = 0.5</t>
   </si>
@@ -4734,6 +4735,861 @@
   </si>
   <si>
     <t>Maha_Distance = 1.73554e+06 for (-327.586,1691.44)</t>
+  </si>
+  <si>
+    <t>Observed Landmark polar =  1062.9634922774067 ,  0.7545663260631129</t>
+  </si>
+  <si>
+    <t>Observed Landmark carti =  774.4418941323254 ,  728.1010496677754 )</t>
+  </si>
+  <si>
+    <t>New LM at =  [[647.26398099]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [912.39641103]]</t>
+  </si>
+  <si>
+    <t>lm =  [[647.26398099]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1.01897888e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2.77481786e-01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [6.47263981e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9.12396411e+02]]</t>
+  </si>
+  <si>
+    <t>Observed Landmark polar =  955.2182871317619 ,  -0.9162809598471623</t>
+  </si>
+  <si>
+    <t>Observed Landmark carti =  581.5128547269741 ,  -757.8157928271371 )</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [647.26398099] ,  [912.39641103] Index =  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 9.55218287e+02 -9.16280960e-01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y = </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[-107.74520515]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  -1.67084729]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[24994.64275382]]</t>
+  </si>
+  <si>
+    <t>New LM at =  [[ 868.75888521]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-569.53155093]]</t>
+  </si>
+  <si>
+    <t>lm =  [[ 868.75888521]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[ 1.01897888e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 1.08316499e-14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 2.77481786e-01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 6.47263981e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 9.12396411e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 8.68758885e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-5.69531551e+02]]</t>
+  </si>
+  <si>
+    <t>Observed Landmark polar =  1303.8451315083344 ,  -2.6756777857292087</t>
+  </si>
+  <si>
+    <t>Observed Landmark carti =  -1164.8695097682673 ,  -585.739833177002 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1303.84513151   -2.67567779]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[240.88163923]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2.8529412 ]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[125316.75097771]]</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [868.75888521] ,  [-569.53155093] Index =  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[348.62684438]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ -1.75939683]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[258794.82442915]]</t>
+  </si>
+  <si>
+    <t>New LM at =  [[-857.95897245]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-882.43239617]]</t>
+  </si>
+  <si>
+    <t>lm =  [[-857.95897245]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-5.69531551e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.57958972e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.82432396e+02]]</t>
+  </si>
+  <si>
+    <t>Observed Landmark polar =  992.405505073616 ,  0.7116301664617682</t>
+  </si>
+  <si>
+    <t>Observed Landmark carti =  751.5469733787579 ,  648.1094300391312 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9.92405505e+02 7.11630166e-01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[-0.86907516]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.04384123]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[1.1193639]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[93.92013512]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 1.78257523]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[20504.14948938]]</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [-857.95897245] ,  [-882.43239617] Index =  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[-400.43529395]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  -2.79670263]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[223810.9690256]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[ 1.97195192e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 2.73064739e+01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 3.89964763e-01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 6.47228957e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 9.12166711e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 8.68750087e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-5.69525018e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.57930816e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.82406510e+02]]</t>
+  </si>
+  <si>
+    <t>Observed Landmark polar =  898.4685011171449 ,  -1.1239924425208123</t>
+  </si>
+  <si>
+    <t>Observed Landmark carti =  388.21510754024547 ,  -810.2682751886591 )</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [647.22895734] ,  [912.16671058] Index =  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [898.46850112  -1.12399244]</t>
+  </si>
+  <si>
+    <t>lm =  [[647.22895734]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [912.16671058]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[-94.25906915]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ -1.83432561]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[21818.10945124]]</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [868.75008691] ,  [-569.52501797] Index =  1</t>
+  </si>
+  <si>
+    <t>lm =  [[ 868.75008691]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-569.52501797]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[ 0.02884981]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.00747368]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[0.00204837]]</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [-857.93081615] ,  [-882.40650965] Index =  2</t>
+  </si>
+  <si>
+    <t>lm =  [[-857.93081615]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-882.40650965]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[-494.68210262]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [   1.69603974]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[388010.01470143]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[ 1.97192252e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 2.73064624e+01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 3.93794133e-01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 6.47228924e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 9.12166214e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 8.68754088e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-5.69535349e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.57931472e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.82407112e+02]]</t>
+  </si>
+  <si>
+    <t>Observed Landmark polar =  1393.861425721112 ,  -2.829095427325206</t>
+  </si>
+  <si>
+    <t>Observed Landmark carti =  -1326.355045351481 ,  -428.52300729827977 )</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [647.22892405] ,  [912.16621417] Index =  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1393.86142572   -2.82909543]</t>
+  </si>
+  <si>
+    <t>lm =  [[647.22892405]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [912.16621417]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[401.13297033]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2.74758891]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[395443.77055744]]</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [868.75408771] ,  [-569.53534894] Index =  1</t>
+  </si>
+  <si>
+    <t>lm =  [[ 868.75408771]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-569.53534894]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[495.40973175]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ -1.70874384]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[693033.37059498]]</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [-857.93147183] ,  [-882.40711218] Index =  2</t>
+  </si>
+  <si>
+    <t>lm =  [[-857.93147183]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-882.40711218]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[ 0.71216553]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.00523527]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[0.80543101]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[ 1.97413023e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 2.74402362e+01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 3.95373698e-01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 6.47265849e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 9.12281188e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 8.68801776e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-5.69576505e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.58083839e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.82498227e+02]]</t>
+  </si>
+  <si>
+    <t>Observed Landmark polar =  919.6573894225581 ,  0.6689349980972615</t>
+  </si>
+  <si>
+    <t>Observed Landmark carti =  721.4551946700706 ,  570.3263241365293 )</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [647.26584894] ,  [912.28118835] Index =  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [9.19657389e+02 6.68934998e-01]</t>
+  </si>
+  <si>
+    <t>lm =  [[647.26584894]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [912.28118835]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[0.36498429]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.07686317]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[0.21834084]]</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [868.80177596] ,  [-569.576505] Index =  1</t>
+  </si>
+  <si>
+    <t>lm =  [[ 868.80177596]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-569.576505  ]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[59.60302889]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 2.07835374]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[10263.95647086]]</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [-858.08383859] ,  [-882.49822734] Index =  2</t>
+  </si>
+  <si>
+    <t>lm =  [[-858.08383859]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-882.49822734]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[-568.57936548]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  -2.58498618]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[496823.68750918]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[ 2.88900373e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 6.55436816e+01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 5.00919927e-01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 6.47240319e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 9.12353517e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 8.68817724e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-5.69587153e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.58092346e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.82502812e+02]]</t>
+  </si>
+  <si>
+    <t>Observed Landmark polar =  858.7739520061106 ,  -1.3103370581454636</t>
+  </si>
+  <si>
+    <t>Observed Landmark carti =  221.15521012843365 ,  -829.8090585654279 )</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [647.240319] ,  [912.35351732] Index =  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [858.77395201  -1.31033706]</t>
+  </si>
+  <si>
+    <t>lm =  [[647.240319  ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [912.35351732]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[-60.73375055]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ -1.97989844]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[9289.62226874]]</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [868.81772389] ,  [-569.58715271] Index =  1</t>
+  </si>
+  <si>
+    <t>lm =  [[ 868.81772389]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-569.58715271]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[-1.28145956]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.02139119]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[4.74217706]]</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [-858.09234565] ,  [-882.50281197] Index =  2</t>
+  </si>
+  <si>
+    <t>lm =  [[-858.09234565]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-882.50281197]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[-629.30684209]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [   1.64145408]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[734481.7653453]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[ 2.88760264e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 6.55191017e+01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 4.85514057e-01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 6.47197320e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 9.12282627e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 8.68891116e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-5.68934182e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.58145061e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.82548380e+02]]</t>
+  </si>
+  <si>
+    <t>Observed Landmark polar =  1488.692641143175 ,  -2.9352016880166976</t>
+  </si>
+  <si>
+    <t>Observed Landmark carti =  -1457.0979423931328 ,  -305.0760004778163 )</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [647.19731952] ,  [912.28262708] Index =  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1488.69264114   -2.93520169]</t>
+  </si>
+  <si>
+    <t>lm =  [[647.19731952]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [912.28262708]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[569.18973692]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [  2.66313326]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[815311.50997538]]</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [868.89111616] ,  [-568.93418172] Index =  1</t>
+  </si>
+  <si>
+    <t>lm =  [[ 868.89111616]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-568.93418172]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[628.99340596]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ -1.61959413]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[1238904.52605799]]</t>
+  </si>
+  <si>
+    <t>Stored Landmark lm =  [-858.14506114] ,  [-882.54838045] Index =  2</t>
+  </si>
+  <si>
+    <t>lm =  [[-858.14506114]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-882.54838045]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[0.66583535]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.00113529]]</t>
+  </si>
+  <si>
+    <t>min distance =  [[0.82315996]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[ 2.88983533e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 6.56787474e+01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 4.84773870e-01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 6.47190597e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 9.12395929e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 8.68933511e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-5.68957321e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.58233868e+02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-8.82571165e+02]]</t>
+  </si>
+  <si>
+    <t>check sizes = 9 3</t>
+  </si>
+  <si>
+    <t>u[0][0]= 101.898 u[0][1]= 0.277482</t>
+  </si>
+  <si>
+    <t>Main: L0= 1062.96, 0.754566</t>
+  </si>
+  <si>
+    <t>Main: L0= 955.218, -0.916281</t>
+  </si>
+  <si>
+    <t>Main: L0= 1303.85, -2.67568</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=101.898, y=0, w=15.8985 deg</t>
+  </si>
+  <si>
+    <t>In NewLandmark2</t>
+  </si>
+  <si>
+    <t>Smallest Distance = 100</t>
+  </si>
+  <si>
+    <t>Smallest Distance Index = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta_z = </t>
+  </si>
+  <si>
+    <t>Smallest Distance Index = 1</t>
+  </si>
+  <si>
+    <t>Smallest Distance Index = 2</t>
+  </si>
+  <si>
+    <t>u[0][0]= 98.8213 u[0][1]= 0.067296</t>
+  </si>
+  <si>
+    <t>Main: L0= 992.406, 0.71163</t>
+  </si>
+  <si>
+    <t>Main: L0= 898.469, -1.12399</t>
+  </si>
+  <si>
+    <t>Main: L0= 1393.86, -2.8291</t>
+  </si>
+  <si>
+    <t>Smallest Distance Index = 3</t>
+  </si>
+  <si>
+    <t>Smallest Distance Index = 4</t>
+  </si>
+  <si>
+    <t>u[0][0]= 99.2558 u[0][1]= 0.183038</t>
+  </si>
+  <si>
+    <t>Main: L0= 919.657, 0.668935</t>
+  </si>
+  <si>
+    <t>Main: L0= 858.774, -1.31034</t>
+  </si>
+  <si>
+    <t>Main: L0= 1488.69, -2.9352</t>
+  </si>
+  <si>
+    <t>Landmark Index = 3</t>
+  </si>
+  <si>
+    <t>In Maha Distance Point = (647.264,912.396)Index = 3</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 24994.6 StoredPoint = (647.264,912.396) i = 3</t>
+  </si>
+  <si>
+    <t>Landmark Index = 5</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 68984.2 StoredPoint = (647.264,912.396) i = 3</t>
+  </si>
+  <si>
+    <t>In Maha Distance Point = (868.759,-569.531)Index = 5</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 258795 StoredPoint = (868.759,-569.531) i = 5</t>
+  </si>
+  <si>
+    <t>Landmark Index = 7</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=101.898, y=2.48925e-10, w=15.8985 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(647.264,912.396) | (868.759,-569.531) | (-857.959,-882.432) | </t>
+  </si>
+  <si>
+    <t>states[0][0]= 101.898 states[0][1]= 2.48925e-10</t>
+  </si>
+  <si>
+    <t>landmarks[0][0]= 647.264 landmarks[0][1]= 912.396</t>
+  </si>
+  <si>
+    <t>curr_lm = (647.264,912.396),(868.759,-569.531),(-857.959,-882.432)</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=196.939, y=27.0706, w=19.7543 deg</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 192794 StoredPoint = (647.264,912.396) i = 3</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 92745.6 StoredPoint = (868.759,-569.531) i = 5</t>
+  </si>
+  <si>
+    <t>In Maha Distance Point = (-857.959,-882.432)Index = 7</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 223849 StoredPoint = (-857.959,-882.432) i = 7</t>
+  </si>
+  <si>
+    <t>Landmark Index = 9</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 13400 StoredPoint = (647.264,912.396) i = 3</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 5514.72 StoredPoint = (868.759,-569.531) i = 5</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 11979.7 StoredPoint = (-857.959,-882.432) i = 7</t>
+  </si>
+  <si>
+    <t>In Maha Distance Point = (685.205,891.053)Index = 9</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 19045.8 StoredPoint = (685.205,891.053) i = 9</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 162048 StoredPoint = (647.264,912.396) i = 3</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 363386 StoredPoint = (868.759,-569.531) i = 5</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 163126 StoredPoint = (-857.959,-882.432) i = 7</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 532956 StoredPoint = (685.205,891.053) i = 9</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=196.939, y=27.0706, w=19.7543 deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(647.264,912.396) | (868.759,-569.531) | (-857.959,-882.432) | (685.205,891.053) | </t>
+  </si>
+  <si>
+    <t>states[1][0]= 196.939 states[1][1]= 27.0706</t>
+  </si>
+  <si>
+    <t>landmarks[1][0]= 647.264 landmarks[1][1]= 912.396</t>
+  </si>
+  <si>
+    <t>MAIN: after_motion State: x=290.354, y=60.6178, w=30.2416 deg</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 315230 StoredPoint = (647.264,912.396) i = 3</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 184587 StoredPoint = (868.759,-569.531) i = 5</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 359897 StoredPoint = (-857.959,-882.432) i = 7</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 516079 StoredPoint = (685.205,891.053) i = 9</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 5272.94 StoredPoint = (647.264,912.396) i = 3</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 2383.82 StoredPoint = (868.759,-569.531) i = 5</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 4421.01 StoredPoint = (-857.959,-882.432) i = 7</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 9287.76 StoredPoint = (685.205,891.053) i = 9</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 271218 StoredPoint = (647.264,912.396) i = 3</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 598019 StoredPoint = (868.759,-569.531) i = 5</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 270683 StoredPoint = (-857.959,-882.432) i = 7</t>
+  </si>
+  <si>
+    <t>Mahalanobis_distance = 982811 StoredPoint = (685.205,891.053) i = 9</t>
+  </si>
+  <si>
+    <t>MAIN: after_ekf State: x=290.354, y=60.6179, w=30.2416 deg</t>
+  </si>
+  <si>
+    <t>states[2][0]= 290.354 states[2][1]= 60.6179</t>
+  </si>
+  <si>
+    <t>landmarks[2][0]= 647.264 landmarks[2][1]= 912.396</t>
   </si>
 </sst>
 </file>
@@ -20089,7 +20945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16431ACD-75DF-41A0-8007-2B40A16A415D}">
   <dimension ref="A1:A970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="O209" sqref="O209"/>
     </sheetView>
   </sheetViews>
@@ -24848,4 +25704,2855 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9901A11D-FC85-4EA7-BD8A-F6ED1594DB80}">
+  <dimension ref="A1:I372"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25">
+        <v>101.898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1579</v>
+      </c>
+      <c r="I27">
+        <v>0.27748200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I28">
+        <v>647.26400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>912.39599999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I39">
+        <v>-107.745</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I40">
+        <v>-1.6708499999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-5.9604600000000002E-8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>101.898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2.48925E-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I52">
+        <v>0.27748200000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I53">
+        <v>647.26400000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I54">
+        <v>912.39599999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <v>868.75900000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I56">
+        <v>-569.53099999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64">
+        <v>348.62700000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I65">
+        <v>-1.7594000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I69">
+        <v>348.62700000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I70">
+        <v>-1.7594000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I80">
+        <v>101.898</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I81" s="1">
+        <v>2.48925E-10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I82">
+        <v>0.27748200000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I83">
+        <v>647.26400000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I84">
+        <v>912.39599999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I85">
+        <v>868.75900000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I86">
+        <v>-569.53099999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>-857.95899999999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>69</v>
+      </c>
+      <c r="I88">
+        <v>-882.43200000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>69</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>69</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I108">
+        <v>-400.435</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I109">
+        <v>-2.89588</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I113">
+        <v>-400.435</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114">
+        <v>-2.89588</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I118">
+        <v>-400.435</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I119">
+        <v>-2.89588</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>41</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1625</v>
+      </c>
+      <c r="I125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I127" s="1">
+        <v>5.9604600000000002E-8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I129">
+        <v>196.93899999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I130">
+        <v>27.070599999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I131">
+        <v>0.34477799999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I132">
+        <v>647.26400000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I133">
+        <v>912.39599999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>868.75900000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>35</v>
+      </c>
+      <c r="I135">
+        <v>-569.53099999999995</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I136">
+        <v>-857.95899999999995</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I137">
+        <v>-882.43200000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I138">
+        <v>685.20500000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139">
+        <v>891.053</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I143">
+        <v>-93.936999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I144">
+        <v>-1.83562</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="I148">
+        <v>-93.936999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I149">
+        <v>-1.83562</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I153">
+        <v>-93.936999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1647</v>
+      </c>
+      <c r="I154">
+        <v>-1.83562</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I158">
+        <v>-93.936999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I159">
+        <v>-1.83562</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>41</v>
+      </c>
+      <c r="I167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I168" s="1">
+        <v>6.1035200000000001E-5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I171">
+        <v>196.93899999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I172">
+        <v>27.070599999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I173">
+        <v>0.34477799999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I174">
+        <v>647.26400000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I175">
+        <v>912.39599999999996</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I176">
+        <v>868.75900000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <v>-569.53099999999995</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>35</v>
+      </c>
+      <c r="I178">
+        <v>-857.95899999999995</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I179">
+        <v>-882.43200000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I180">
+        <v>685.20500000000004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I181">
+        <v>891.053</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I185">
+        <v>495.39299999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I186">
+        <v>-1.7051000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I187" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1672</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I190">
+        <v>495.39299999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="I191">
+        <v>-1.7051000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I193" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I194" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I195">
+        <v>495.39299999999997</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1676</v>
+      </c>
+      <c r="I196">
+        <v>-1.7051000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I198" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I199" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="I200">
+        <v>495.39299999999997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I201">
+        <v>-1.7051000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I202" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I203" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I204" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I207" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>41</v>
+      </c>
+      <c r="I210">
+        <v>1.2207E-4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I213">
+        <v>196.93899999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1688</v>
+      </c>
+      <c r="I214">
+        <v>27.070599999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I215">
+        <v>0.34477799999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I216">
+        <v>647.26400000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I217">
+        <v>912.39599999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I218">
+        <v>868.75900000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1693</v>
+      </c>
+      <c r="I219">
+        <v>-569.53099999999995</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <v>-857.95899999999995</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>143</v>
+      </c>
+      <c r="I221">
+        <v>-882.43200000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>143</v>
+      </c>
+      <c r="I222">
+        <v>685.20500000000004</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>143</v>
+      </c>
+      <c r="I223">
+        <v>891.053</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I224" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>35</v>
+      </c>
+      <c r="I225" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I226" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1695</v>
+      </c>
+      <c r="I227" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1696</v>
+      </c>
+      <c r="I228" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I231" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I232" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I234" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I235" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I236" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1703</v>
+      </c>
+      <c r="I237" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="I238" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I239" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I240" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I241">
+        <v>-568.96500000000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I242">
+        <v>-2.7851499999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I243" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1707</v>
+      </c>
+      <c r="I244" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1708</v>
+      </c>
+      <c r="I245" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1709</v>
+      </c>
+      <c r="I246">
+        <v>-568.96500000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="I247">
+        <v>-2.7851499999999998</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I248" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I249" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I250" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I251">
+        <v>-568.96500000000003</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I252">
+        <v>-2.7851499999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I253" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I254" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I255" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I256">
+        <v>-568.96500000000003</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>41</v>
+      </c>
+      <c r="I257">
+        <v>-2.7851499999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1715</v>
+      </c>
+      <c r="I258" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I259" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I260" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I265" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1723</v>
+      </c>
+      <c r="I266" s="1">
+        <v>-6.1035200000000001E-5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I267" s="1">
+        <v>1.1920900000000001E-7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>35</v>
+      </c>
+      <c r="I268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I269">
+        <v>290.35399999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I270">
+        <v>60.617800000000003</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I271">
+        <v>0.52781500000000003</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>10</v>
+      </c>
+      <c r="I272">
+        <v>647.26400000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I273">
+        <v>912.39599999999996</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I274">
+        <v>868.75900000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I275">
+        <v>-569.53099999999995</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I276">
+        <v>-857.95899999999995</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I277">
+        <v>-882.43200000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I278">
+        <v>685.20500000000004</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I279">
+        <v>891.053</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1733</v>
+      </c>
+      <c r="I280" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>10</v>
+      </c>
+      <c r="I281" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I282" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I283">
+        <v>-60.883499999999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I284">
+        <v>-1.9792700000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I285" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I286" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1737</v>
+      </c>
+      <c r="I287" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I288">
+        <v>-60.883499999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I289">
+        <v>-1.9792700000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>10</v>
+      </c>
+      <c r="I290" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I291" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I292" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1741</v>
+      </c>
+      <c r="I293">
+        <v>-60.883499999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I294">
+        <v>-1.9792700000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>1742</v>
+      </c>
+      <c r="I295" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>1743</v>
+      </c>
+      <c r="I296" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I297" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I298">
+        <v>-60.883499999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I299">
+        <v>-1.9792700000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>41</v>
+      </c>
+      <c r="I300" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I301" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I302" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I303" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I305" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>1751</v>
+      </c>
+      <c r="I307" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I308" s="1">
+        <v>6.1035200000000001E-5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1753</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I310" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>35</v>
+      </c>
+      <c r="I311">
+        <v>290.35399999999998</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I312">
+        <v>60.617800000000003</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I313">
+        <v>0.52781500000000003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I314">
+        <v>647.26400000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>10</v>
+      </c>
+      <c r="I315">
+        <v>912.39599999999996</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I316">
+        <v>868.75900000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I317">
+        <v>-569.53099999999995</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1759</v>
+      </c>
+      <c r="I318">
+        <v>-857.95899999999995</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I319">
+        <v>-882.43200000000002</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I320">
+        <v>685.20500000000004</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1761</v>
+      </c>
+      <c r="I321">
+        <v>891.053</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I322" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1763</v>
+      </c>
+      <c r="I323" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>10</v>
+      </c>
+      <c r="I324" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I325">
+        <v>629.91899999999998</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1764</v>
+      </c>
+      <c r="I326">
+        <v>-1.62486</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I327" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I328" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I329" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I330">
+        <v>629.91899999999998</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I331">
+        <v>-1.62486</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I332" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>10</v>
+      </c>
+      <c r="I333" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I334" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I335">
+        <v>629.91899999999998</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I336">
+        <v>-1.62486</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I337" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I338" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1773</v>
+      </c>
+      <c r="I339" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I340">
+        <v>629.91899999999998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I341">
+        <v>-1.62486</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I342" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>41</v>
+      </c>
+      <c r="I343" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I344" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1778</v>
+      </c>
+      <c r="I347" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I349" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1781</v>
+      </c>
+      <c r="I350">
+        <v>1.2207E-4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1782</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I352" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>717</v>
+      </c>
+      <c r="I353">
+        <v>290.35399999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>718</v>
+      </c>
+      <c r="I354">
+        <v>60.617899999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I355">
+        <v>0.52781500000000003</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I356">
+        <v>647.26400000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I357">
+        <v>912.39599999999996</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I358">
+        <v>868.75900000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I359">
+        <v>-569.53099999999995</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I360">
+        <v>-857.95899999999995</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I361">
+        <v>-882.43200000000002</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I362">
+        <v>685.20500000000004</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I363">
+        <v>891.053</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I364" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I365" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I366" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I367" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I368" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I370" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I371" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="372" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I372" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>